--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martiendt/Projects/Web/point/point/storage/app/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martiendt/Projects/Web/point/point/storage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AA805C-708B-864F-9BAB-E8420FBD7A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138ED2B-0460-3D42-ABC3-C5372750883B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-1540" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANUFACTURE" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MANUFACTURE!$A$1:$L$100</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="252">
   <si>
     <t>GROUP</t>
   </si>
@@ -93,9 +96,6 @@
     <t>PIUTANG KARYAWAN</t>
   </si>
   <si>
-    <t>PURCHASE DOWNPAYMENT</t>
-  </si>
-  <si>
     <t>UANG MUKA PEMBELIAN</t>
   </si>
   <si>
@@ -279,9 +279,6 @@
     <t>HUTANG USAHA</t>
   </si>
   <si>
-    <t>SALES DOWNPAYMENT</t>
-  </si>
-  <si>
     <t>UANG MUKA PENJUALAN</t>
   </si>
   <si>
@@ -783,13 +780,13 @@
     <t>DEBIT</t>
   </si>
   <si>
-    <t>KREDIT</t>
-  </si>
-  <si>
     <t>DIFFERENCE STOCK EXPENSES</t>
   </si>
   <si>
     <t>BEBAN SELISIH PERSEDIAAN</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
   </si>
 </sst>
 </file>
@@ -1676,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="125" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1697,40 +1694,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1753,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -1762,10 +1759,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F3" s="1">
         <v>10199</v>
@@ -1777,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J3" s="1"/>
       <c r="L3" s="1" t="b">
@@ -1804,7 +1801,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -1828,7 +1825,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -1837,28 +1834,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="1">
         <v>10401</v>
       </c>
       <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1866,28 +1863,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>10402</v>
       </c>
       <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1895,28 +1892,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="1">
         <v>10403</v>
       </c>
       <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1927,28 +1924,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="1">
         <v>10404</v>
       </c>
       <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1956,28 +1953,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F10" s="1">
         <v>10405</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -2003,13 +2000,13 @@
         <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L11" s="1" t="b">
         <v>1</v>
@@ -2035,13 +2032,13 @@
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L12" s="3" t="b">
         <v>1</v>
@@ -2067,13 +2064,13 @@
         <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L13" s="3" t="b">
         <v>1</v>
@@ -2099,13 +2096,13 @@
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L14" s="3" t="b">
         <v>1</v>
@@ -2116,22 +2113,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F15" s="1">
         <v>10599</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -2140,28 +2137,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F16" s="1">
         <v>10601</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L16" s="3" t="b">
         <v>1</v>
@@ -2172,28 +2169,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F17" s="1">
         <v>10602</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L17" s="3" t="b">
         <v>1</v>
@@ -2204,22 +2201,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1">
         <v>10701</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J18" s="1"/>
       <c r="L18" t="b">
@@ -2231,22 +2228,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1">
         <v>10801</v>
       </c>
       <c r="G19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -2255,22 +2252,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1">
         <v>10901</v>
       </c>
       <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
         <v>38</v>
       </c>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -2279,22 +2276,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1">
         <v>10902</v>
       </c>
       <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2303,22 +2300,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1">
         <v>10903</v>
       </c>
       <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
         <v>42</v>
       </c>
-      <c r="H22" t="s">
-        <v>43</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -2327,28 +2324,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1">
         <v>11101</v>
       </c>
       <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
         <v>45</v>
       </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2356,28 +2353,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1">
         <v>11202</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2385,19 +2382,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1">
         <v>11203</v>
       </c>
       <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
         <v>50</v>
-      </c>
-      <c r="H25" t="s">
-        <v>51</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>251</v>
@@ -2406,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2414,28 +2411,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1">
         <v>11301</v>
       </c>
       <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
         <v>52</v>
       </c>
-      <c r="H26" t="s">
-        <v>53</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2443,19 +2440,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1">
         <v>11302</v>
       </c>
       <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
         <v>54</v>
-      </c>
-      <c r="H27" t="s">
-        <v>55</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>251</v>
@@ -2464,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2472,28 +2469,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="1">
         <v>11401</v>
       </c>
       <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" t="s">
         <v>56</v>
       </c>
-      <c r="H28" t="s">
-        <v>57</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2501,19 +2498,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1">
         <v>11402</v>
       </c>
       <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" t="s">
         <v>58</v>
-      </c>
-      <c r="H29" t="s">
-        <v>59</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>251</v>
@@ -2522,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2530,28 +2527,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1">
         <v>11501</v>
       </c>
       <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
         <v>60</v>
       </c>
-      <c r="H30" t="s">
-        <v>61</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2559,19 +2556,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1">
         <v>11502</v>
       </c>
       <c r="G31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" t="s">
         <v>62</v>
-      </c>
-      <c r="H31" t="s">
-        <v>63</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>251</v>
@@ -2580,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2588,28 +2585,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="1">
         <v>11601</v>
       </c>
       <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
         <v>64</v>
       </c>
-      <c r="H32" t="s">
-        <v>65</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2617,19 +2614,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1">
         <v>11602</v>
       </c>
       <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
         <v>66</v>
-      </c>
-      <c r="H33" t="s">
-        <v>67</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>251</v>
@@ -2638,7 +2635,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2646,28 +2643,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1">
         <v>11701</v>
       </c>
       <c r="G34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s">
         <v>68</v>
       </c>
-      <c r="H34" t="s">
-        <v>69</v>
-      </c>
       <c r="I34" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2675,19 +2672,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1">
         <v>11702</v>
       </c>
       <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
         <v>70</v>
-      </c>
-      <c r="H35" t="s">
-        <v>71</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>251</v>
@@ -2696,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2704,28 +2701,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1">
         <v>11801</v>
       </c>
       <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s">
         <v>73</v>
       </c>
-      <c r="H36" t="s">
-        <v>74</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2733,19 +2730,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F37" s="1">
         <v>11802</v>
       </c>
       <c r="G37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s">
         <v>77</v>
-      </c>
-      <c r="H37" t="s">
-        <v>78</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>251</v>
@@ -2754,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2762,19 +2759,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F38" s="1">
         <v>20101</v>
       </c>
       <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s">
         <v>79</v>
-      </c>
-      <c r="H38" t="s">
-        <v>80</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>251</v>
@@ -2783,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L38" s="3" t="b">
         <v>1</v>
@@ -2794,19 +2791,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F39" s="1">
         <v>20201</v>
       </c>
       <c r="G39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s">
         <v>81</v>
-      </c>
-      <c r="H39" t="s">
-        <v>82</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>251</v>
@@ -2815,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L39" s="1" t="b">
         <v>1</v>
@@ -2826,19 +2823,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F40" s="1">
         <v>20301</v>
       </c>
       <c r="G40" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>251</v>
@@ -2847,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L40" s="1" t="b">
         <v>1</v>
@@ -2858,19 +2855,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F41" s="1">
         <v>20401</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>251</v>
@@ -2885,19 +2882,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1">
         <v>20501</v>
       </c>
       <c r="G42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>251</v>
@@ -2906,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L42" s="3" t="b">
         <v>1</v>
@@ -2917,19 +2914,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F43" s="1">
         <v>20502</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>251</v>
@@ -2938,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L43" s="3" t="b">
         <v>1</v>
@@ -2949,19 +2946,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" s="1">
         <v>20601</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>251</v>
@@ -2973,19 +2970,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1">
         <v>20602</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>251</v>
@@ -2997,19 +2994,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" s="1">
         <v>20701</v>
       </c>
       <c r="G46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>251</v>
@@ -3021,19 +3018,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F47" s="1">
         <v>21101</v>
       </c>
       <c r="G47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>251</v>
@@ -3045,19 +3042,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F48" s="1">
         <v>21201</v>
       </c>
       <c r="G48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>251</v>
@@ -3069,19 +3066,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F49" s="1">
         <v>21301</v>
       </c>
       <c r="G49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>251</v>
@@ -3093,19 +3090,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F50" s="1">
         <v>21401</v>
       </c>
       <c r="G50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>251</v>
@@ -3117,19 +3114,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F51" s="1">
         <v>30101</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>251</v>
@@ -3144,19 +3141,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F52" s="1">
         <v>30102</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>251</v>
@@ -3171,19 +3168,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F53" s="1">
         <v>30103</v>
       </c>
       <c r="G53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>251</v>
@@ -3198,19 +3195,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54" s="1">
         <v>30111</v>
       </c>
       <c r="G54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>251</v>
@@ -3225,19 +3222,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F55" s="1">
         <v>30112</v>
       </c>
       <c r="G55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>251</v>
@@ -3252,19 +3249,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F56" s="1">
         <v>40101</v>
       </c>
       <c r="G56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>251</v>
@@ -3278,28 +3275,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F57" s="1">
         <v>40102</v>
       </c>
       <c r="G57" t="s">
+        <v>203</v>
+      </c>
+      <c r="H57" t="s">
         <v>205</v>
       </c>
-      <c r="H57" t="s">
-        <v>207</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L57" t="b">
         <v>1</v>
@@ -3310,22 +3307,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F58" s="1">
         <v>40103</v>
       </c>
       <c r="G58" t="s">
+        <v>204</v>
+      </c>
+      <c r="H58" t="s">
         <v>206</v>
       </c>
-      <c r="H58" t="s">
-        <v>208</v>
-      </c>
       <c r="I58" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
@@ -3336,19 +3333,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F59" s="1">
         <v>41101</v>
       </c>
       <c r="G59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>251</v>
@@ -3360,19 +3357,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F60" s="1">
         <v>41102</v>
       </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>251</v>
@@ -3384,19 +3381,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F61" s="1">
         <v>41103</v>
       </c>
       <c r="G61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>251</v>
@@ -3408,19 +3405,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F62" s="1">
         <v>41199</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>251</v>
@@ -3432,19 +3429,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F63" s="1">
         <v>41200</v>
       </c>
       <c r="G63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>251</v>
@@ -3456,22 +3453,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F64" s="1">
         <v>50101</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J64" s="1"/>
       <c r="L64" t="b">
@@ -3483,10 +3480,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
@@ -3498,13 +3495,13 @@
         <v>50111</v>
       </c>
       <c r="G65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -3513,10 +3510,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>8</v>
@@ -3528,13 +3525,13 @@
         <v>50112</v>
       </c>
       <c r="G66" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J66" s="1"/>
       <c r="L66" s="3"/>
@@ -3544,10 +3541,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
@@ -3559,13 +3556,13 @@
         <v>50113</v>
       </c>
       <c r="G67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -3574,10 +3571,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -3589,13 +3586,13 @@
         <v>50114</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J68" s="1"/>
     </row>
@@ -3604,10 +3601,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>8</v>
@@ -3619,13 +3616,13 @@
         <v>50115</v>
       </c>
       <c r="G69" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H69" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J69" s="1"/>
     </row>
@@ -3634,10 +3631,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>8</v>
@@ -3649,13 +3646,13 @@
         <v>50116</v>
       </c>
       <c r="G70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J70" s="1"/>
     </row>
@@ -3664,10 +3661,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
@@ -3679,13 +3676,13 @@
         <v>50117</v>
       </c>
       <c r="G71" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J71" s="1"/>
     </row>
@@ -3694,10 +3691,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
@@ -3709,13 +3706,13 @@
         <v>50118</v>
       </c>
       <c r="G72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J72" s="1"/>
     </row>
@@ -3724,10 +3721,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>8</v>
@@ -3739,13 +3736,13 @@
         <v>50119</v>
       </c>
       <c r="G73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H73" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J73" s="1"/>
     </row>
@@ -3754,10 +3751,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>8</v>
@@ -3769,13 +3766,13 @@
         <v>50120</v>
       </c>
       <c r="G74" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J74" s="1"/>
     </row>
@@ -3784,10 +3781,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>8</v>
@@ -3799,13 +3796,13 @@
         <v>50121</v>
       </c>
       <c r="G75" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J75" s="1"/>
     </row>
@@ -3814,10 +3811,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>8</v>
@@ -3829,13 +3826,13 @@
         <v>50122</v>
       </c>
       <c r="G76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J76" s="1"/>
     </row>
@@ -3844,10 +3841,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>8</v>
@@ -3859,13 +3856,13 @@
         <v>50123</v>
       </c>
       <c r="G77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J77" s="1"/>
     </row>
@@ -3874,10 +3871,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>8</v>
@@ -3889,13 +3886,13 @@
         <v>50124</v>
       </c>
       <c r="G78" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H78" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J78" s="1"/>
     </row>
@@ -3904,10 +3901,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>8</v>
@@ -3919,13 +3916,13 @@
         <v>50125</v>
       </c>
       <c r="G79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J79" s="1"/>
     </row>
@@ -3934,10 +3931,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>8</v>
@@ -3949,13 +3946,13 @@
         <v>50126</v>
       </c>
       <c r="G80" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H80" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J80" s="1"/>
     </row>
@@ -3964,10 +3961,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>8</v>
@@ -3979,13 +3976,13 @@
         <v>50127</v>
       </c>
       <c r="G81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J81" s="1"/>
     </row>
@@ -3994,10 +3991,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>8</v>
@@ -4009,13 +4006,13 @@
         <v>50128</v>
       </c>
       <c r="G82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H82" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J82" s="1"/>
     </row>
@@ -4024,10 +4021,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>8</v>
@@ -4039,13 +4036,13 @@
         <v>50129</v>
       </c>
       <c r="G83" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H83" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J83" s="1"/>
     </row>
@@ -4054,10 +4051,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>8</v>
@@ -4069,13 +4066,13 @@
         <v>50130</v>
       </c>
       <c r="G84" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J84" s="1"/>
     </row>
@@ -4084,10 +4081,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>8</v>
@@ -4099,13 +4096,13 @@
         <v>50131</v>
       </c>
       <c r="G85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H85" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J85" s="1"/>
     </row>
@@ -4114,10 +4111,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>8</v>
@@ -4129,13 +4126,13 @@
         <v>50132</v>
       </c>
       <c r="G86" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H86" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J86" s="1"/>
     </row>
@@ -4144,10 +4141,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>8</v>
@@ -4159,13 +4156,13 @@
         <v>50133</v>
       </c>
       <c r="G87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H87" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J87" s="1"/>
     </row>
@@ -4174,10 +4171,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>8</v>
@@ -4189,13 +4186,13 @@
         <v>50134</v>
       </c>
       <c r="G88" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H88" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J88" s="1"/>
     </row>
@@ -4204,13 +4201,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
@@ -4219,13 +4216,13 @@
         <v>50135</v>
       </c>
       <c r="G89" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H89" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -4234,13 +4231,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
@@ -4249,13 +4246,13 @@
         <v>50136</v>
       </c>
       <c r="G90" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H90" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J90" s="1"/>
     </row>
@@ -4264,13 +4261,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
@@ -4279,13 +4276,13 @@
         <v>50137</v>
       </c>
       <c r="G91" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H91" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -4294,28 +4291,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F92" s="1">
         <v>50138</v>
       </c>
       <c r="G92" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J92" s="1"/>
     </row>
@@ -4324,28 +4321,28 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F93" s="1">
         <v>50139</v>
       </c>
       <c r="G93" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H93" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J93" s="1"/>
     </row>
@@ -4354,28 +4351,28 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F94" s="1">
         <v>50140</v>
       </c>
       <c r="G94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J94" s="1"/>
     </row>
@@ -4384,28 +4381,28 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F95" s="1">
         <v>50141</v>
       </c>
       <c r="G95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H95" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J95" s="1"/>
     </row>
@@ -4414,28 +4411,28 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F96" s="1">
         <v>50142</v>
       </c>
       <c r="G96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H96" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J96" s="1"/>
     </row>
@@ -4444,28 +4441,28 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F97" s="1">
         <v>50143</v>
       </c>
       <c r="G97" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H97" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J97" s="1"/>
     </row>
@@ -4474,28 +4471,28 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F98" s="1">
         <v>50144</v>
       </c>
       <c r="G98" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H98" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J98" s="1"/>
     </row>
@@ -4504,28 +4501,28 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F99" s="1">
         <v>50145</v>
       </c>
       <c r="G99" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H99" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J99" s="1"/>
     </row>
@@ -4534,31 +4531,32 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F100" s="1">
         <v>50146</v>
       </c>
       <c r="G100" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H100" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L100" xr:uid="{CB60C5CD-B9F0-DA48-9A5E-ECB3D71414CB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martiendt/Projects/Web/point/point/storage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138ED2B-0460-3D42-ABC3-C5372750883B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F400FDEF-9697-D745-8C2E-E26047E6DC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1540" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANUFACTURE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="251">
   <si>
     <t>GROUP</t>
   </si>
@@ -249,9 +249,6 @@
     <t>OTHER ASSETS</t>
   </si>
   <si>
-    <t>INTANGIBLE FIX ASSETS</t>
-  </si>
-  <si>
     <t>AKTIVA TETAP TAK BERWUJUD</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>AMORTISASI ASET TETAP</t>
   </si>
   <si>
-    <t>ACCUMULATED AMORTIZED OF INTANGBLE FIX ASSETS</t>
-  </si>
-  <si>
     <t>AKUMULASI AMORTISASI AKTIVA TETAP TAK BERWUJUD</t>
   </si>
   <si>
@@ -546,9 +540,6 @@
     <t>BEBAN PENYUSUTAN KENDARAAN KANTOR</t>
   </si>
   <si>
-    <t>AMORTIZATION INTANGIBLE FIX ASSETS EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PENYUSUTAN AKTIVA TETAP TAK BERWUJUD</t>
   </si>
   <si>
@@ -717,12 +708,6 @@
     <t>OTHER CURRENT ASSET</t>
   </si>
   <si>
-    <t>FIX ASSET</t>
-  </si>
-  <si>
-    <t>FIX ASSET DEPRECIATION</t>
-  </si>
-  <si>
     <t>UANG MUKA EKSPEDISI</t>
   </si>
   <si>
@@ -787,6 +772,18 @@
   </si>
   <si>
     <t>CREDIT</t>
+  </si>
+  <si>
+    <t>FIXED ASSET DEPRECIATION</t>
+  </si>
+  <si>
+    <t>INTANGIBLE FIXED ASSETS</t>
+  </si>
+  <si>
+    <t>ACCUMULATED AMORTIZED OF INTANGBLE FIXED ASSETS</t>
+  </si>
+  <si>
+    <t>AMORTIZATION INTANGIBLE FIXED ASSETS EXPENSES</t>
   </si>
 </sst>
 </file>
@@ -1673,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1694,40 +1691,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1750,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -1759,10 +1756,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F3" s="1">
         <v>10199</v>
@@ -1774,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J3" s="1"/>
       <c r="L3" s="1" t="b">
@@ -1801,7 +1798,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -1825,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -1849,13 +1846,13 @@
         <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1878,13 +1875,13 @@
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1907,13 +1904,13 @@
         <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1939,13 +1936,13 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1962,19 +1959,19 @@
         <v>10405</v>
       </c>
       <c r="G10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -2000,13 +1997,13 @@
         <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L11" s="1" t="b">
         <v>1</v>
@@ -2032,13 +2029,13 @@
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L12" s="3" t="b">
         <v>1</v>
@@ -2064,13 +2061,13 @@
         <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L13" s="3" t="b">
         <v>1</v>
@@ -2096,13 +2093,13 @@
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L14" s="3" t="b">
         <v>1</v>
@@ -2113,22 +2110,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F15" s="1">
         <v>10599</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -2137,7 +2134,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
@@ -2146,19 +2143,19 @@
         <v>10601</v>
       </c>
       <c r="G16" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L16" s="3" t="b">
         <v>1</v>
@@ -2169,28 +2166,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F17" s="1">
         <v>10602</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="L17" s="3" t="b">
         <v>1</v>
@@ -2201,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -2210,13 +2207,13 @@
         <v>10701</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J18" s="1"/>
       <c r="L18" t="b">
@@ -2228,7 +2225,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -2237,13 +2234,13 @@
         <v>10801</v>
       </c>
       <c r="G19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -2252,7 +2249,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -2267,7 +2264,7 @@
         <v>38</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -2276,7 +2273,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>35</v>
@@ -2291,7 +2288,7 @@
         <v>40</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2300,7 +2297,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
@@ -2315,7 +2312,7 @@
         <v>42</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -2324,7 +2321,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>43</v>
@@ -2339,13 +2336,13 @@
         <v>45</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2353,7 +2350,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
@@ -2368,13 +2365,13 @@
         <v>47</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2382,7 +2379,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>48</v>
@@ -2397,13 +2394,13 @@
         <v>50</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2411,7 +2408,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>43</v>
@@ -2426,13 +2423,13 @@
         <v>52</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2440,7 +2437,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>48</v>
@@ -2455,13 +2452,13 @@
         <v>54</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2469,7 +2466,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>43</v>
@@ -2484,13 +2481,13 @@
         <v>56</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2498,7 +2495,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -2513,13 +2510,13 @@
         <v>58</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2527,7 +2524,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>43</v>
@@ -2542,13 +2539,13 @@
         <v>60</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2556,7 +2553,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>48</v>
@@ -2571,13 +2568,13 @@
         <v>62</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2585,7 +2582,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>43</v>
@@ -2600,13 +2597,13 @@
         <v>64</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2614,7 +2611,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>48</v>
@@ -2629,13 +2626,13 @@
         <v>66</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2643,7 +2640,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>43</v>
@@ -2658,13 +2655,13 @@
         <v>68</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2672,7 +2669,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>48</v>
@@ -2687,13 +2684,13 @@
         <v>70</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2710,19 +2707,19 @@
         <v>11801</v>
       </c>
       <c r="G36" t="s">
+        <v>248</v>
+      </c>
+      <c r="H36" t="s">
         <v>72</v>
       </c>
-      <c r="H36" t="s">
-        <v>73</v>
-      </c>
       <c r="I36" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2730,28 +2727,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="F37" s="1">
         <v>11802</v>
       </c>
       <c r="G37" t="s">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="H37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2759,28 +2756,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F38" s="1">
         <v>20101</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L38" s="3" t="b">
         <v>1</v>
@@ -2791,28 +2788,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F39" s="1">
         <v>20201</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L39" s="1" t="b">
         <v>1</v>
@@ -2823,28 +2820,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F40" s="1">
         <v>20301</v>
       </c>
       <c r="G40" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L40" s="1" t="b">
         <v>1</v>
@@ -2855,22 +2852,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F41" s="1">
         <v>20401</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J41" s="1"/>
       <c r="L41" t="b">
@@ -2882,28 +2879,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F42" s="1">
         <v>20501</v>
       </c>
       <c r="G42" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H42" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L42" s="3" t="b">
         <v>1</v>
@@ -2914,28 +2911,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" s="1">
         <v>20502</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L43" s="3" t="b">
         <v>1</v>
@@ -2946,22 +2943,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1">
         <v>20601</v>
       </c>
       <c r="G44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J44" s="1"/>
     </row>
@@ -2970,22 +2967,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F45" s="1">
         <v>20602</v>
       </c>
       <c r="G45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -2994,22 +2991,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F46" s="1">
         <v>20701</v>
       </c>
       <c r="G46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J46" s="1"/>
     </row>
@@ -3018,22 +3015,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F47" s="1">
         <v>21101</v>
       </c>
       <c r="G47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J47" s="1"/>
     </row>
@@ -3042,22 +3039,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F48" s="1">
         <v>21201</v>
       </c>
       <c r="G48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J48" s="1"/>
     </row>
@@ -3066,22 +3063,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F49" s="1">
         <v>21301</v>
       </c>
       <c r="G49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J49" s="1"/>
     </row>
@@ -3090,22 +3087,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F50" s="1">
         <v>21401</v>
       </c>
       <c r="G50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J50" s="1"/>
     </row>
@@ -3114,22 +3111,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F51" s="1">
         <v>30101</v>
       </c>
       <c r="G51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J51" s="1"/>
       <c r="L51" s="3" t="b">
@@ -3141,22 +3138,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F52" s="1">
         <v>30102</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J52" s="1"/>
       <c r="L52" s="3" t="b">
@@ -3168,22 +3165,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F53" s="1">
         <v>30103</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J53" s="1"/>
       <c r="L53" t="b">
@@ -3195,22 +3192,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F54" s="1">
         <v>30111</v>
       </c>
       <c r="G54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H54" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J54" s="1"/>
       <c r="L54" t="b">
@@ -3222,22 +3219,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F55" s="1">
         <v>30112</v>
       </c>
       <c r="G55" t="s">
+        <v>206</v>
+      </c>
+      <c r="H55" t="s">
         <v>209</v>
       </c>
-      <c r="H55" t="s">
-        <v>212</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J55" s="1"/>
       <c r="L55" t="b">
@@ -3249,22 +3246,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F56" s="1">
         <v>40101</v>
       </c>
       <c r="G56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
@@ -3275,28 +3272,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F57" s="1">
         <v>40102</v>
       </c>
       <c r="G57" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H57" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L57" t="b">
         <v>1</v>
@@ -3307,22 +3304,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F58" s="1">
         <v>40103</v>
       </c>
       <c r="G58" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
@@ -3333,22 +3330,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F59" s="1">
         <v>41101</v>
       </c>
       <c r="G59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -3357,22 +3354,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F60" s="1">
         <v>41102</v>
       </c>
       <c r="G60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -3381,22 +3378,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F61" s="1">
         <v>41103</v>
       </c>
       <c r="G61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -3405,22 +3402,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F62" s="1">
         <v>41199</v>
       </c>
       <c r="G62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -3429,22 +3426,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F63" s="1">
         <v>41200</v>
       </c>
       <c r="G63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J63" s="1"/>
     </row>
@@ -3453,22 +3450,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F64" s="1">
         <v>50101</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J64" s="1"/>
       <c r="L64" t="b">
@@ -3480,10 +3477,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
@@ -3495,13 +3492,13 @@
         <v>50111</v>
       </c>
       <c r="G65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -3510,10 +3507,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>8</v>
@@ -3525,13 +3522,13 @@
         <v>50112</v>
       </c>
       <c r="G66" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H66" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J66" s="1"/>
       <c r="L66" s="3"/>
@@ -3541,10 +3538,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
@@ -3556,13 +3553,13 @@
         <v>50113</v>
       </c>
       <c r="G67" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -3571,10 +3568,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -3586,13 +3583,13 @@
         <v>50114</v>
       </c>
       <c r="G68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J68" s="1"/>
     </row>
@@ -3601,10 +3598,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>8</v>
@@ -3616,13 +3613,13 @@
         <v>50115</v>
       </c>
       <c r="G69" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H69" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J69" s="1"/>
     </row>
@@ -3631,10 +3628,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>8</v>
@@ -3646,13 +3643,13 @@
         <v>50116</v>
       </c>
       <c r="G70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J70" s="1"/>
     </row>
@@ -3661,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
@@ -3676,13 +3673,13 @@
         <v>50117</v>
       </c>
       <c r="G71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J71" s="1"/>
     </row>
@@ -3691,10 +3688,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
@@ -3706,13 +3703,13 @@
         <v>50118</v>
       </c>
       <c r="G72" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J72" s="1"/>
     </row>
@@ -3721,10 +3718,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>8</v>
@@ -3736,13 +3733,13 @@
         <v>50119</v>
       </c>
       <c r="G73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H73" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J73" s="1"/>
     </row>
@@ -3751,10 +3748,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>8</v>
@@ -3766,13 +3763,13 @@
         <v>50120</v>
       </c>
       <c r="G74" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J74" s="1"/>
     </row>
@@ -3781,10 +3778,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>8</v>
@@ -3796,13 +3793,13 @@
         <v>50121</v>
       </c>
       <c r="G75" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="H75" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J75" s="1"/>
     </row>
@@ -3811,10 +3808,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>8</v>
@@ -3826,13 +3823,13 @@
         <v>50122</v>
       </c>
       <c r="G76" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H76" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J76" s="1"/>
     </row>
@@ -3841,10 +3838,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>8</v>
@@ -3856,13 +3853,13 @@
         <v>50123</v>
       </c>
       <c r="G77" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H77" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J77" s="1"/>
     </row>
@@ -3871,10 +3868,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>8</v>
@@ -3886,13 +3883,13 @@
         <v>50124</v>
       </c>
       <c r="G78" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H78" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J78" s="1"/>
     </row>
@@ -3901,10 +3898,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>8</v>
@@ -3916,13 +3913,13 @@
         <v>50125</v>
       </c>
       <c r="G79" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J79" s="1"/>
     </row>
@@ -3931,10 +3928,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>8</v>
@@ -3946,13 +3943,13 @@
         <v>50126</v>
       </c>
       <c r="G80" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H80" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J80" s="1"/>
     </row>
@@ -3961,10 +3958,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>8</v>
@@ -3976,13 +3973,13 @@
         <v>50127</v>
       </c>
       <c r="G81" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H81" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J81" s="1"/>
     </row>
@@ -3991,10 +3988,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>8</v>
@@ -4006,13 +4003,13 @@
         <v>50128</v>
       </c>
       <c r="G82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H82" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J82" s="1"/>
     </row>
@@ -4021,10 +4018,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>8</v>
@@ -4036,13 +4033,13 @@
         <v>50129</v>
       </c>
       <c r="G83" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H83" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J83" s="1"/>
     </row>
@@ -4051,10 +4048,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>8</v>
@@ -4066,13 +4063,13 @@
         <v>50130</v>
       </c>
       <c r="G84" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H84" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J84" s="1"/>
     </row>
@@ -4081,10 +4078,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>8</v>
@@ -4096,13 +4093,13 @@
         <v>50131</v>
       </c>
       <c r="G85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H85" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J85" s="1"/>
     </row>
@@ -4111,10 +4108,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>8</v>
@@ -4126,13 +4123,13 @@
         <v>50132</v>
       </c>
       <c r="G86" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J86" s="1"/>
     </row>
@@ -4141,10 +4138,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>8</v>
@@ -4156,13 +4153,13 @@
         <v>50133</v>
       </c>
       <c r="G87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J87" s="1"/>
     </row>
@@ -4171,10 +4168,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>8</v>
@@ -4186,13 +4183,13 @@
         <v>50134</v>
       </c>
       <c r="G88" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H88" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J88" s="1"/>
     </row>
@@ -4201,13 +4198,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
@@ -4216,13 +4213,13 @@
         <v>50135</v>
       </c>
       <c r="G89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H89" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -4231,13 +4228,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
@@ -4246,13 +4243,13 @@
         <v>50136</v>
       </c>
       <c r="G90" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H90" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J90" s="1"/>
     </row>
@@ -4261,13 +4258,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
@@ -4276,13 +4273,13 @@
         <v>50137</v>
       </c>
       <c r="G91" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H91" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -4291,10 +4288,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>23</v>
@@ -4306,13 +4303,13 @@
         <v>50138</v>
       </c>
       <c r="G92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J92" s="1"/>
     </row>
@@ -4321,10 +4318,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>23</v>
@@ -4336,13 +4333,13 @@
         <v>50139</v>
       </c>
       <c r="G93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H93" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J93" s="1"/>
     </row>
@@ -4351,10 +4348,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>23</v>
@@ -4366,13 +4363,13 @@
         <v>50140</v>
       </c>
       <c r="G94" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J94" s="1"/>
     </row>
@@ -4381,10 +4378,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>23</v>
@@ -4396,13 +4393,13 @@
         <v>50141</v>
       </c>
       <c r="G95" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H95" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J95" s="1"/>
     </row>
@@ -4411,10 +4408,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
@@ -4426,13 +4423,13 @@
         <v>50142</v>
       </c>
       <c r="G96" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H96" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J96" s="1"/>
     </row>
@@ -4441,10 +4438,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>23</v>
@@ -4456,13 +4453,13 @@
         <v>50143</v>
       </c>
       <c r="G97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H97" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J97" s="1"/>
     </row>
@@ -4471,10 +4468,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>23</v>
@@ -4486,13 +4483,13 @@
         <v>50144</v>
       </c>
       <c r="G98" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H98" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J98" s="1"/>
     </row>
@@ -4501,10 +4498,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>23</v>
@@ -4516,13 +4513,13 @@
         <v>50145</v>
       </c>
       <c r="G99" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H99" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J99" s="1"/>
     </row>
@@ -4531,10 +4528,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>23</v>
@@ -4546,17 +4543,16 @@
         <v>50146</v>
       </c>
       <c r="G100" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H100" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L100" xr:uid="{CB60C5CD-B9F0-DA48-9A5E-ECB3D71414CB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martiendt/Projects/Web/point/point/storage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F400FDEF-9697-D745-8C2E-E26047E6DC23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4FA8DF-D9FD-6140-9EB2-90B7461CE92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34100" yWindow="-240" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANUFACTURE" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,6 @@
     <t>WESEL BAYAR</t>
   </si>
   <si>
-    <t>ACCOUNT PAYABLE</t>
-  </si>
-  <si>
     <t>HUTANG USAHA</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t>BEBAN POKOK PENJUALAN</t>
   </si>
   <si>
-    <t>DIRECT EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN OPERASIONAL</t>
   </si>
   <si>
@@ -609,9 +603,6 @@
     <t>BEBAN BUNGA</t>
   </si>
   <si>
-    <t>OTHER EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN LAIN-LAIN</t>
   </si>
   <si>
@@ -714,9 +705,6 @@
     <t>HUTANG EKSPEDISI</t>
   </si>
   <si>
-    <t>ACCOUNT PAYABLE EXPEDITION</t>
-  </si>
-  <si>
     <t>PURCHASE DOWN PAYMENT</t>
   </si>
   <si>
@@ -784,6 +772,18 @@
   </si>
   <si>
     <t>AMORTIZATION INTANGIBLE FIXED ASSETS EXPENSES</t>
+  </si>
+  <si>
+    <t>YABLE</t>
+  </si>
+  <si>
+    <t>YABLE EXPEDITION</t>
+  </si>
+  <si>
+    <t>DIRECT EXPENSE</t>
+  </si>
+  <si>
+    <t>OTHER EXPENSE</t>
   </si>
 </sst>
 </file>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1691,40 +1691,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -1756,10 +1756,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F3" s="1">
         <v>10199</v>
@@ -1771,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J3" s="1"/>
       <c r="L3" s="1" t="b">
@@ -1798,7 +1798,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -1822,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -1846,13 +1846,13 @@
         <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1875,13 +1875,13 @@
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1904,13 +1904,13 @@
         <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1936,13 +1936,13 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1959,19 +1959,19 @@
         <v>10405</v>
       </c>
       <c r="G10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1997,13 +1997,13 @@
         <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L11" s="1" t="b">
         <v>1</v>
@@ -2029,13 +2029,13 @@
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L12" s="3" t="b">
         <v>1</v>
@@ -2061,13 +2061,13 @@
         <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L13" s="3" t="b">
         <v>1</v>
@@ -2093,13 +2093,13 @@
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L14" s="3" t="b">
         <v>1</v>
@@ -2110,22 +2110,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F15" s="1">
         <v>10599</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -2134,7 +2134,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
@@ -2143,19 +2143,19 @@
         <v>10601</v>
       </c>
       <c r="G16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L16" s="3" t="b">
         <v>1</v>
@@ -2166,28 +2166,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F17" s="1">
         <v>10602</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L17" s="3" t="b">
         <v>1</v>
@@ -2198,7 +2198,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -2207,13 +2207,13 @@
         <v>10701</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J18" s="1"/>
       <c r="L18" t="b">
@@ -2225,7 +2225,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -2234,13 +2234,13 @@
         <v>10801</v>
       </c>
       <c r="G19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -2249,7 +2249,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -2264,7 +2264,7 @@
         <v>38</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -2273,7 +2273,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>35</v>
@@ -2288,7 +2288,7 @@
         <v>40</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2297,7 +2297,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
@@ -2312,7 +2312,7 @@
         <v>42</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -2321,7 +2321,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>43</v>
@@ -2336,13 +2336,13 @@
         <v>45</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2350,7 +2350,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
@@ -2365,13 +2365,13 @@
         <v>47</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>48</v>
@@ -2394,13 +2394,13 @@
         <v>50</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2408,7 +2408,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>43</v>
@@ -2423,13 +2423,13 @@
         <v>52</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2437,7 +2437,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>48</v>
@@ -2452,13 +2452,13 @@
         <v>54</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2466,7 +2466,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>43</v>
@@ -2481,13 +2481,13 @@
         <v>56</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2495,7 +2495,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -2510,13 +2510,13 @@
         <v>58</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2524,7 +2524,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>43</v>
@@ -2539,13 +2539,13 @@
         <v>60</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2553,7 +2553,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>48</v>
@@ -2568,13 +2568,13 @@
         <v>62</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2582,7 +2582,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>43</v>
@@ -2597,13 +2597,13 @@
         <v>64</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2611,7 +2611,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>48</v>
@@ -2626,13 +2626,13 @@
         <v>66</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2640,7 +2640,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>43</v>
@@ -2655,13 +2655,13 @@
         <v>68</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2669,7 +2669,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>48</v>
@@ -2684,13 +2684,13 @@
         <v>70</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2707,19 +2707,19 @@
         <v>11801</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H36" t="s">
         <v>72</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2736,19 +2736,19 @@
         <v>11802</v>
       </c>
       <c r="G37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H37" t="s">
         <v>75</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2771,13 +2771,13 @@
         <v>77</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L38" s="3" t="b">
         <v>1</v>
@@ -2788,28 +2788,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F39" s="1">
         <v>20201</v>
       </c>
       <c r="G39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39" t="s">
         <v>78</v>
       </c>
-      <c r="H39" t="s">
-        <v>79</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L39" s="1" t="b">
         <v>1</v>
@@ -2820,28 +2820,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1">
         <v>20301</v>
       </c>
       <c r="G40" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L40" s="1" t="b">
         <v>1</v>
@@ -2852,22 +2852,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" s="1">
         <v>20401</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J41" s="1"/>
       <c r="L41" t="b">
@@ -2879,28 +2879,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F42" s="1">
         <v>20501</v>
       </c>
       <c r="G42" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="H42" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L42" s="3" t="b">
         <v>1</v>
@@ -2911,28 +2911,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F43" s="1">
         <v>20502</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="L43" s="3" t="b">
         <v>1</v>
@@ -2943,22 +2943,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F44" s="1">
         <v>20601</v>
       </c>
       <c r="G44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" t="s">
         <v>85</v>
       </c>
-      <c r="H44" t="s">
-        <v>86</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J44" s="1"/>
     </row>
@@ -2967,22 +2967,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F45" s="1">
         <v>20602</v>
       </c>
       <c r="G45" t="s">
+        <v>86</v>
+      </c>
+      <c r="H45" t="s">
         <v>87</v>
       </c>
-      <c r="H45" t="s">
-        <v>88</v>
-      </c>
       <c r="I45" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -2991,22 +2991,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F46" s="1">
         <v>20701</v>
       </c>
       <c r="G46" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" t="s">
         <v>89</v>
       </c>
-      <c r="H46" t="s">
-        <v>90</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J46" s="1"/>
     </row>
@@ -3015,22 +3015,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F47" s="1">
         <v>21101</v>
       </c>
       <c r="G47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" t="s">
         <v>93</v>
       </c>
-      <c r="H47" t="s">
-        <v>94</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J47" s="1"/>
     </row>
@@ -3039,22 +3039,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F48" s="1">
         <v>21201</v>
       </c>
       <c r="G48" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" t="s">
         <v>95</v>
       </c>
-      <c r="H48" t="s">
-        <v>96</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J48" s="1"/>
     </row>
@@ -3063,22 +3063,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F49" s="1">
         <v>21301</v>
       </c>
       <c r="G49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" t="s">
         <v>97</v>
       </c>
-      <c r="H49" t="s">
-        <v>98</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J49" s="1"/>
     </row>
@@ -3087,22 +3087,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F50" s="1">
         <v>21401</v>
       </c>
       <c r="G50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" t="s">
         <v>99</v>
       </c>
-      <c r="H50" t="s">
-        <v>100</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J50" s="1"/>
     </row>
@@ -3111,22 +3111,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F51" s="1">
         <v>30101</v>
       </c>
       <c r="G51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" t="s">
         <v>103</v>
       </c>
-      <c r="H51" t="s">
-        <v>104</v>
-      </c>
       <c r="I51" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J51" s="1"/>
       <c r="L51" s="3" t="b">
@@ -3138,22 +3138,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F52" s="1">
         <v>30102</v>
       </c>
       <c r="G52" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" t="s">
         <v>107</v>
       </c>
-      <c r="H52" t="s">
-        <v>108</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J52" s="1"/>
       <c r="L52" s="3" t="b">
@@ -3165,22 +3165,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F53" s="1">
         <v>30103</v>
       </c>
       <c r="G53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H53" t="s">
         <v>109</v>
       </c>
-      <c r="H53" t="s">
-        <v>110</v>
-      </c>
       <c r="I53" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J53" s="1"/>
       <c r="L53" t="b">
@@ -3192,22 +3192,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F54" s="1">
         <v>30111</v>
       </c>
       <c r="G54" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H54" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J54" s="1"/>
       <c r="L54" t="b">
@@ -3219,22 +3219,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F55" s="1">
         <v>30112</v>
       </c>
       <c r="G55" t="s">
+        <v>203</v>
+      </c>
+      <c r="H55" t="s">
         <v>206</v>
       </c>
-      <c r="H55" t="s">
-        <v>209</v>
-      </c>
       <c r="I55" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J55" s="1"/>
       <c r="L55" t="b">
@@ -3246,22 +3246,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F56" s="1">
         <v>40101</v>
       </c>
       <c r="G56" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" t="s">
         <v>113</v>
       </c>
-      <c r="H56" t="s">
-        <v>114</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
@@ -3272,28 +3272,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F57" s="1">
         <v>40102</v>
       </c>
       <c r="G57" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H57" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L57" t="b">
         <v>1</v>
@@ -3304,22 +3304,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F58" s="1">
         <v>40103</v>
       </c>
       <c r="G58" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H58" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
@@ -3330,22 +3330,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F59" s="1">
         <v>41101</v>
       </c>
       <c r="G59" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" t="s">
         <v>121</v>
       </c>
-      <c r="H59" t="s">
-        <v>122</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -3354,22 +3354,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F60" s="1">
         <v>41102</v>
       </c>
       <c r="G60" t="s">
+        <v>116</v>
+      </c>
+      <c r="H60" t="s">
         <v>117</v>
       </c>
-      <c r="H60" t="s">
-        <v>118</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -3378,22 +3378,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F61" s="1">
         <v>41103</v>
       </c>
       <c r="G61" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" t="s">
         <v>119</v>
       </c>
-      <c r="H61" t="s">
-        <v>120</v>
-      </c>
       <c r="I61" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -3402,22 +3402,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F62" s="1">
         <v>41199</v>
       </c>
       <c r="G62" t="s">
+        <v>114</v>
+      </c>
+      <c r="H62" t="s">
         <v>115</v>
       </c>
-      <c r="H62" t="s">
-        <v>116</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -3426,22 +3426,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F63" s="1">
         <v>41200</v>
       </c>
       <c r="G63" t="s">
+        <v>122</v>
+      </c>
+      <c r="H63" t="s">
         <v>123</v>
       </c>
-      <c r="H63" t="s">
-        <v>124</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J63" s="1"/>
     </row>
@@ -3450,22 +3450,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="F64" s="1">
         <v>50101</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H64" t="s">
         <v>125</v>
       </c>
-      <c r="H64" t="s">
-        <v>126</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J64" s="1"/>
       <c r="L64" t="b">
@@ -3477,10 +3477,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
@@ -3492,13 +3492,13 @@
         <v>50111</v>
       </c>
       <c r="G65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -3507,10 +3507,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>8</v>
@@ -3522,13 +3522,13 @@
         <v>50112</v>
       </c>
       <c r="G66" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H66" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J66" s="1"/>
       <c r="L66" s="3"/>
@@ -3538,10 +3538,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
@@ -3553,13 +3553,13 @@
         <v>50113</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -3568,10 +3568,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -3583,13 +3583,13 @@
         <v>50114</v>
       </c>
       <c r="G68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J68" s="1"/>
     </row>
@@ -3598,10 +3598,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>8</v>
@@ -3613,13 +3613,13 @@
         <v>50115</v>
       </c>
       <c r="G69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J69" s="1"/>
     </row>
@@ -3628,10 +3628,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>8</v>
@@ -3643,13 +3643,13 @@
         <v>50116</v>
       </c>
       <c r="G70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H70" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J70" s="1"/>
     </row>
@@ -3658,10 +3658,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
@@ -3673,13 +3673,13 @@
         <v>50117</v>
       </c>
       <c r="G71" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J71" s="1"/>
     </row>
@@ -3688,10 +3688,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
@@ -3703,13 +3703,13 @@
         <v>50118</v>
       </c>
       <c r="G72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J72" s="1"/>
     </row>
@@ -3718,10 +3718,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>8</v>
@@ -3733,13 +3733,13 @@
         <v>50119</v>
       </c>
       <c r="G73" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H73" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J73" s="1"/>
     </row>
@@ -3748,10 +3748,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>8</v>
@@ -3763,13 +3763,13 @@
         <v>50120</v>
       </c>
       <c r="G74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J74" s="1"/>
     </row>
@@ -3778,10 +3778,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>8</v>
@@ -3793,13 +3793,13 @@
         <v>50121</v>
       </c>
       <c r="G75" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J75" s="1"/>
     </row>
@@ -3808,10 +3808,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>8</v>
@@ -3823,13 +3823,13 @@
         <v>50122</v>
       </c>
       <c r="G76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J76" s="1"/>
     </row>
@@ -3838,10 +3838,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>8</v>
@@ -3853,13 +3853,13 @@
         <v>50123</v>
       </c>
       <c r="G77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J77" s="1"/>
     </row>
@@ -3868,10 +3868,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>8</v>
@@ -3883,13 +3883,13 @@
         <v>50124</v>
       </c>
       <c r="G78" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H78" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J78" s="1"/>
     </row>
@@ -3898,10 +3898,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>8</v>
@@ -3913,13 +3913,13 @@
         <v>50125</v>
       </c>
       <c r="G79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J79" s="1"/>
     </row>
@@ -3928,10 +3928,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>8</v>
@@ -3943,13 +3943,13 @@
         <v>50126</v>
       </c>
       <c r="G80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J80" s="1"/>
     </row>
@@ -3958,10 +3958,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>8</v>
@@ -3973,13 +3973,13 @@
         <v>50127</v>
       </c>
       <c r="G81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J81" s="1"/>
     </row>
@@ -3988,10 +3988,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>8</v>
@@ -4003,13 +4003,13 @@
         <v>50128</v>
       </c>
       <c r="G82" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J82" s="1"/>
     </row>
@@ -4018,10 +4018,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>8</v>
@@ -4033,13 +4033,13 @@
         <v>50129</v>
       </c>
       <c r="G83" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H83" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J83" s="1"/>
     </row>
@@ -4048,10 +4048,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>8</v>
@@ -4063,13 +4063,13 @@
         <v>50130</v>
       </c>
       <c r="G84" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H84" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J84" s="1"/>
     </row>
@@ -4078,10 +4078,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>8</v>
@@ -4093,13 +4093,13 @@
         <v>50131</v>
       </c>
       <c r="G85" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="H85" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J85" s="1"/>
     </row>
@@ -4108,10 +4108,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>8</v>
@@ -4123,13 +4123,13 @@
         <v>50132</v>
       </c>
       <c r="G86" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H86" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J86" s="1"/>
     </row>
@@ -4138,10 +4138,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>8</v>
@@ -4153,13 +4153,13 @@
         <v>50133</v>
       </c>
       <c r="G87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J87" s="1"/>
     </row>
@@ -4168,10 +4168,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>8</v>
@@ -4183,13 +4183,13 @@
         <v>50134</v>
       </c>
       <c r="G88" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H88" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J88" s="1"/>
     </row>
@@ -4198,13 +4198,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
@@ -4213,13 +4213,13 @@
         <v>50135</v>
       </c>
       <c r="G89" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -4228,13 +4228,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
@@ -4243,13 +4243,13 @@
         <v>50136</v>
       </c>
       <c r="G90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J90" s="1"/>
     </row>
@@ -4258,13 +4258,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
@@ -4273,13 +4273,13 @@
         <v>50137</v>
       </c>
       <c r="G91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -4288,10 +4288,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>23</v>
@@ -4303,13 +4303,13 @@
         <v>50138</v>
       </c>
       <c r="G92" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H92" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J92" s="1"/>
     </row>
@@ -4318,10 +4318,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>23</v>
@@ -4333,13 +4333,13 @@
         <v>50139</v>
       </c>
       <c r="G93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H93" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J93" s="1"/>
     </row>
@@ -4348,10 +4348,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>23</v>
@@ -4363,13 +4363,13 @@
         <v>50140</v>
       </c>
       <c r="G94" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H94" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J94" s="1"/>
     </row>
@@ -4378,10 +4378,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>23</v>
@@ -4393,13 +4393,13 @@
         <v>50141</v>
       </c>
       <c r="G95" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H95" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J95" s="1"/>
     </row>
@@ -4408,10 +4408,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
@@ -4423,13 +4423,13 @@
         <v>50142</v>
       </c>
       <c r="G96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H96" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J96" s="1"/>
     </row>
@@ -4438,10 +4438,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>23</v>
@@ -4453,13 +4453,13 @@
         <v>50143</v>
       </c>
       <c r="G97" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J97" s="1"/>
     </row>
@@ -4468,10 +4468,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>23</v>
@@ -4483,13 +4483,13 @@
         <v>50144</v>
       </c>
       <c r="G98" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H98" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J98" s="1"/>
     </row>
@@ -4498,10 +4498,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>23</v>
@@ -4513,13 +4513,13 @@
         <v>50145</v>
       </c>
       <c r="G99" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H99" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J99" s="1"/>
     </row>
@@ -4528,10 +4528,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>23</v>
@@ -4543,16 +4543,17 @@
         <v>50146</v>
       </c>
       <c r="G100" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H100" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L100" xr:uid="{F8BCA7F5-CECC-6B4C-A3FE-000DB7E8463D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martiendt/Projects/Web/point/point/storage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4FA8DF-D9FD-6140-9EB2-90B7461CE92A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797456AC-887C-3A42-B604-F449EDAEA7D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34100" yWindow="-240" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8540" yWindow="460" windowWidth="23900" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANUFACTURE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="252">
   <si>
     <t>GROUP</t>
   </si>
@@ -255,9 +255,6 @@
     <t>OTHER ASSETS AMORTIZATION</t>
   </si>
   <si>
-    <t>AMORTISASI ASET TETAP</t>
-  </si>
-  <si>
     <t>AKUMULASI AMORTISASI AKTIVA TETAP TAK BERWUJUD</t>
   </si>
   <si>
@@ -774,16 +771,22 @@
     <t>AMORTIZATION INTANGIBLE FIXED ASSETS EXPENSES</t>
   </si>
   <si>
-    <t>YABLE</t>
-  </si>
-  <si>
-    <t>YABLE EXPEDITION</t>
-  </si>
-  <si>
     <t>DIRECT EXPENSE</t>
   </si>
   <si>
     <t>OTHER EXPENSE</t>
+  </si>
+  <si>
+    <t>ASET LAIN</t>
+  </si>
+  <si>
+    <t>AMORTISASI ASET LAIN</t>
+  </si>
+  <si>
+    <t>ACCOUNT PAYABLE</t>
+  </si>
+  <si>
+    <t>ACCOUNT PAYABLE EXPEDITION</t>
   </si>
 </sst>
 </file>
@@ -1670,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1691,40 +1694,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1747,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -1756,10 +1759,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="F3" s="1">
         <v>10199</v>
@@ -1771,7 +1774,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J3" s="1"/>
       <c r="L3" s="1" t="b">
@@ -1798,7 +1801,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -1822,7 +1825,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -1846,13 +1849,13 @@
         <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1875,13 +1878,13 @@
         <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1904,13 +1907,13 @@
         <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1936,13 +1939,13 @@
         <v>34</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1959,19 +1962,19 @@
         <v>10405</v>
       </c>
       <c r="G10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" t="s">
         <v>201</v>
       </c>
-      <c r="H10" t="s">
-        <v>202</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1997,13 +2000,13 @@
         <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L11" s="1" t="b">
         <v>1</v>
@@ -2029,13 +2032,13 @@
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L12" s="3" t="b">
         <v>1</v>
@@ -2061,13 +2064,13 @@
         <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L13" s="3" t="b">
         <v>1</v>
@@ -2093,13 +2096,13 @@
         <v>20</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L14" s="3" t="b">
         <v>1</v>
@@ -2110,22 +2113,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="F15" s="1">
         <v>10599</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -2134,7 +2137,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
@@ -2143,19 +2146,19 @@
         <v>10601</v>
       </c>
       <c r="G16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L16" s="3" t="b">
         <v>1</v>
@@ -2166,28 +2169,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="F17" s="1">
         <v>10602</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L17" s="3" t="b">
         <v>1</v>
@@ -2198,7 +2201,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>22</v>
@@ -2207,13 +2210,13 @@
         <v>10701</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J18" s="1"/>
       <c r="L18" t="b">
@@ -2225,7 +2228,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>35</v>
@@ -2234,13 +2237,13 @@
         <v>10801</v>
       </c>
       <c r="G19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -2249,7 +2252,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
@@ -2264,7 +2267,7 @@
         <v>38</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -2273,7 +2276,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>35</v>
@@ -2288,7 +2291,7 @@
         <v>40</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -2297,7 +2300,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>35</v>
@@ -2312,7 +2315,7 @@
         <v>42</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -2321,7 +2324,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>43</v>
@@ -2336,13 +2339,13 @@
         <v>45</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2350,7 +2353,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>43</v>
@@ -2365,13 +2368,13 @@
         <v>47</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2379,7 +2382,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>48</v>
@@ -2394,13 +2397,13 @@
         <v>50</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2408,7 +2411,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>43</v>
@@ -2423,13 +2426,13 @@
         <v>52</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2437,7 +2440,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>48</v>
@@ -2452,13 +2455,13 @@
         <v>54</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2466,7 +2469,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>43</v>
@@ -2481,13 +2484,13 @@
         <v>56</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2495,7 +2498,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>48</v>
@@ -2510,13 +2513,13 @@
         <v>58</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2524,7 +2527,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>43</v>
@@ -2539,13 +2542,13 @@
         <v>60</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2553,7 +2556,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>48</v>
@@ -2568,13 +2571,13 @@
         <v>62</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2582,7 +2585,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>43</v>
@@ -2597,13 +2600,13 @@
         <v>64</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2611,7 +2614,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>48</v>
@@ -2626,13 +2629,13 @@
         <v>66</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2640,7 +2643,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>43</v>
@@ -2655,13 +2658,13 @@
         <v>68</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2669,7 +2672,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>48</v>
@@ -2684,13 +2687,13 @@
         <v>70</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2701,25 +2704,25 @@
         <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="F36" s="1">
         <v>11801</v>
       </c>
       <c r="G36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H36" t="s">
         <v>72</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2730,25 +2733,25 @@
         <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="F37" s="1">
         <v>11802</v>
       </c>
       <c r="G37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2756,28 +2759,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="F38" s="1">
         <v>20101</v>
       </c>
       <c r="G38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" t="s">
         <v>76</v>
       </c>
-      <c r="H38" t="s">
-        <v>77</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L38" s="3" t="b">
         <v>1</v>
@@ -2788,28 +2791,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F39" s="1">
         <v>20201</v>
       </c>
-      <c r="G39" t="s">
-        <v>247</v>
+      <c r="G39" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="H39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L39" s="1" t="b">
         <v>1</v>
@@ -2820,28 +2823,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F40" s="1">
         <v>20301</v>
       </c>
       <c r="G40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L40" s="1" t="b">
         <v>1</v>
@@ -2852,22 +2855,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F41" s="1">
         <v>20401</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J41" s="1"/>
       <c r="L41" t="b">
@@ -2879,28 +2882,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F42" s="1">
         <v>20501</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L42" s="3" t="b">
         <v>1</v>
@@ -2911,28 +2914,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F43" s="1">
         <v>20502</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L43" s="3" t="b">
         <v>1</v>
@@ -2943,22 +2946,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F44" s="1">
         <v>20601</v>
       </c>
       <c r="G44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44" t="s">
         <v>84</v>
       </c>
-      <c r="H44" t="s">
-        <v>85</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J44" s="1"/>
     </row>
@@ -2967,22 +2970,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F45" s="1">
         <v>20602</v>
       </c>
       <c r="G45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" t="s">
         <v>86</v>
       </c>
-      <c r="H45" t="s">
-        <v>87</v>
-      </c>
       <c r="I45" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -2991,22 +2994,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F46" s="1">
         <v>20701</v>
       </c>
       <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s">
         <v>88</v>
       </c>
-      <c r="H46" t="s">
-        <v>89</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J46" s="1"/>
     </row>
@@ -3015,22 +3018,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F47" s="1">
         <v>21101</v>
       </c>
       <c r="G47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s">
         <v>92</v>
       </c>
-      <c r="H47" t="s">
-        <v>93</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J47" s="1"/>
     </row>
@@ -3039,22 +3042,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F48" s="1">
         <v>21201</v>
       </c>
       <c r="G48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" t="s">
         <v>94</v>
       </c>
-      <c r="H48" t="s">
-        <v>95</v>
-      </c>
       <c r="I48" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J48" s="1"/>
     </row>
@@ -3063,22 +3066,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F49" s="1">
         <v>21301</v>
       </c>
       <c r="G49" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" t="s">
         <v>96</v>
       </c>
-      <c r="H49" t="s">
-        <v>97</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J49" s="1"/>
     </row>
@@ -3087,22 +3090,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F50" s="1">
         <v>21401</v>
       </c>
       <c r="G50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" t="s">
         <v>98</v>
       </c>
-      <c r="H50" t="s">
-        <v>99</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J50" s="1"/>
     </row>
@@ -3111,22 +3114,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F51" s="1">
         <v>30101</v>
       </c>
       <c r="G51" t="s">
+        <v>101</v>
+      </c>
+      <c r="H51" t="s">
         <v>102</v>
       </c>
-      <c r="H51" t="s">
-        <v>103</v>
-      </c>
       <c r="I51" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J51" s="1"/>
       <c r="L51" s="3" t="b">
@@ -3138,22 +3141,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F52" s="1">
         <v>30102</v>
       </c>
       <c r="G52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" t="s">
         <v>106</v>
       </c>
-      <c r="H52" t="s">
-        <v>107</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J52" s="1"/>
       <c r="L52" s="3" t="b">
@@ -3165,22 +3168,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F53" s="1">
         <v>30103</v>
       </c>
       <c r="G53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" t="s">
         <v>108</v>
       </c>
-      <c r="H53" t="s">
-        <v>109</v>
-      </c>
       <c r="I53" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J53" s="1"/>
       <c r="L53" t="b">
@@ -3192,22 +3195,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="F54" s="1">
         <v>30111</v>
       </c>
       <c r="G54" t="s">
+        <v>203</v>
+      </c>
+      <c r="H54" t="s">
         <v>204</v>
       </c>
-      <c r="H54" t="s">
-        <v>205</v>
-      </c>
       <c r="I54" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J54" s="1"/>
       <c r="L54" t="b">
@@ -3219,22 +3222,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="F55" s="1">
         <v>30112</v>
       </c>
       <c r="G55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J55" s="1"/>
       <c r="L55" t="b">
@@ -3246,22 +3249,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F56" s="1">
         <v>40101</v>
       </c>
       <c r="G56" t="s">
+        <v>111</v>
+      </c>
+      <c r="H56" t="s">
         <v>112</v>
       </c>
-      <c r="H56" t="s">
-        <v>113</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L56" t="b">
         <v>1</v>
@@ -3272,28 +3275,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F57" s="1">
         <v>40102</v>
       </c>
       <c r="G57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L57" t="b">
         <v>1</v>
@@ -3304,22 +3307,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F58" s="1">
         <v>40103</v>
       </c>
       <c r="G58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L58" t="b">
         <v>1</v>
@@ -3330,22 +3333,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F59" s="1">
         <v>41101</v>
       </c>
       <c r="G59" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" t="s">
         <v>120</v>
       </c>
-      <c r="H59" t="s">
-        <v>121</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -3354,22 +3357,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F60" s="1">
         <v>41102</v>
       </c>
       <c r="G60" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" t="s">
         <v>116</v>
       </c>
-      <c r="H60" t="s">
-        <v>117</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -3378,22 +3381,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F61" s="1">
         <v>41103</v>
       </c>
       <c r="G61" t="s">
+        <v>117</v>
+      </c>
+      <c r="H61" t="s">
         <v>118</v>
       </c>
-      <c r="H61" t="s">
-        <v>119</v>
-      </c>
       <c r="I61" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -3402,22 +3405,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F62" s="1">
         <v>41199</v>
       </c>
       <c r="G62" t="s">
+        <v>113</v>
+      </c>
+      <c r="H62" t="s">
         <v>114</v>
       </c>
-      <c r="H62" t="s">
-        <v>115</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -3426,22 +3429,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F63" s="1">
         <v>41200</v>
       </c>
       <c r="G63" t="s">
+        <v>121</v>
+      </c>
+      <c r="H63" t="s">
         <v>122</v>
       </c>
-      <c r="H63" t="s">
-        <v>123</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J63" s="1"/>
     </row>
@@ -3450,22 +3453,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="F64" s="1">
         <v>50101</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H64" t="s">
         <v>124</v>
       </c>
-      <c r="H64" t="s">
-        <v>125</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J64" s="1"/>
       <c r="L64" t="b">
@@ -3477,10 +3480,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
@@ -3492,13 +3495,13 @@
         <v>50111</v>
       </c>
       <c r="G65" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" t="s">
         <v>127</v>
       </c>
-      <c r="H65" t="s">
-        <v>128</v>
-      </c>
       <c r="I65" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -3507,10 +3510,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>8</v>
@@ -3522,13 +3525,13 @@
         <v>50112</v>
       </c>
       <c r="G66" t="s">
+        <v>239</v>
+      </c>
+      <c r="H66" t="s">
         <v>240</v>
       </c>
-      <c r="H66" t="s">
-        <v>241</v>
-      </c>
       <c r="I66" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J66" s="1"/>
       <c r="L66" s="3"/>
@@ -3538,10 +3541,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
@@ -3553,13 +3556,13 @@
         <v>50113</v>
       </c>
       <c r="G67" t="s">
+        <v>130</v>
+      </c>
+      <c r="H67" t="s">
         <v>131</v>
       </c>
-      <c r="H67" t="s">
-        <v>132</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -3568,10 +3571,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -3583,13 +3586,13 @@
         <v>50114</v>
       </c>
       <c r="G68" t="s">
+        <v>140</v>
+      </c>
+      <c r="H68" t="s">
         <v>141</v>
       </c>
-      <c r="H68" t="s">
-        <v>142</v>
-      </c>
       <c r="I68" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J68" s="1"/>
     </row>
@@ -3598,10 +3601,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>8</v>
@@ -3613,13 +3616,13 @@
         <v>50115</v>
       </c>
       <c r="G69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" t="s">
         <v>145</v>
       </c>
-      <c r="H69" t="s">
-        <v>146</v>
-      </c>
       <c r="I69" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J69" s="1"/>
     </row>
@@ -3628,10 +3631,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>8</v>
@@ -3643,13 +3646,13 @@
         <v>50116</v>
       </c>
       <c r="G70" t="s">
+        <v>148</v>
+      </c>
+      <c r="H70" t="s">
         <v>149</v>
       </c>
-      <c r="H70" t="s">
-        <v>150</v>
-      </c>
       <c r="I70" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J70" s="1"/>
     </row>
@@ -3658,10 +3661,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
@@ -3673,13 +3676,13 @@
         <v>50117</v>
       </c>
       <c r="G71" t="s">
+        <v>152</v>
+      </c>
+      <c r="H71" t="s">
         <v>153</v>
       </c>
-      <c r="H71" t="s">
-        <v>154</v>
-      </c>
       <c r="I71" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J71" s="1"/>
     </row>
@@ -3688,10 +3691,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
@@ -3703,13 +3706,13 @@
         <v>50118</v>
       </c>
       <c r="G72" t="s">
+        <v>156</v>
+      </c>
+      <c r="H72" t="s">
         <v>157</v>
       </c>
-      <c r="H72" t="s">
-        <v>158</v>
-      </c>
       <c r="I72" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J72" s="1"/>
     </row>
@@ -3718,10 +3721,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>8</v>
@@ -3733,13 +3736,13 @@
         <v>50119</v>
       </c>
       <c r="G73" t="s">
+        <v>160</v>
+      </c>
+      <c r="H73" t="s">
         <v>161</v>
       </c>
-      <c r="H73" t="s">
-        <v>162</v>
-      </c>
       <c r="I73" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J73" s="1"/>
     </row>
@@ -3748,10 +3751,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>8</v>
@@ -3763,13 +3766,13 @@
         <v>50120</v>
       </c>
       <c r="G74" t="s">
+        <v>164</v>
+      </c>
+      <c r="H74" t="s">
         <v>165</v>
       </c>
-      <c r="H74" t="s">
-        <v>166</v>
-      </c>
       <c r="I74" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J74" s="1"/>
     </row>
@@ -3778,10 +3781,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>8</v>
@@ -3793,13 +3796,13 @@
         <v>50121</v>
       </c>
       <c r="G75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J75" s="1"/>
     </row>
@@ -3808,10 +3811,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>8</v>
@@ -3823,13 +3826,13 @@
         <v>50122</v>
       </c>
       <c r="G76" t="s">
+        <v>167</v>
+      </c>
+      <c r="H76" t="s">
         <v>168</v>
       </c>
-      <c r="H76" t="s">
-        <v>169</v>
-      </c>
       <c r="I76" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J76" s="1"/>
     </row>
@@ -3838,10 +3841,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>8</v>
@@ -3853,13 +3856,13 @@
         <v>50123</v>
       </c>
       <c r="G77" t="s">
+        <v>169</v>
+      </c>
+      <c r="H77" t="s">
         <v>170</v>
       </c>
-      <c r="H77" t="s">
-        <v>171</v>
-      </c>
       <c r="I77" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J77" s="1"/>
     </row>
@@ -3868,10 +3871,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>8</v>
@@ -3883,13 +3886,13 @@
         <v>50124</v>
       </c>
       <c r="G78" t="s">
+        <v>171</v>
+      </c>
+      <c r="H78" t="s">
         <v>172</v>
       </c>
-      <c r="H78" t="s">
-        <v>173</v>
-      </c>
       <c r="I78" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J78" s="1"/>
     </row>
@@ -3898,10 +3901,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>8</v>
@@ -3913,13 +3916,13 @@
         <v>50125</v>
       </c>
       <c r="G79" t="s">
+        <v>173</v>
+      </c>
+      <c r="H79" t="s">
         <v>174</v>
       </c>
-      <c r="H79" t="s">
-        <v>175</v>
-      </c>
       <c r="I79" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J79" s="1"/>
     </row>
@@ -3928,10 +3931,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>8</v>
@@ -3943,13 +3946,13 @@
         <v>50126</v>
       </c>
       <c r="G80" t="s">
+        <v>175</v>
+      </c>
+      <c r="H80" t="s">
         <v>176</v>
       </c>
-      <c r="H80" t="s">
-        <v>177</v>
-      </c>
       <c r="I80" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J80" s="1"/>
     </row>
@@ -3958,10 +3961,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>8</v>
@@ -3973,13 +3976,13 @@
         <v>50127</v>
       </c>
       <c r="G81" t="s">
+        <v>177</v>
+      </c>
+      <c r="H81" t="s">
         <v>178</v>
       </c>
-      <c r="H81" t="s">
-        <v>179</v>
-      </c>
       <c r="I81" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J81" s="1"/>
     </row>
@@ -3988,10 +3991,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>8</v>
@@ -4003,13 +4006,13 @@
         <v>50128</v>
       </c>
       <c r="G82" t="s">
+        <v>181</v>
+      </c>
+      <c r="H82" t="s">
         <v>182</v>
       </c>
-      <c r="H82" t="s">
-        <v>183</v>
-      </c>
       <c r="I82" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J82" s="1"/>
     </row>
@@ -4018,10 +4021,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>8</v>
@@ -4033,13 +4036,13 @@
         <v>50129</v>
       </c>
       <c r="G83" t="s">
+        <v>187</v>
+      </c>
+      <c r="H83" t="s">
         <v>188</v>
       </c>
-      <c r="H83" t="s">
-        <v>189</v>
-      </c>
       <c r="I83" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J83" s="1"/>
     </row>
@@ -4048,10 +4051,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>8</v>
@@ -4063,13 +4066,13 @@
         <v>50130</v>
       </c>
       <c r="G84" t="s">
+        <v>208</v>
+      </c>
+      <c r="H84" t="s">
         <v>209</v>
       </c>
-      <c r="H84" t="s">
-        <v>210</v>
-      </c>
       <c r="I84" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J84" s="1"/>
     </row>
@@ -4078,10 +4081,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>8</v>
@@ -4093,13 +4096,13 @@
         <v>50131</v>
       </c>
       <c r="G85" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J85" s="1"/>
     </row>
@@ -4108,10 +4111,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>8</v>
@@ -4123,13 +4126,13 @@
         <v>50132</v>
       </c>
       <c r="G86" t="s">
+        <v>132</v>
+      </c>
+      <c r="H86" t="s">
         <v>133</v>
       </c>
-      <c r="H86" t="s">
-        <v>134</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J86" s="1"/>
     </row>
@@ -4138,10 +4141,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>8</v>
@@ -4153,13 +4156,13 @@
         <v>50133</v>
       </c>
       <c r="G87" t="s">
+        <v>136</v>
+      </c>
+      <c r="H87" t="s">
         <v>137</v>
       </c>
-      <c r="H87" t="s">
-        <v>138</v>
-      </c>
       <c r="I87" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J87" s="1"/>
     </row>
@@ -4168,10 +4171,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>8</v>
@@ -4183,13 +4186,13 @@
         <v>50134</v>
       </c>
       <c r="G88" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J88" s="1"/>
     </row>
@@ -4198,13 +4201,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
@@ -4213,13 +4216,13 @@
         <v>50135</v>
       </c>
       <c r="G89" t="s">
+        <v>179</v>
+      </c>
+      <c r="H89" t="s">
         <v>180</v>
       </c>
-      <c r="H89" t="s">
-        <v>181</v>
-      </c>
       <c r="I89" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J89" s="1"/>
     </row>
@@ -4228,13 +4231,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
@@ -4243,13 +4246,13 @@
         <v>50136</v>
       </c>
       <c r="G90" t="s">
+        <v>183</v>
+      </c>
+      <c r="H90" t="s">
         <v>184</v>
       </c>
-      <c r="H90" t="s">
-        <v>185</v>
-      </c>
       <c r="I90" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J90" s="1"/>
     </row>
@@ -4258,13 +4261,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
@@ -4273,13 +4276,13 @@
         <v>50137</v>
       </c>
       <c r="G91" t="s">
+        <v>185</v>
+      </c>
+      <c r="H91" t="s">
         <v>186</v>
       </c>
-      <c r="H91" t="s">
-        <v>187</v>
-      </c>
       <c r="I91" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J91" s="1"/>
     </row>
@@ -4288,10 +4291,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>23</v>
@@ -4303,13 +4306,13 @@
         <v>50138</v>
       </c>
       <c r="G92" t="s">
+        <v>128</v>
+      </c>
+      <c r="H92" t="s">
         <v>129</v>
       </c>
-      <c r="H92" t="s">
-        <v>130</v>
-      </c>
       <c r="I92" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J92" s="1"/>
     </row>
@@ -4318,10 +4321,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>23</v>
@@ -4333,13 +4336,13 @@
         <v>50139</v>
       </c>
       <c r="G93" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93" t="s">
         <v>135</v>
       </c>
-      <c r="H93" t="s">
-        <v>136</v>
-      </c>
       <c r="I93" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J93" s="1"/>
     </row>
@@ -4348,10 +4351,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>23</v>
@@ -4363,13 +4366,13 @@
         <v>50140</v>
       </c>
       <c r="G94" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" t="s">
         <v>139</v>
       </c>
-      <c r="H94" t="s">
-        <v>140</v>
-      </c>
       <c r="I94" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J94" s="1"/>
     </row>
@@ -4378,10 +4381,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>23</v>
@@ -4393,13 +4396,13 @@
         <v>50141</v>
       </c>
       <c r="G95" t="s">
+        <v>142</v>
+      </c>
+      <c r="H95" t="s">
         <v>143</v>
       </c>
-      <c r="H95" t="s">
-        <v>144</v>
-      </c>
       <c r="I95" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J95" s="1"/>
     </row>
@@ -4408,10 +4411,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>23</v>
@@ -4423,13 +4426,13 @@
         <v>50142</v>
       </c>
       <c r="G96" t="s">
+        <v>146</v>
+      </c>
+      <c r="H96" t="s">
         <v>147</v>
       </c>
-      <c r="H96" t="s">
-        <v>148</v>
-      </c>
       <c r="I96" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J96" s="1"/>
     </row>
@@ -4438,10 +4441,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>23</v>
@@ -4453,13 +4456,13 @@
         <v>50143</v>
       </c>
       <c r="G97" t="s">
+        <v>150</v>
+      </c>
+      <c r="H97" t="s">
         <v>151</v>
       </c>
-      <c r="H97" t="s">
-        <v>152</v>
-      </c>
       <c r="I97" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J97" s="1"/>
     </row>
@@ -4468,10 +4471,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>23</v>
@@ -4483,13 +4486,13 @@
         <v>50144</v>
       </c>
       <c r="G98" t="s">
+        <v>154</v>
+      </c>
+      <c r="H98" t="s">
         <v>155</v>
       </c>
-      <c r="H98" t="s">
-        <v>156</v>
-      </c>
       <c r="I98" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J98" s="1"/>
     </row>
@@ -4498,10 +4501,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>23</v>
@@ -4513,13 +4516,13 @@
         <v>50145</v>
       </c>
       <c r="G99" t="s">
+        <v>158</v>
+      </c>
+      <c r="H99" t="s">
         <v>159</v>
       </c>
-      <c r="H99" t="s">
-        <v>160</v>
-      </c>
       <c r="I99" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J99" s="1"/>
     </row>
@@ -4528,10 +4531,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>23</v>
@@ -4543,13 +4546,13 @@
         <v>50146</v>
       </c>
       <c r="G100" t="s">
+        <v>162</v>
+      </c>
+      <c r="H100" t="s">
         <v>163</v>
       </c>
-      <c r="H100" t="s">
-        <v>164</v>
-      </c>
       <c r="I100" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martiendt/Projects/Web/point/point/storage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797456AC-887C-3A42-B604-F449EDAEA7D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EF05B3-E005-6F46-93DC-BB98464015A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="460" windowWidth="23900" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANUFACTURE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MANUFACTURE!$A$1:$L$100</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="269">
   <si>
     <t>GROUP</t>
   </si>
@@ -96,6 +85,9 @@
     <t>PIUTANG KARYAWAN</t>
   </si>
   <si>
+    <t>PURCHASE DOWNPAYMENT</t>
+  </si>
+  <si>
     <t>UANG MUKA PEMBELIAN</t>
   </si>
   <si>
@@ -249,12 +241,21 @@
     <t>OTHER ASSETS</t>
   </si>
   <si>
+    <t>INTANGIBLE FIX ASSETS</t>
+  </si>
+  <si>
     <t>AKTIVA TETAP TAK BERWUJUD</t>
   </si>
   <si>
     <t>OTHER ASSETS AMORTIZATION</t>
   </si>
   <si>
+    <t>AMORTISASI ASET TETAP</t>
+  </si>
+  <si>
+    <t>ACCUMULATED AMORTIZED OF INTANGBLE FIX ASSETS</t>
+  </si>
+  <si>
     <t>AKUMULASI AMORTISASI AKTIVA TETAP TAK BERWUJUD</t>
   </si>
   <si>
@@ -264,9 +265,15 @@
     <t>WESEL BAYAR</t>
   </si>
   <si>
+    <t>ACCOUNT PAYABLE</t>
+  </si>
+  <si>
     <t>HUTANG USAHA</t>
   </si>
   <si>
+    <t>SALES DOWNPAYMENT</t>
+  </si>
+  <si>
     <t>UANG MUKA PENJUALAN</t>
   </si>
   <si>
@@ -408,6 +415,9 @@
     <t>BEBAN POKOK PENJUALAN</t>
   </si>
   <si>
+    <t>DIRECT EXPENSES</t>
+  </si>
+  <si>
     <t>BEBAN OPERASIONAL</t>
   </si>
   <si>
@@ -531,6 +541,9 @@
     <t>BEBAN PENYUSUTAN KENDARAAN KANTOR</t>
   </si>
   <si>
+    <t>AMORTIZATION INTANGIBLE FIX ASSETS EXPENSES</t>
+  </si>
+  <si>
     <t>BEBAN PENYUSUTAN AKTIVA TETAP TAK BERWUJUD</t>
   </si>
   <si>
@@ -600,6 +613,9 @@
     <t>BEBAN BUNGA</t>
   </si>
   <si>
+    <t>OTHER EXPENSES</t>
+  </si>
+  <si>
     <t>BEBAN LAIN-LAIN</t>
   </si>
   <si>
@@ -696,12 +712,21 @@
     <t>OTHER CURRENT ASSET</t>
   </si>
   <si>
+    <t>FIX ASSET</t>
+  </si>
+  <si>
+    <t>FIX ASSET DEPRECIATION</t>
+  </si>
+  <si>
     <t>UANG MUKA EKSPEDISI</t>
   </si>
   <si>
     <t>HUTANG EKSPEDISI</t>
   </si>
   <si>
+    <t>ACCOUNT PAYABLE EXPEDITION</t>
+  </si>
+  <si>
     <t>PURCHASE DOWN PAYMENT</t>
   </si>
   <si>
@@ -741,52 +766,67 @@
     <t>NET INCOME</t>
   </si>
   <si>
+    <t>DIFFERENCE STOCK EXPENSES</t>
+  </si>
+  <si>
+    <t>BEBAN SELISIH PERSEDIAAN</t>
+  </si>
+  <si>
+    <t>DEBIT</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
+  </si>
+  <si>
+    <t>PENJELASAN</t>
+  </si>
+  <si>
+    <t>PENURUNAN PERSEDIAAN MENAMBAH ARUS KAS</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPERATION </t>
+  </si>
+  <si>
+    <t>PENURUNAN PPN KELUARAN MENGURANGI ARUS KAS</t>
+  </si>
+  <si>
+    <t>KENAIKAN HUTANG USAHA MENAMBAH ARUS KAS</t>
+  </si>
+  <si>
+    <t>KENAIKAN PIUTANG USAHA MENGURANGI ARUS KAS</t>
+  </si>
+  <si>
+    <t>FUNDING</t>
+  </si>
+  <si>
+    <t>KENAIKAN MODAL MENAMBAH ARUS KAS</t>
+  </si>
+  <si>
+    <t>PENURUNAN PINJAMAN MENGURANGI ARUS KAS</t>
+  </si>
+  <si>
+    <t>INVESTATION</t>
+  </si>
+  <si>
+    <t>BIAYA ATAS HAK PATEN MENAMBAH ARUS KAS</t>
+  </si>
+  <si>
+    <t>PEMBELIAN ASETTAP MENGURANGI ARUS KAS</t>
+  </si>
+  <si>
+    <t>POSITION</t>
+  </si>
+  <si>
+    <t>CASH_FLOW_POSITION</t>
+  </si>
+  <si>
+    <t>CASH_FLOW</t>
+  </si>
+  <si>
     <t>SUB_LEDGER</t>
-  </si>
-  <si>
-    <t>POSITION</t>
-  </si>
-  <si>
-    <t>DEBIT</t>
-  </si>
-  <si>
-    <t>DIFFERENCE STOCK EXPENSES</t>
-  </si>
-  <si>
-    <t>BEBAN SELISIH PERSEDIAAN</t>
-  </si>
-  <si>
-    <t>CREDIT</t>
-  </si>
-  <si>
-    <t>FIXED ASSET DEPRECIATION</t>
-  </si>
-  <si>
-    <t>INTANGIBLE FIXED ASSETS</t>
-  </si>
-  <si>
-    <t>ACCUMULATED AMORTIZED OF INTANGBLE FIXED ASSETS</t>
-  </si>
-  <si>
-    <t>AMORTIZATION INTANGIBLE FIXED ASSETS EXPENSES</t>
-  </si>
-  <si>
-    <t>DIRECT EXPENSE</t>
-  </si>
-  <si>
-    <t>OTHER EXPENSE</t>
-  </si>
-  <si>
-    <t>ASET LAIN</t>
-  </si>
-  <si>
-    <t>AMORTISASI ASET LAIN</t>
-  </si>
-  <si>
-    <t>ACCOUNT PAYABLE</t>
-  </si>
-  <si>
-    <t>ACCOUNT PAYABLE EXPEDITION</t>
   </si>
 </sst>
 </file>
@@ -1671,66 +1711,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="G55" zoomScale="169" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="39.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="1"/>
     <col min="7" max="7" width="49.83203125" customWidth="1"/>
     <col min="8" max="8" width="52.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>237</v>
+        <v>203</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1749,20 +1801,19 @@
       <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I2" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F3" s="1">
         <v>10199</v>
@@ -1773,15 +1824,14 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="L3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1800,12 +1850,11 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I4" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1824,163 +1873,171 @@
       <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I5" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1">
         <v>10401</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>10402</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1">
         <v>10403</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1">
         <v>10404</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J9" t="s">
+        <v>254</v>
+      </c>
+      <c r="K9" t="s">
+        <v>251</v>
+      </c>
+      <c r="L9" t="s">
+        <v>253</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1">
         <v>10405</v>
       </c>
       <c r="G10" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="H10" t="s">
-        <v>201</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>245</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1999,20 +2056,20 @@
       <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="L11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>243</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2031,20 +2088,29 @@
       <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="L12" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I12" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J12" t="s">
+        <v>254</v>
+      </c>
+      <c r="K12" t="s">
+        <v>251</v>
+      </c>
+      <c r="L12" t="s">
+        <v>258</v>
+      </c>
+      <c r="M12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>243</v>
+      </c>
+      <c r="O12" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2063,20 +2129,20 @@
       <c r="H13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L13" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>242</v>
+      </c>
+      <c r="O13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2095,1395 +2161,1471 @@
       <c r="H14" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I14" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F15" s="1">
         <v>10599</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="1">
         <v>10601</v>
       </c>
       <c r="G16" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>223</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="F17" s="1">
         <v>10602</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>241</v>
+      </c>
+      <c r="O17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1">
         <v>10701</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1">
         <v>10801</v>
       </c>
       <c r="G19" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1">
         <v>10901</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1">
         <v>10902</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1">
         <v>10903</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1">
         <v>11101</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" s="1">
         <v>11202</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J24" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" t="s">
+        <v>262</v>
+      </c>
+      <c r="L24" t="s">
+        <v>264</v>
+      </c>
+      <c r="M24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="1">
         <v>11203</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" s="1">
         <v>11301</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
+        <v>262</v>
+      </c>
+      <c r="L26" t="s">
+        <v>264</v>
+      </c>
+      <c r="M26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F27" s="1">
         <v>11302</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" s="1">
         <v>11401</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>264</v>
+      </c>
+      <c r="M28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1">
         <v>11402</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" s="1">
         <v>11501</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J30" t="s">
+        <v>250</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1">
         <v>11502</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" s="1">
         <v>11601</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J32" t="s">
+        <v>250</v>
+      </c>
+      <c r="K32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L32" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F33" s="1">
         <v>11602</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1">
         <v>11701</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J34" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s">
+        <v>264</v>
+      </c>
+      <c r="M34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1">
         <v>11702</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1">
         <v>11801</v>
       </c>
       <c r="G36" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>72</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J36" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1">
         <v>11802</v>
       </c>
       <c r="G37" t="s">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F38" s="1">
         <v>20101</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="L38" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>244</v>
+      </c>
+      <c r="O38" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F39" s="1">
         <v>20201</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>250</v>
+      <c r="G39" t="s">
+        <v>81</v>
       </c>
       <c r="H39" t="s">
-        <v>77</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="L39" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J39" t="s">
+        <v>250</v>
+      </c>
+      <c r="K39" t="s">
+        <v>251</v>
+      </c>
+      <c r="L39" t="s">
+        <v>257</v>
+      </c>
+      <c r="M39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>244</v>
+      </c>
+      <c r="O39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F40" s="1">
         <v>20301</v>
       </c>
       <c r="G40" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="H40" t="s">
-        <v>78</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="L40" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>243</v>
+      </c>
+      <c r="O40" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F41" s="1">
         <v>20401</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="H41" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J41" s="1"/>
-      <c r="L41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J41" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s">
+        <v>256</v>
+      </c>
+      <c r="O41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F42" s="1">
         <v>20501</v>
       </c>
       <c r="G42" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="H42" t="s">
-        <v>222</v>
-      </c>
-      <c r="I42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
         <v>241</v>
       </c>
-      <c r="J42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L42" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F43" s="1">
         <v>20502</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s">
-        <v>195</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L43" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>242</v>
+      </c>
+      <c r="O43" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F44" s="1">
         <v>20601</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F45" s="1">
         <v>20602</v>
       </c>
       <c r="G45" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s">
-        <v>86</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F46" s="1">
         <v>20701</v>
       </c>
       <c r="G46" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s">
-        <v>88</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F47" s="1">
         <v>21101</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H47" t="s">
-        <v>92</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J47" t="s">
+        <v>250</v>
+      </c>
+      <c r="K47" t="s">
+        <v>259</v>
+      </c>
+      <c r="L47" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F48" s="1">
         <v>21201</v>
       </c>
       <c r="G48" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H48" t="s">
-        <v>94</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F49" s="1">
         <v>21301</v>
       </c>
       <c r="G49" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H49" t="s">
-        <v>96</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F50" s="1">
         <v>21401</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H50" t="s">
-        <v>98</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F51" s="1">
         <v>30101</v>
       </c>
       <c r="G51" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H51" t="s">
-        <v>102</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="L51" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J51" t="s">
+        <v>250</v>
+      </c>
+      <c r="K51" t="s">
+        <v>259</v>
+      </c>
+      <c r="L51" t="s">
+        <v>260</v>
+      </c>
+      <c r="O51" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F52" s="1">
         <v>30102</v>
       </c>
       <c r="G52" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H52" t="s">
-        <v>106</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J52" s="1"/>
-      <c r="L52" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O52" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F53" s="1">
         <v>30103</v>
       </c>
       <c r="G53" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H53" t="s">
-        <v>108</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J53" s="1"/>
-      <c r="L53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="F54" s="1">
         <v>30111</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H54" t="s">
-        <v>204</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J54" s="1"/>
-      <c r="L54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="F55" s="1">
         <v>30112</v>
       </c>
       <c r="G55" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="H55" t="s">
-        <v>205</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J55" s="1"/>
-      <c r="L55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F56" s="1">
         <v>40101</v>
       </c>
       <c r="G56" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H56" t="s">
-        <v>112</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="M56"/>
+      <c r="O56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F57" s="1">
         <v>40102</v>
       </c>
       <c r="G57" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H57" t="s">
-        <v>198</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J57" t="b">
-        <v>1</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="L57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M57" t="b">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>243</v>
+      </c>
+      <c r="O57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F58" s="1">
         <v>40103</v>
       </c>
       <c r="G58" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="H58" t="s">
-        <v>199</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="M58"/>
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F59" s="1">
         <v>41101</v>
       </c>
       <c r="G59" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H59" t="s">
-        <v>120</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F60" s="1">
         <v>41102</v>
       </c>
       <c r="G60" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F61" s="1">
         <v>41103</v>
       </c>
       <c r="G61" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H61" t="s">
-        <v>118</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F62" s="1">
         <v>41199</v>
       </c>
       <c r="G62" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H62" t="s">
-        <v>114</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F63" s="1">
         <v>41200</v>
       </c>
       <c r="G63" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H63" t="s">
-        <v>122</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F64" s="1">
         <v>50101</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H64" t="s">
-        <v>124</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J64" s="1"/>
-      <c r="L64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="O64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
@@ -3495,25 +3637,27 @@
         <v>50111</v>
       </c>
       <c r="G65" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H65" t="s">
-        <v>127</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="O65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>8</v>
@@ -3525,26 +3669,24 @@
         <v>50112</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H66" t="s">
-        <v>240</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J66" s="1"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
@@ -3556,25 +3698,25 @@
         <v>50113</v>
       </c>
       <c r="G67" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H67" t="s">
-        <v>131</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -3586,25 +3728,24 @@
         <v>50114</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H68" t="s">
-        <v>141</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>8</v>
@@ -3616,25 +3757,24 @@
         <v>50115</v>
       </c>
       <c r="G69" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H69" t="s">
-        <v>145</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>8</v>
@@ -3646,25 +3786,24 @@
         <v>50116</v>
       </c>
       <c r="G70" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H70" t="s">
-        <v>149</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
@@ -3676,25 +3815,24 @@
         <v>50117</v>
       </c>
       <c r="G71" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H71" t="s">
-        <v>153</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
@@ -3706,25 +3844,30 @@
         <v>50118</v>
       </c>
       <c r="G72" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H72" t="s">
-        <v>157</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J72" t="s">
+        <v>250</v>
+      </c>
+      <c r="K72" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>8</v>
@@ -3736,25 +3879,30 @@
         <v>50119</v>
       </c>
       <c r="G73" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H73" t="s">
-        <v>161</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J73" t="s">
+        <v>250</v>
+      </c>
+      <c r="K73" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>8</v>
@@ -3766,25 +3914,30 @@
         <v>50120</v>
       </c>
       <c r="G74" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H74" t="s">
-        <v>165</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J74" t="s">
+        <v>250</v>
+      </c>
+      <c r="K74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>8</v>
@@ -3796,25 +3949,30 @@
         <v>50121</v>
       </c>
       <c r="G75" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="H75" t="s">
-        <v>166</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J75" t="s">
+        <v>250</v>
+      </c>
+      <c r="K75" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>8</v>
@@ -3826,25 +3984,24 @@
         <v>50122</v>
       </c>
       <c r="G76" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H76" t="s">
-        <v>168</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>8</v>
@@ -3856,25 +4013,24 @@
         <v>50123</v>
       </c>
       <c r="G77" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H77" t="s">
-        <v>170</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>8</v>
@@ -3886,25 +4042,24 @@
         <v>50124</v>
       </c>
       <c r="G78" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="H78" t="s">
-        <v>172</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>8</v>
@@ -3916,25 +4071,24 @@
         <v>50125</v>
       </c>
       <c r="G79" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H79" t="s">
-        <v>174</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>8</v>
@@ -3946,25 +4100,24 @@
         <v>50126</v>
       </c>
       <c r="G80" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H80" t="s">
-        <v>176</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>8</v>
@@ -3976,25 +4129,24 @@
         <v>50127</v>
       </c>
       <c r="G81" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H81" t="s">
-        <v>178</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>8</v>
@@ -4006,25 +4158,24 @@
         <v>50128</v>
       </c>
       <c r="G82" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="H82" t="s">
-        <v>182</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>8</v>
@@ -4036,25 +4187,24 @@
         <v>50129</v>
       </c>
       <c r="G83" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H83" t="s">
-        <v>188</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>8</v>
@@ -4066,25 +4216,24 @@
         <v>50130</v>
       </c>
       <c r="G84" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="H84" t="s">
-        <v>209</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>8</v>
@@ -4096,25 +4245,24 @@
         <v>50131</v>
       </c>
       <c r="G85" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="H85" t="s">
-        <v>189</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>8</v>
@@ -4126,25 +4274,24 @@
         <v>50132</v>
       </c>
       <c r="G86" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H86" t="s">
-        <v>133</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>8</v>
@@ -4156,25 +4303,24 @@
         <v>50133</v>
       </c>
       <c r="G87" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H87" t="s">
-        <v>137</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>8</v>
@@ -4186,28 +4332,27 @@
         <v>50134</v>
       </c>
       <c r="G88" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="H88" t="s">
-        <v>190</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
@@ -4216,28 +4361,27 @@
         <v>50135</v>
       </c>
       <c r="G89" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H89" t="s">
-        <v>180</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
@@ -4246,28 +4390,27 @@
         <v>50136</v>
       </c>
       <c r="G90" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H90" t="s">
-        <v>184</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
@@ -4276,287 +4419,295 @@
         <v>50137</v>
       </c>
       <c r="G91" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H91" t="s">
-        <v>186</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F92" s="1">
         <v>50138</v>
       </c>
       <c r="G92" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H92" t="s">
-        <v>129</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F93" s="1">
         <v>50139</v>
       </c>
       <c r="G93" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H93" t="s">
-        <v>135</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F94" s="1">
         <v>50140</v>
       </c>
       <c r="G94" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H94" t="s">
-        <v>139</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F95" s="1">
         <v>50141</v>
       </c>
       <c r="G95" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H95" t="s">
-        <v>143</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F96" s="1">
         <v>50142</v>
       </c>
       <c r="G96" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H96" t="s">
-        <v>147</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F97" s="1">
         <v>50143</v>
       </c>
       <c r="G97" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H97" t="s">
-        <v>151</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F98" s="1">
         <v>50144</v>
       </c>
       <c r="G98" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H98" t="s">
-        <v>155</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J98" t="s">
+        <v>250</v>
+      </c>
+      <c r="K98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F99" s="1">
         <v>50145</v>
       </c>
       <c r="G99" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H99" t="s">
-        <v>159</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J99" t="s">
+        <v>250</v>
+      </c>
+      <c r="K99" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F100" s="1">
         <v>50146</v>
       </c>
       <c r="G100" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H100" t="s">
-        <v>163</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>238</v>
+        <v>170</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J100" t="s">
+        <v>250</v>
+      </c>
+      <c r="K100" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L100" xr:uid="{F8BCA7F5-CECC-6B4C-A3FE-000DB7E8463D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martiendt/Projects/Web/point/point/storage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EF05B3-E005-6F46-93DC-BB98464015A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2596FB-1B1B-3845-87CD-7B9705E59754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1713,8 +1713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G55" zoomScale="169" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="H62" zoomScale="169" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martiendt/Projects/Web/point/point/storage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2596FB-1B1B-3845-87CD-7B9705E59754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4100C-5C1B-8046-8F26-26729D211092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34760" yWindow="540" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANUFACTURE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="271">
   <si>
     <t>GROUP</t>
   </si>
@@ -415,33 +423,18 @@
     <t>BEBAN POKOK PENJUALAN</t>
   </si>
   <si>
-    <t>DIRECT EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN OPERASIONAL</t>
   </si>
   <si>
-    <t>DELIVERY EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN ANGKUT PENJUALAN</t>
   </si>
   <si>
-    <t>WAGE EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN UPAH TENAGA KERJA LANGSUNG</t>
   </si>
   <si>
-    <t>SALARY EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN GAJI</t>
   </si>
   <si>
-    <t>ACCOMODATION EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN AKOMODASI</t>
   </si>
   <si>
@@ -457,174 +450,90 @@
     <t>BEBAN BAHAN BAKAR KENDARAAN KANTOR</t>
   </si>
   <si>
-    <t>FACTORY ELECTRICITY EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN LISTRIK PABRIK</t>
   </si>
   <si>
-    <t>OFFICE ELECTRICITY EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN LISTRIK KANTOR</t>
   </si>
   <si>
-    <t>FACTORY WATER EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN AIR PABRIK</t>
   </si>
   <si>
-    <t>OFFICE WATER EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN AIR KANTOR</t>
   </si>
   <si>
-    <t>FACTORY CATERING EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN KONSUMSI PABRIK</t>
   </si>
   <si>
-    <t>OFFICE CATERING EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN KONSUMSI KANTOR</t>
   </si>
   <si>
-    <t>MAINTENANCE OF FACTORY EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PEMELIHARAAN PABRIK</t>
   </si>
   <si>
-    <t>MAINTENANCE OF OFFICE EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PEMELIHARAAN KANTOR</t>
   </si>
   <si>
-    <t>FACTORY BUILDING DEPRECIATION EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PENYUSUTAN BANGUNAN PABRIK</t>
   </si>
   <si>
-    <t>OFFICE BUILDING DEPRECIATION EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PENYUSUTAN BANGUNAN KANTOR</t>
   </si>
   <si>
-    <t>MACHINE DEPRECIATION EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PENYUSUTAN MESIN</t>
   </si>
   <si>
-    <t>EQUIPMENT DEPRECIATION EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PENYUSUTAN PERALATAN</t>
   </si>
   <si>
-    <t>FACTORY VEHICLE DEPRECIATION EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PENYUSUTAN KENDARAAN PABRIK</t>
   </si>
   <si>
-    <t>OFFICE VEHICLE DEPRECIATION EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PENYUSUTAN KENDARAAN KANTOR</t>
   </si>
   <si>
-    <t>AMORTIZATION INTANGIBLE FIX ASSETS EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PENYUSUTAN AKTIVA TETAP TAK BERWUJUD</t>
   </si>
   <si>
-    <t>SUPPLIES EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PERLENGKAPAN</t>
   </si>
   <si>
-    <t>RENT EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN SEWA</t>
   </si>
   <si>
-    <t>INSURANCE  EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN ASURANSI</t>
   </si>
   <si>
-    <t>TELEPHONE EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN TELEPON</t>
   </si>
   <si>
-    <t>INTERNET EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN INTERNET</t>
   </si>
   <si>
-    <t>CONSULTANT SERVICE EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN JASA KONSULTAN</t>
   </si>
   <si>
-    <t>ENTERTAIMENT EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN ENTERTAIMENT</t>
   </si>
   <si>
-    <t>BANK ADMINISTRATION EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN ADMINISTRASI BANK</t>
   </si>
   <si>
-    <t>ADVERTISING EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN IKLAN</t>
   </si>
   <si>
-    <t>SALES COMMISSION EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN KOMISI PENJUALAN</t>
   </si>
   <si>
-    <t>INTEREST EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN BUNGA</t>
   </si>
   <si>
-    <t>OTHER EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN LAIN-LAIN</t>
   </si>
   <si>
     <t>BEBAN NON OPERASIONAL</t>
   </si>
   <si>
-    <t>NON OPERATING EXPENSES</t>
-  </si>
-  <si>
     <t>NUMBER</t>
   </si>
   <si>
@@ -673,9 +582,6 @@
     <t>BIAYA OVERHEAD PABRIK</t>
   </si>
   <si>
-    <t>TAX EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN PAJAK</t>
   </si>
   <si>
@@ -766,9 +672,6 @@
     <t>NET INCOME</t>
   </si>
   <si>
-    <t>DIFFERENCE STOCK EXPENSES</t>
-  </si>
-  <si>
     <t>BEBAN SELISIH PERSEDIAAN</t>
   </si>
   <si>
@@ -827,6 +730,117 @@
   </si>
   <si>
     <t>SUB_LEDGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>DIRECT EXPENSE</t>
+  </si>
+  <si>
+    <t>DELIVERY EXPENSE</t>
+  </si>
+  <si>
+    <t>DIFFERENCE STOCK EXPENSE</t>
+  </si>
+  <si>
+    <t>SALARY EXPENSE</t>
+  </si>
+  <si>
+    <t>OFFICE ELECTRICITY EXPENSE</t>
+  </si>
+  <si>
+    <t>OFFICE WATER EXPENSE</t>
+  </si>
+  <si>
+    <t>OFFICE CATERING EXPENSE</t>
+  </si>
+  <si>
+    <t>MAINTENANCE OF OFFICE EXPENSE</t>
+  </si>
+  <si>
+    <t>OFFICE BUILDING DEPRECIATION EXPENSE</t>
+  </si>
+  <si>
+    <t>EQUIPMENT DEPRECIATION EXPENSE</t>
+  </si>
+  <si>
+    <t>OFFICE VEHICLE DEPRECIATION EXPENSE</t>
+  </si>
+  <si>
+    <t>AMORTIZATION INTANGIBLE FIX ASSETS EXPENSE</t>
+  </si>
+  <si>
+    <t>SUPPLIES EXPENSE</t>
+  </si>
+  <si>
+    <t>RENT EXPENSE</t>
+  </si>
+  <si>
+    <t>INSURANCE  EXPENSE</t>
+  </si>
+  <si>
+    <t>TELEPHONE EXPENSE</t>
+  </si>
+  <si>
+    <t>INTERNET EXPENSE</t>
+  </si>
+  <si>
+    <t>CONSULTANT SERVICE EXPENSE</t>
+  </si>
+  <si>
+    <t>BANK ADMINISTRATION EXPENSE</t>
+  </si>
+  <si>
+    <t>INTEREST EXPENSE</t>
+  </si>
+  <si>
+    <t>TAX EXPENSE</t>
+  </si>
+  <si>
+    <t>OTHER EXPENSE</t>
+  </si>
+  <si>
+    <t>ACCOMODATION EXPENSE</t>
+  </si>
+  <si>
+    <t>NON OPERATING EXPENSE</t>
+  </si>
+  <si>
+    <t>ENTERTAIMENT EXPENSE</t>
+  </si>
+  <si>
+    <t>ADVERTISING EXPENSE</t>
+  </si>
+  <si>
+    <t>SALES COMMISSION EXPENSE</t>
+  </si>
+  <si>
+    <t>WAGE EXPENSE</t>
+  </si>
+  <si>
+    <t>FACTORY ELECTRICITY EXPENSE</t>
+  </si>
+  <si>
+    <t>FACTORY WATER EXPENSE</t>
+  </si>
+  <si>
+    <t>FACTORY CATERING EXPENSE</t>
+  </si>
+  <si>
+    <t>MAINTENANCE OF FACTORY EXPENSE</t>
+  </si>
+  <si>
+    <t>FACTORY BUILDING DEPRECIATION EXPENSE</t>
+  </si>
+  <si>
+    <t>MACHINE DEPRECIATION EXPENSE</t>
+  </si>
+  <si>
+    <t>FACTORY VEHICLE DEPRECIATION EXPENSE</t>
   </si>
 </sst>
 </file>
@@ -1713,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H62" zoomScale="169" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="169" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1737,49 +1751,49 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1802,7 +1816,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1810,10 +1824,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="F3" s="1">
         <v>10199</v>
@@ -1825,7 +1839,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="O3" s="1" t="b">
         <v>1</v>
@@ -1851,7 +1865,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1874,7 +1888,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1897,13 +1911,13 @@
         <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1926,13 +1940,13 @@
         <v>31</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1955,13 +1969,13 @@
         <v>33</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1987,22 +2001,22 @@
         <v>35</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J9" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="K9" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="L9" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="M9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2019,19 +2033,19 @@
         <v>10405</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="H10" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -2057,13 +2071,13 @@
         <v>13</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="O11" s="1" t="b">
         <v>1</v>
@@ -2089,22 +2103,22 @@
         <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J12" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="K12" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="L12" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="M12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -2130,13 +2144,13 @@
         <v>18</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -2162,13 +2176,13 @@
         <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -2179,22 +2193,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="F15" s="1">
         <v>10599</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2211,19 +2225,19 @@
         <v>10601</v>
       </c>
       <c r="G16" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -2237,25 +2251,25 @@
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="F17" s="1">
         <v>10602</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="O17" s="3" t="b">
         <v>1</v>
@@ -2266,7 +2280,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
@@ -2275,13 +2289,13 @@
         <v>10701</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="H18" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -2292,7 +2306,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>36</v>
@@ -2301,13 +2315,13 @@
         <v>10801</v>
       </c>
       <c r="G19" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2315,7 +2329,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
@@ -2330,7 +2344,7 @@
         <v>39</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2338,7 +2352,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>36</v>
@@ -2353,7 +2367,7 @@
         <v>41</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2361,7 +2375,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>36</v>
@@ -2376,7 +2390,7 @@
         <v>43</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2384,7 +2398,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>44</v>
@@ -2399,13 +2413,13 @@
         <v>46</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2413,7 +2427,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
@@ -2428,22 +2442,22 @@
         <v>48</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="M24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2451,7 +2465,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>49</v>
@@ -2466,13 +2480,13 @@
         <v>51</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2480,7 +2494,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>44</v>
@@ -2495,22 +2509,22 @@
         <v>53</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="M26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2518,7 +2532,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>49</v>
@@ -2533,13 +2547,13 @@
         <v>55</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2547,7 +2561,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>44</v>
@@ -2562,22 +2576,22 @@
         <v>57</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="M28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2585,7 +2599,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>49</v>
@@ -2600,13 +2614,13 @@
         <v>59</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2614,7 +2628,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>44</v>
@@ -2629,22 +2643,22 @@
         <v>61</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="M30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2652,7 +2666,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>49</v>
@@ -2667,13 +2681,13 @@
         <v>63</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2681,7 +2695,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>44</v>
@@ -2696,22 +2710,22 @@
         <v>65</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J32" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="M32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2719,7 +2733,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>49</v>
@@ -2734,13 +2748,13 @@
         <v>67</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2748,7 +2762,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>44</v>
@@ -2763,22 +2777,22 @@
         <v>69</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J34" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="M34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2786,7 +2800,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>49</v>
@@ -2801,13 +2815,13 @@
         <v>71</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2830,22 +2844,22 @@
         <v>74</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J36" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="M36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2868,13 +2882,13 @@
         <v>78</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2897,13 +2911,13 @@
         <v>80</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -2929,22 +2943,22 @@
         <v>82</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="J39" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K39" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="M39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="O39" s="1" t="b">
         <v>1</v>
@@ -2964,19 +2978,19 @@
         <v>20301</v>
       </c>
       <c r="G40" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="H40" t="s">
         <v>84</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="O40" s="1" t="b">
         <v>1</v>
@@ -2987,7 +3001,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>85</v>
@@ -2996,22 +3010,22 @@
         <v>20401</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="H41" t="s">
         <v>85</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="J41" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K41" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="L41" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -3031,19 +3045,19 @@
         <v>20501</v>
       </c>
       <c r="G42" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="H42" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3066,16 +3080,16 @@
         <v>88</v>
       </c>
       <c r="H43" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="M43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3101,7 +3115,7 @@
         <v>90</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -3124,7 +3138,7 @@
         <v>92</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -3147,7 +3161,7 @@
         <v>94</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -3170,16 +3184,16 @@
         <v>98</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="J47" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K47" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="L47" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -3202,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -3225,7 +3239,7 @@
         <v>102</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -3248,7 +3262,7 @@
         <v>104</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -3271,16 +3285,16 @@
         <v>108</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="J51" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K51" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="L51" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="O51" s="3" t="b">
         <v>1</v>
@@ -3306,7 +3320,7 @@
         <v>112</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="O52" s="3" t="b">
         <v>1</v>
@@ -3332,7 +3346,7 @@
         <v>114</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -3343,7 +3357,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>114</v>
@@ -3352,13 +3366,13 @@
         <v>30111</v>
       </c>
       <c r="G54" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="H54" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -3369,7 +3383,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>114</v>
@@ -3378,13 +3392,13 @@
         <v>30112</v>
       </c>
       <c r="G55" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="H55" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -3410,7 +3424,10 @@
         <v>118</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
+      </c>
+      <c r="K56" t="s">
+        <v>235</v>
       </c>
       <c r="M56"/>
       <c r="O56" t="b">
@@ -3431,19 +3448,19 @@
         <v>40102</v>
       </c>
       <c r="G57" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="H57" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M57" t="b">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -3463,13 +3480,13 @@
         <v>40103</v>
       </c>
       <c r="G58" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="H58" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M58"/>
       <c r="O58" t="b">
@@ -3496,7 +3513,7 @@
         <v>126</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -3519,7 +3536,7 @@
         <v>122</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -3542,7 +3559,7 @@
         <v>124</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -3565,7 +3582,10 @@
         <v>120</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
+      </c>
+      <c r="J62" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -3588,7 +3608,7 @@
         <v>128</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -3611,7 +3631,7 @@
         <v>130</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="O64" t="b">
         <v>1</v>
@@ -3622,10 +3642,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
@@ -3637,13 +3657,13 @@
         <v>50111</v>
       </c>
       <c r="G65" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="H65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="O65" t="b">
         <v>1</v>
@@ -3654,10 +3674,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>8</v>
@@ -3669,13 +3689,13 @@
         <v>50112</v>
       </c>
       <c r="G66" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H66" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -3683,10 +3703,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
@@ -3698,13 +3718,13 @@
         <v>50113</v>
       </c>
       <c r="G67" t="s">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="H67" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="O67" s="3"/>
     </row>
@@ -3713,10 +3733,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -3728,13 +3748,13 @@
         <v>50114</v>
       </c>
       <c r="G68" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -3742,10 +3762,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>8</v>
@@ -3757,13 +3777,13 @@
         <v>50115</v>
       </c>
       <c r="G69" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="H69" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -3771,10 +3791,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>8</v>
@@ -3786,13 +3806,13 @@
         <v>50116</v>
       </c>
       <c r="G70" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="H70" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -3800,10 +3820,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
@@ -3815,13 +3835,13 @@
         <v>50117</v>
       </c>
       <c r="G71" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="H71" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -3829,10 +3849,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
@@ -3844,19 +3864,19 @@
         <v>50118</v>
       </c>
       <c r="G72" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="H72" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J72" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K72" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -3864,10 +3884,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>8</v>
@@ -3879,19 +3899,19 @@
         <v>50119</v>
       </c>
       <c r="G73" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="H73" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J73" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K73" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -3899,10 +3919,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>8</v>
@@ -3914,19 +3934,19 @@
         <v>50120</v>
       </c>
       <c r="G74" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="H74" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J74" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K74" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -3934,10 +3954,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>8</v>
@@ -3949,19 +3969,19 @@
         <v>50121</v>
       </c>
       <c r="G75" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="H75" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J75" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K75" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -3969,10 +3989,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>8</v>
@@ -3984,13 +4004,13 @@
         <v>50122</v>
       </c>
       <c r="G76" t="s">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="H76" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -3998,10 +4018,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>8</v>
@@ -4013,13 +4033,13 @@
         <v>50123</v>
       </c>
       <c r="G77" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="H77" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -4027,10 +4047,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>8</v>
@@ -4042,13 +4062,13 @@
         <v>50124</v>
       </c>
       <c r="G78" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="H78" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -4056,10 +4076,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>8</v>
@@ -4071,13 +4091,13 @@
         <v>50125</v>
       </c>
       <c r="G79" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="H79" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -4085,10 +4105,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>8</v>
@@ -4100,13 +4120,13 @@
         <v>50126</v>
       </c>
       <c r="G80" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="H80" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -4114,10 +4134,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>8</v>
@@ -4129,13 +4149,13 @@
         <v>50127</v>
       </c>
       <c r="G81" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="H81" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -4143,10 +4163,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>8</v>
@@ -4158,13 +4178,13 @@
         <v>50128</v>
       </c>
       <c r="G82" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="H82" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -4172,10 +4192,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>8</v>
@@ -4187,13 +4207,13 @@
         <v>50129</v>
       </c>
       <c r="G83" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="H83" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -4201,10 +4221,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>8</v>
@@ -4216,13 +4236,13 @@
         <v>50130</v>
       </c>
       <c r="G84" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="H84" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -4230,10 +4250,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>8</v>
@@ -4245,13 +4265,13 @@
         <v>50131</v>
       </c>
       <c r="G85" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="H85" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -4259,10 +4279,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>8</v>
@@ -4274,13 +4294,13 @@
         <v>50132</v>
       </c>
       <c r="G86" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="H86" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -4288,10 +4308,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>8</v>
@@ -4303,13 +4323,13 @@
         <v>50133</v>
       </c>
       <c r="G87" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H87" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -4317,10 +4337,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>8</v>
@@ -4332,13 +4352,13 @@
         <v>50134</v>
       </c>
       <c r="G88" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="H88" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -4346,13 +4366,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
@@ -4361,13 +4381,13 @@
         <v>50135</v>
       </c>
       <c r="G89" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="H89" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -4375,13 +4395,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
@@ -4390,13 +4410,13 @@
         <v>50136</v>
       </c>
       <c r="G90" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="H90" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -4404,13 +4424,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
@@ -4419,13 +4439,13 @@
         <v>50137</v>
       </c>
       <c r="G91" t="s">
-        <v>193</v>
+        <v>262</v>
       </c>
       <c r="H91" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -4433,10 +4453,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>24</v>
@@ -4448,13 +4468,13 @@
         <v>50138</v>
       </c>
       <c r="G92" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="H92" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -4462,10 +4482,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>24</v>
@@ -4477,13 +4497,13 @@
         <v>50139</v>
       </c>
       <c r="G93" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H93" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4491,10 +4511,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>24</v>
@@ -4506,13 +4526,13 @@
         <v>50140</v>
       </c>
       <c r="G94" t="s">
-        <v>145</v>
+        <v>264</v>
       </c>
       <c r="H94" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -4520,10 +4540,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>24</v>
@@ -4535,13 +4555,13 @@
         <v>50141</v>
       </c>
       <c r="G95" t="s">
-        <v>149</v>
+        <v>265</v>
       </c>
       <c r="H95" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -4549,10 +4569,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>24</v>
@@ -4564,13 +4584,13 @@
         <v>50142</v>
       </c>
       <c r="G96" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="H96" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -4578,10 +4598,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>24</v>
@@ -4593,13 +4613,13 @@
         <v>50143</v>
       </c>
       <c r="G97" t="s">
-        <v>157</v>
+        <v>267</v>
       </c>
       <c r="H97" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -4607,10 +4627,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>24</v>
@@ -4622,19 +4642,19 @@
         <v>50144</v>
       </c>
       <c r="G98" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c r="H98" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J98" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K98" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -4642,10 +4662,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>24</v>
@@ -4657,19 +4677,19 @@
         <v>50145</v>
       </c>
       <c r="G99" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="H99" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J99" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K99" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -4677,10 +4697,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>24</v>
@@ -4692,19 +4712,19 @@
         <v>50146</v>
       </c>
       <c r="G100" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
       <c r="H100" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="J100" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="K100" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martiendt/Projects/Web/point/point/storage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4100C-5C1B-8046-8F26-26729D211092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0D5666-719A-914A-AE14-D9C928A7B7F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34760" yWindow="540" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANUFACTURE" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MANUFACTURE!$A$1:$O$100</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -711,9 +714,6 @@
     <t>PENURUNAN PINJAMAN MENGURANGI ARUS KAS</t>
   </si>
   <si>
-    <t>INVESTATION</t>
-  </si>
-  <si>
     <t>BIAYA ATAS HAK PATEN MENAMBAH ARUS KAS</t>
   </si>
   <si>
@@ -841,6 +841,9 @@
   </si>
   <si>
     <t>FACTORY VEHICLE DEPRECIATION EXPENSE</t>
+  </si>
+  <si>
+    <t>INVESTMENT</t>
   </si>
 </sst>
 </file>
@@ -1727,8 +1730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="169" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="H18" zoomScale="169" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1775,13 +1778,13 @@
         <v>170</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>217</v>
@@ -1790,7 +1793,7 @@
         <v>186</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>189</v>
@@ -2444,14 +2447,14 @@
       <c r="I24" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="2" t="s">
         <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M24" s="1" t="b">
         <v>1</v>
@@ -2515,10 +2518,10 @@
         <v>215</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M26" s="1" t="b">
         <v>1</v>
@@ -2582,10 +2585,10 @@
         <v>215</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M28" s="1" t="b">
         <v>1</v>
@@ -2649,10 +2652,10 @@
         <v>215</v>
       </c>
       <c r="K30" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M30" s="1" t="b">
         <v>1</v>
@@ -2716,10 +2719,10 @@
         <v>215</v>
       </c>
       <c r="K32" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M32" s="1" t="b">
         <v>1</v>
@@ -2783,10 +2786,10 @@
         <v>215</v>
       </c>
       <c r="K34" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="L34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M34" s="1" t="b">
         <v>1</v>
@@ -2853,7 +2856,7 @@
         <v>216</v>
       </c>
       <c r="L36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M36" s="1" t="b">
         <v>1</v>
@@ -3427,7 +3430,7 @@
         <v>219</v>
       </c>
       <c r="K56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M56"/>
       <c r="O56" t="b">
@@ -3585,7 +3588,7 @@
         <v>219</v>
       </c>
       <c r="J62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -3642,7 +3645,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>131</v>
@@ -3657,7 +3660,7 @@
         <v>50111</v>
       </c>
       <c r="G65" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H65" t="s">
         <v>132</v>
@@ -3674,7 +3677,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>131</v>
@@ -3689,7 +3692,7 @@
         <v>50112</v>
       </c>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H66" t="s">
         <v>214</v>
@@ -3703,7 +3706,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>131</v>
@@ -3718,7 +3721,7 @@
         <v>50113</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H67" t="s">
         <v>134</v>
@@ -3733,7 +3736,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>131</v>
@@ -3748,7 +3751,7 @@
         <v>50114</v>
       </c>
       <c r="G68" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H68" t="s">
         <v>141</v>
@@ -3762,7 +3765,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>131</v>
@@ -3777,7 +3780,7 @@
         <v>50115</v>
       </c>
       <c r="G69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H69" t="s">
         <v>143</v>
@@ -3791,7 +3794,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>131</v>
@@ -3806,7 +3809,7 @@
         <v>50116</v>
       </c>
       <c r="G70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H70" t="s">
         <v>145</v>
@@ -3820,7 +3823,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>131</v>
@@ -3835,7 +3838,7 @@
         <v>50117</v>
       </c>
       <c r="G71" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H71" t="s">
         <v>147</v>
@@ -3849,7 +3852,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>131</v>
@@ -3864,7 +3867,7 @@
         <v>50118</v>
       </c>
       <c r="G72" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H72" t="s">
         <v>149</v>
@@ -3884,7 +3887,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>131</v>
@@ -3899,7 +3902,7 @@
         <v>50119</v>
       </c>
       <c r="G73" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H73" t="s">
         <v>151</v>
@@ -3919,7 +3922,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>131</v>
@@ -3934,7 +3937,7 @@
         <v>50120</v>
       </c>
       <c r="G74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H74" t="s">
         <v>153</v>
@@ -3954,7 +3957,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>131</v>
@@ -3969,7 +3972,7 @@
         <v>50121</v>
       </c>
       <c r="G75" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H75" t="s">
         <v>154</v>
@@ -3989,7 +3992,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>131</v>
@@ -4004,7 +4007,7 @@
         <v>50122</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H76" t="s">
         <v>155</v>
@@ -4018,7 +4021,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>131</v>
@@ -4033,7 +4036,7 @@
         <v>50123</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H77" t="s">
         <v>156</v>
@@ -4047,7 +4050,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>131</v>
@@ -4062,7 +4065,7 @@
         <v>50124</v>
       </c>
       <c r="G78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H78" t="s">
         <v>157</v>
@@ -4076,7 +4079,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>131</v>
@@ -4091,7 +4094,7 @@
         <v>50125</v>
       </c>
       <c r="G79" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H79" t="s">
         <v>158</v>
@@ -4105,7 +4108,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>131</v>
@@ -4120,7 +4123,7 @@
         <v>50126</v>
       </c>
       <c r="G80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H80" t="s">
         <v>159</v>
@@ -4134,7 +4137,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>131</v>
@@ -4149,7 +4152,7 @@
         <v>50127</v>
       </c>
       <c r="G81" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H81" t="s">
         <v>160</v>
@@ -4163,7 +4166,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>131</v>
@@ -4178,7 +4181,7 @@
         <v>50128</v>
       </c>
       <c r="G82" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H82" t="s">
         <v>162</v>
@@ -4192,7 +4195,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>131</v>
@@ -4207,7 +4210,7 @@
         <v>50129</v>
       </c>
       <c r="G83" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H83" t="s">
         <v>165</v>
@@ -4221,7 +4224,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>131</v>
@@ -4236,7 +4239,7 @@
         <v>50130</v>
       </c>
       <c r="G84" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H84" t="s">
         <v>184</v>
@@ -4250,7 +4253,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>131</v>
@@ -4265,7 +4268,7 @@
         <v>50131</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H85" t="s">
         <v>166</v>
@@ -4279,7 +4282,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>131</v>
@@ -4294,7 +4297,7 @@
         <v>50132</v>
       </c>
       <c r="G86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H86" t="s">
         <v>135</v>
@@ -4308,7 +4311,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>131</v>
@@ -4337,7 +4340,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>167</v>
@@ -4352,7 +4355,7 @@
         <v>50134</v>
       </c>
       <c r="G88" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H88" t="s">
         <v>167</v>
@@ -4366,7 +4369,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>131</v>
@@ -4381,7 +4384,7 @@
         <v>50135</v>
       </c>
       <c r="G89" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H89" t="s">
         <v>161</v>
@@ -4395,7 +4398,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>131</v>
@@ -4410,7 +4413,7 @@
         <v>50136</v>
       </c>
       <c r="G90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H90" t="s">
         <v>163</v>
@@ -4424,7 +4427,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>131</v>
@@ -4439,7 +4442,7 @@
         <v>50137</v>
       </c>
       <c r="G91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H91" t="s">
         <v>164</v>
@@ -4468,7 +4471,7 @@
         <v>50138</v>
       </c>
       <c r="G92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H92" t="s">
         <v>133</v>
@@ -4526,7 +4529,7 @@
         <v>50140</v>
       </c>
       <c r="G94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H94" t="s">
         <v>140</v>
@@ -4555,7 +4558,7 @@
         <v>50141</v>
       </c>
       <c r="G95" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H95" t="s">
         <v>142</v>
@@ -4584,7 +4587,7 @@
         <v>50142</v>
       </c>
       <c r="G96" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H96" t="s">
         <v>144</v>
@@ -4613,7 +4616,7 @@
         <v>50143</v>
       </c>
       <c r="G97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H97" t="s">
         <v>146</v>
@@ -4642,7 +4645,7 @@
         <v>50144</v>
       </c>
       <c r="G98" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H98" t="s">
         <v>148</v>
@@ -4677,7 +4680,7 @@
         <v>50145</v>
       </c>
       <c r="G99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H99" t="s">
         <v>150</v>
@@ -4712,7 +4715,7 @@
         <v>50146</v>
       </c>
       <c r="G100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H100" t="s">
         <v>152</v>
@@ -4728,6 +4731,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O100" xr:uid="{5492E6E8-17AC-4247-9CBA-ED1BBB64F43B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martiendt/Projects/Web/point/point/storage/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0D5666-719A-914A-AE14-D9C928A7B7F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11D76DE-4534-8742-9B46-9241F1F9A7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34760" yWindow="540" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANUFACTURE" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="268">
   <si>
     <t>GROUP</t>
   </si>
@@ -96,9 +96,6 @@
     <t>PIUTANG KARYAWAN</t>
   </si>
   <si>
-    <t>PURCHASE DOWNPAYMENT</t>
-  </si>
-  <si>
     <t>UANG MUKA PEMBELIAN</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>HUTANG USAHA</t>
   </si>
   <si>
-    <t>SALES DOWNPAYMENT</t>
-  </si>
-  <si>
     <t>UANG MUKA PENJUALAN</t>
   </si>
   <si>
@@ -621,12 +615,6 @@
     <t>OTHER CURRENT ASSET</t>
   </si>
   <si>
-    <t>FIX ASSET</t>
-  </si>
-  <si>
-    <t>FIX ASSET DEPRECIATION</t>
-  </si>
-  <si>
     <t>UANG MUKA EKSPEDISI</t>
   </si>
   <si>
@@ -844,6 +832,9 @@
   </si>
   <si>
     <t>INVESTMENT</t>
+  </si>
+  <si>
+    <t>FIXED ASSET DEPRECIATION</t>
   </si>
 </sst>
 </file>
@@ -1730,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H18" zoomScale="169" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="169" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1754,49 +1745,49 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1819,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -1827,10 +1818,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F3" s="1">
         <v>10199</v>
@@ -1842,7 +1833,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O3" s="1" t="b">
         <v>1</v>
@@ -1868,7 +1859,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1891,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1899,28 +1890,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="1">
         <v>10401</v>
       </c>
       <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1928,28 +1919,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F7" s="1">
         <v>10402</v>
       </c>
       <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1957,28 +1948,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="1">
         <v>10403</v>
       </c>
       <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1989,37 +1980,37 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F9" s="1">
         <v>10404</v>
       </c>
       <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
       <c r="I9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" t="s">
         <v>215</v>
       </c>
-      <c r="J9" t="s">
-        <v>219</v>
-      </c>
       <c r="K9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L9" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2027,28 +2018,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F10" s="1">
         <v>10405</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -2074,13 +2065,13 @@
         <v>13</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O11" s="1" t="b">
         <v>1</v>
@@ -2106,22 +2097,22 @@
         <v>15</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" t="s">
         <v>215</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" t="s">
         <v>219</v>
       </c>
-      <c r="K12" t="s">
-        <v>216</v>
-      </c>
-      <c r="L12" t="s">
-        <v>223</v>
-      </c>
       <c r="M12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O12" s="3" t="b">
         <v>1</v>
@@ -2147,13 +2138,13 @@
         <v>18</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O13" s="3" t="b">
         <v>1</v>
@@ -2179,13 +2170,13 @@
         <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O14" s="3" t="b">
         <v>1</v>
@@ -2196,22 +2187,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F15" s="1">
         <v>10599</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2219,28 +2210,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="F16" s="1">
         <v>10601</v>
       </c>
       <c r="G16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O16" s="3" t="b">
         <v>1</v>
@@ -2251,28 +2242,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F17" s="1">
         <v>10602</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O17" s="3" t="b">
         <v>1</v>
@@ -2283,22 +2274,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1">
         <v>10701</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
@@ -2309,22 +2300,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1">
         <v>10801</v>
       </c>
       <c r="G19" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -2332,22 +2323,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1">
         <v>10901</v>
       </c>
       <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
         <v>38</v>
       </c>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -2355,22 +2346,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1">
         <v>10902</v>
       </c>
       <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
         <v>40</v>
       </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -2378,22 +2369,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1">
         <v>10903</v>
       </c>
       <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
         <v>42</v>
       </c>
-      <c r="H22" t="s">
-        <v>43</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2401,28 +2392,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="1">
         <v>11101</v>
       </c>
       <c r="G23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" t="s">
         <v>45</v>
       </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2430,37 +2421,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="1">
         <v>11202</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2468,28 +2459,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1">
         <v>11203</v>
       </c>
       <c r="G25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s">
         <v>50</v>
       </c>
-      <c r="H25" t="s">
-        <v>51</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2497,37 +2488,37 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1">
         <v>11301</v>
       </c>
       <c r="G26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" t="s">
         <v>52</v>
       </c>
-      <c r="H26" t="s">
-        <v>53</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2535,28 +2526,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1">
         <v>11302</v>
       </c>
       <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
         <v>54</v>
       </c>
-      <c r="H27" t="s">
-        <v>55</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2564,37 +2555,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="1">
         <v>11401</v>
       </c>
       <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" t="s">
         <v>56</v>
       </c>
-      <c r="H28" t="s">
-        <v>57</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2602,28 +2593,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1">
         <v>11402</v>
       </c>
       <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" t="s">
         <v>58</v>
       </c>
-      <c r="H29" t="s">
-        <v>59</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2631,37 +2622,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1">
         <v>11501</v>
       </c>
       <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
         <v>60</v>
       </c>
-      <c r="H30" t="s">
-        <v>61</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2669,28 +2660,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1">
         <v>11502</v>
       </c>
       <c r="G31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" t="s">
         <v>62</v>
       </c>
-      <c r="H31" t="s">
-        <v>63</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2698,37 +2689,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="1">
         <v>11601</v>
       </c>
       <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
         <v>64</v>
       </c>
-      <c r="H32" t="s">
-        <v>65</v>
-      </c>
       <c r="I32" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2736,28 +2727,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1">
         <v>11602</v>
       </c>
       <c r="G33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" t="s">
         <v>66</v>
       </c>
-      <c r="H33" t="s">
-        <v>67</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2765,37 +2756,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1">
         <v>11701</v>
       </c>
       <c r="G34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" t="s">
         <v>68</v>
       </c>
-      <c r="H34" t="s">
-        <v>69</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K34" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2803,28 +2794,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1">
         <v>11702</v>
       </c>
       <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
         <v>70</v>
       </c>
-      <c r="H35" t="s">
-        <v>71</v>
-      </c>
       <c r="I35" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2832,37 +2823,37 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1">
         <v>11801</v>
       </c>
       <c r="G36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" t="s">
         <v>73</v>
       </c>
-      <c r="H36" t="s">
-        <v>74</v>
-      </c>
       <c r="I36" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J36" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K36" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L36" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2870,28 +2861,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F37" s="1">
         <v>11802</v>
       </c>
       <c r="G37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s">
         <v>77</v>
       </c>
-      <c r="H37" t="s">
-        <v>78</v>
-      </c>
       <c r="I37" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M37" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2899,28 +2890,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F38" s="1">
         <v>20101</v>
       </c>
       <c r="G38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s">
         <v>79</v>
       </c>
-      <c r="H38" t="s">
-        <v>80</v>
-      </c>
       <c r="I38" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O38" s="3" t="b">
         <v>1</v>
@@ -2931,37 +2922,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F39" s="1">
         <v>20201</v>
       </c>
       <c r="G39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" t="s">
         <v>81</v>
       </c>
-      <c r="H39" t="s">
-        <v>82</v>
-      </c>
       <c r="I39" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J39" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K39" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L39" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O39" s="1" t="b">
         <v>1</v>
@@ -2972,28 +2963,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F40" s="1">
         <v>20301</v>
       </c>
       <c r="G40" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O40" s="1" t="b">
         <v>1</v>
@@ -3004,31 +2995,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F41" s="1">
         <v>20401</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L41" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O41" t="b">
         <v>1</v>
@@ -3039,28 +3030,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F42" s="1">
         <v>20501</v>
       </c>
       <c r="G42" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H42" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M42" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O42" s="3" t="b">
         <v>1</v>
@@ -3071,28 +3062,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F43" s="1">
         <v>20502</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M43" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O43" s="3" t="b">
         <v>1</v>
@@ -3103,22 +3094,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" s="1">
         <v>20601</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -3126,22 +3117,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" s="1">
         <v>20602</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -3149,22 +3140,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" s="1">
         <v>20701</v>
       </c>
       <c r="G46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -3172,31 +3163,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F47" s="1">
         <v>21101</v>
       </c>
       <c r="G47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J47" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K47" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L47" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -3204,22 +3195,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F48" s="1">
         <v>21201</v>
       </c>
       <c r="G48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -3227,22 +3218,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F49" s="1">
         <v>21301</v>
       </c>
       <c r="G49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -3250,22 +3241,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F50" s="1">
         <v>21401</v>
       </c>
       <c r="G50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -3273,31 +3264,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F51" s="1">
         <v>30101</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J51" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K51" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L51" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="O51" s="3" t="b">
         <v>1</v>
@@ -3308,22 +3299,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F52" s="1">
         <v>30102</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O52" s="3" t="b">
         <v>1</v>
@@ -3334,22 +3325,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F53" s="1">
         <v>30103</v>
       </c>
       <c r="G53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O53" t="b">
         <v>1</v>
@@ -3360,22 +3351,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54" s="1">
         <v>30111</v>
       </c>
       <c r="G54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O54" t="b">
         <v>1</v>
@@ -3386,22 +3377,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F55" s="1">
         <v>30112</v>
       </c>
       <c r="G55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O55" t="b">
         <v>1</v>
@@ -3412,25 +3403,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F56" s="1">
         <v>40101</v>
       </c>
       <c r="G56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K56" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M56"/>
       <c r="O56" t="b">
@@ -3442,28 +3433,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F57" s="1">
         <v>40102</v>
       </c>
       <c r="G57" t="s">
+        <v>170</v>
+      </c>
+      <c r="H57" t="s">
         <v>172</v>
       </c>
-      <c r="H57" t="s">
-        <v>174</v>
-      </c>
       <c r="I57" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M57" t="b">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O57" t="b">
         <v>1</v>
@@ -3474,22 +3465,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F58" s="1">
         <v>40103</v>
       </c>
       <c r="G58" t="s">
+        <v>171</v>
+      </c>
+      <c r="H58" t="s">
         <v>173</v>
       </c>
-      <c r="H58" t="s">
-        <v>175</v>
-      </c>
       <c r="I58" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M58"/>
       <c r="O58" t="b">
@@ -3501,22 +3492,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F59" s="1">
         <v>41101</v>
       </c>
       <c r="G59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -3524,22 +3515,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F60" s="1">
         <v>41102</v>
       </c>
       <c r="G60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H60" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -3547,22 +3538,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F61" s="1">
         <v>41103</v>
       </c>
       <c r="G61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -3570,25 +3561,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F62" s="1">
         <v>41199</v>
       </c>
       <c r="G62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J62" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -3596,22 +3587,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F63" s="1">
         <v>41200</v>
       </c>
       <c r="G63" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -3619,22 +3610,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F64" s="1">
         <v>50101</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O64" t="b">
         <v>1</v>
@@ -3645,10 +3636,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
@@ -3660,13 +3651,13 @@
         <v>50111</v>
       </c>
       <c r="G65" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O65" t="b">
         <v>1</v>
@@ -3677,10 +3668,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>8</v>
@@ -3692,13 +3683,13 @@
         <v>50112</v>
       </c>
       <c r="G66" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H66" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -3706,10 +3697,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>8</v>
@@ -3721,13 +3712,13 @@
         <v>50113</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O67" s="3"/>
     </row>
@@ -3736,10 +3727,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>8</v>
@@ -3751,13 +3742,13 @@
         <v>50114</v>
       </c>
       <c r="G68" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H68" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -3765,10 +3756,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>8</v>
@@ -3780,13 +3771,13 @@
         <v>50115</v>
       </c>
       <c r="G69" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -3794,10 +3785,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>8</v>
@@ -3809,13 +3800,13 @@
         <v>50116</v>
       </c>
       <c r="G70" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -3823,10 +3814,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
@@ -3838,13 +3829,13 @@
         <v>50117</v>
       </c>
       <c r="G71" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -3852,10 +3843,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>8</v>
@@ -3867,19 +3858,19 @@
         <v>50118</v>
       </c>
       <c r="G72" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J72" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K72" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -3887,10 +3878,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>8</v>
@@ -3902,19 +3893,19 @@
         <v>50119</v>
       </c>
       <c r="G73" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H73" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J73" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K73" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -3922,10 +3913,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>8</v>
@@ -3937,19 +3928,19 @@
         <v>50120</v>
       </c>
       <c r="G74" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H74" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J74" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K74" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -3957,10 +3948,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>8</v>
@@ -3972,19 +3963,19 @@
         <v>50121</v>
       </c>
       <c r="G75" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H75" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J75" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K75" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -3992,10 +3983,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>8</v>
@@ -4007,13 +3998,13 @@
         <v>50122</v>
       </c>
       <c r="G76" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -4021,10 +4012,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>8</v>
@@ -4036,13 +4027,13 @@
         <v>50123</v>
       </c>
       <c r="G77" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -4050,10 +4041,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>8</v>
@@ -4065,13 +4056,13 @@
         <v>50124</v>
       </c>
       <c r="G78" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -4079,10 +4070,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>8</v>
@@ -4094,13 +4085,13 @@
         <v>50125</v>
       </c>
       <c r="G79" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -4108,10 +4099,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>8</v>
@@ -4123,13 +4114,13 @@
         <v>50126</v>
       </c>
       <c r="G80" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -4137,10 +4128,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>8</v>
@@ -4152,13 +4143,13 @@
         <v>50127</v>
       </c>
       <c r="G81" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -4166,10 +4157,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>8</v>
@@ -4181,13 +4172,13 @@
         <v>50128</v>
       </c>
       <c r="G82" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -4195,10 +4186,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>8</v>
@@ -4210,13 +4201,13 @@
         <v>50129</v>
       </c>
       <c r="G83" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -4224,10 +4215,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>8</v>
@@ -4239,13 +4230,13 @@
         <v>50130</v>
       </c>
       <c r="G84" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -4253,10 +4244,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>8</v>
@@ -4268,13 +4259,13 @@
         <v>50131</v>
       </c>
       <c r="G85" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -4282,10 +4273,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>8</v>
@@ -4297,13 +4288,13 @@
         <v>50132</v>
       </c>
       <c r="G86" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H86" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -4311,10 +4302,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>8</v>
@@ -4326,13 +4317,13 @@
         <v>50133</v>
       </c>
       <c r="G87" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -4340,10 +4331,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>8</v>
@@ -4355,13 +4346,13 @@
         <v>50134</v>
       </c>
       <c r="G88" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -4369,13 +4360,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>9</v>
@@ -4384,13 +4375,13 @@
         <v>50135</v>
       </c>
       <c r="G89" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -4398,13 +4389,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>9</v>
@@ -4413,13 +4404,13 @@
         <v>50136</v>
       </c>
       <c r="G90" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H90" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -4427,13 +4418,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>9</v>
@@ -4442,13 +4433,13 @@
         <v>50137</v>
       </c>
       <c r="G91" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -4456,28 +4447,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F92" s="1">
         <v>50138</v>
       </c>
       <c r="G92" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -4485,28 +4476,28 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D93" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F93" s="1">
         <v>50139</v>
       </c>
       <c r="G93" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H93" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -4514,28 +4505,28 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F94" s="1">
         <v>50140</v>
       </c>
       <c r="G94" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -4543,28 +4534,28 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F95" s="1">
         <v>50141</v>
       </c>
       <c r="G95" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H95" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -4572,28 +4563,28 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F96" s="1">
         <v>50142</v>
       </c>
       <c r="G96" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H96" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
@@ -4601,28 +4592,28 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F97" s="1">
         <v>50143</v>
       </c>
       <c r="G97" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H97" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -4630,34 +4621,34 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F98" s="1">
         <v>50144</v>
       </c>
       <c r="G98" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H98" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J98" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K98" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
@@ -4665,34 +4656,34 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F99" s="1">
         <v>50145</v>
       </c>
       <c r="G99" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H99" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J99" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K99" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
@@ -4700,34 +4691,34 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F100" s="1">
         <v>50146</v>
       </c>
       <c r="G100" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H100" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="J100" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K100" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t>NO</t>
   </si>
@@ -133,18 +133,18 @@
     <t>Piutang Direksi</t>
   </si>
   <si>
+    <t>ACCOUNT RECEIVABLE OF EMPLOYEE</t>
+  </si>
+  <si>
+    <t>PIUTANG KARYAWAN</t>
+  </si>
+  <si>
+    <t>Piutang Karyawan</t>
+  </si>
+  <si>
     <t>EMPLOYEE</t>
   </si>
   <si>
-    <t>ACCOUNT RECEIVABLE OF EMPLOYEE</t>
-  </si>
-  <si>
-    <t>PIUTANG KARYAWAN</t>
-  </si>
-  <si>
-    <t>Piutang Karyawan</t>
-  </si>
-  <si>
     <t>OTHER ACCOUNT RECEIVABLE</t>
   </si>
   <si>
@@ -193,432 +193,396 @@
     <t>Persediaan Bahan Pembantu</t>
   </si>
   <si>
+    <t>OTHER CURRENT ASSET</t>
+  </si>
+  <si>
+    <t>ASET LANCAR LAINNYA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUPPLIES </t>
   </si>
   <si>
-    <t xml:space="preserve">PERLENGKAPAN </t>
-  </si>
-  <si>
     <t xml:space="preserve">Perlengkapan </t>
   </si>
   <si>
     <t>PREPAID TAX</t>
   </si>
   <si>
-    <t>PAJAK DIBAYAR DIMUKA</t>
-  </si>
-  <si>
     <t>PPh 23 Dibayar Dimuka</t>
   </si>
   <si>
+    <t>PPh 25 Dibayar Dimuka</t>
+  </si>
+  <si>
+    <t>TAX EXPANSE</t>
+  </si>
+  <si>
+    <t>PPh final ps 4 ayat 2</t>
+  </si>
+  <si>
+    <t>PREPAID INSURANCE</t>
+  </si>
+  <si>
+    <t>Asuransi Dibayar Dimuka</t>
+  </si>
+  <si>
+    <t>PREPAID RENT</t>
+  </si>
+  <si>
+    <t>Sewa Dibayar Dimuka</t>
+  </si>
+  <si>
+    <t>PURCHASE DOWN PAYMENT</t>
+  </si>
+  <si>
+    <t>Uang Muka Pembelian</t>
+  </si>
+  <si>
+    <t>SUPPLIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCOME TAX RECEIVABLE </t>
+  </si>
+  <si>
+    <t>PPN MASUKAN</t>
+  </si>
+  <si>
+    <t>PPN Masukan</t>
+  </si>
+  <si>
+    <t>PREPAID INTEREST</t>
+  </si>
+  <si>
+    <t>Bunga Dibayar Dimuka</t>
+  </si>
+  <si>
+    <t>PREPAID ADVERTISING</t>
+  </si>
+  <si>
+    <t>Promosi Dibayar Dimuka</t>
+  </si>
+  <si>
+    <t>OTHER PREPAID</t>
+  </si>
+  <si>
+    <t>Lain-lain Dibayar Dimuka</t>
+  </si>
+  <si>
+    <t>FIXED ASSET</t>
+  </si>
+  <si>
+    <t>ASET TETAP</t>
+  </si>
+  <si>
+    <t>LAND</t>
+  </si>
+  <si>
+    <t>Tanah</t>
+  </si>
+  <si>
+    <t>BUILDING</t>
+  </si>
+  <si>
+    <t>Bangunan</t>
+  </si>
+  <si>
+    <t>FIXED ASSET DEPRECIATION</t>
+  </si>
+  <si>
+    <t>DEPRESIASI ASET TETAP</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECIATION OF BUILDING</t>
+  </si>
+  <si>
+    <t>Akumulasi Penyusutan Bangunan</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>FACTORY MACHINE AND EQUIPMENT</t>
+  </si>
+  <si>
+    <t>Mesin dan Peralatan Pabrik</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECITION OF FACTORY MACHINE AND EQUIPMENT</t>
+  </si>
+  <si>
+    <t>Akumulasi Penyusutan Mesin dan Peralatan Pabrik</t>
+  </si>
+  <si>
+    <t>INSTALLATION</t>
+  </si>
+  <si>
+    <t>Instalasi</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECITION OF INSTALLATION</t>
+  </si>
+  <si>
+    <t>Akumulasi Penyusutan Instalasi</t>
+  </si>
+  <si>
+    <t>FACTORY INVENTORY</t>
+  </si>
+  <si>
+    <t>Inventaris Pabrik</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECITION OF FACTORY INVENTORY</t>
+  </si>
+  <si>
+    <t>Akumulasi Penyusutan Inventaris Pabrik</t>
+  </si>
+  <si>
+    <t>OFFICE INVENTORY</t>
+  </si>
+  <si>
+    <t>Inventaris Kantor</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECITION OF OFFICE INVENTORY</t>
+  </si>
+  <si>
+    <t>Akumulasi Penyusutan Inventaris Kantor</t>
+  </si>
+  <si>
+    <t>SALES INVENTORY</t>
+  </si>
+  <si>
+    <t>Inventaris Penjualan</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECITION OF SALES INVENTORY</t>
+  </si>
+  <si>
+    <t>Akumulasi Penyusutan Inventaris Penjualan</t>
+  </si>
+  <si>
+    <t>FACTORY VEHICLE</t>
+  </si>
+  <si>
+    <t>Kendaraan dan Alat Angkut Pabrik</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECIATION OF FACTORY VEHICLE</t>
+  </si>
+  <si>
+    <t>Akumulasi Penyusutan Kendaraan Pabrik</t>
+  </si>
+  <si>
+    <t>OFFICE VEHICLE</t>
+  </si>
+  <si>
+    <t>Kendaraan Kantor</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECIATION OF OFFICE VEHICLE</t>
+  </si>
+  <si>
+    <t>Akumulasi Penyusutan Kendaraan Kantor</t>
+  </si>
+  <si>
+    <t>SALES VEHICLE</t>
+  </si>
+  <si>
+    <t>Kendaraan Penjualan</t>
+  </si>
+  <si>
+    <t>ACCUMULATED DEPRECIATION OF SALES VEHICLE</t>
+  </si>
+  <si>
+    <t>Akumulasi Penyusutan Kendaraan Penjualan</t>
+  </si>
+  <si>
+    <t>INTANGIBLE FIX ASSETS</t>
+  </si>
+  <si>
+    <t>Aktiva Tak Berwujud</t>
+  </si>
+  <si>
+    <t>ACCUMULATED AMORTIZED OF INTANGBLE FIX ASSETS</t>
+  </si>
+  <si>
+    <t>Akumulasi Amortisasi Aktiva Tak Berwujud</t>
+  </si>
+  <si>
+    <t>NOTE PAYABLE</t>
+  </si>
+  <si>
+    <t>WESEL BAYAR</t>
+  </si>
+  <si>
+    <t>Wesel Bayar</t>
+  </si>
+  <si>
+    <t>ACCOUNT PAYABLE</t>
+  </si>
+  <si>
+    <t>HUTANG USAHA</t>
+  </si>
+  <si>
+    <t>Hutang Dagang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER ACCOUNT PAYABLE </t>
+  </si>
+  <si>
+    <t>HUTANG EKSPEDISI</t>
+  </si>
+  <si>
+    <t>ACCOUNT PAYABLE EXPEDITION</t>
+  </si>
+  <si>
+    <t>Hutang Ekspedisi</t>
+  </si>
+  <si>
+    <t>EXPEDITION</t>
+  </si>
+  <si>
+    <t>HUTANG BANK</t>
+  </si>
+  <si>
+    <t>BANK PAYABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hutang Bank </t>
+  </si>
+  <si>
+    <t>HUTANG DIREKSI</t>
+  </si>
+  <si>
+    <t>ACCOUNT PAYABLE OF MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Hutang Direksi</t>
+  </si>
+  <si>
+    <t>HUTANG AKTIVA TETAP</t>
+  </si>
+  <si>
+    <t>ACCOUNT PAYABLE OF FIXED ASSETS</t>
+  </si>
+  <si>
+    <t>Hutang Pembelian Aktiva</t>
+  </si>
+  <si>
+    <t>Hutang Pihak ke III</t>
+  </si>
+  <si>
+    <t>HUTANG PROFIT</t>
+  </si>
+  <si>
+    <t>PROFIT PAYABLE</t>
+  </si>
+  <si>
+    <t>Hutang Profit</t>
+  </si>
+  <si>
+    <t>Hutang Management Fee</t>
+  </si>
+  <si>
+    <t>HUTANG LAINNYA</t>
+  </si>
+  <si>
+    <t>Hutang Lain-lain</t>
+  </si>
+  <si>
+    <t>WAGES AND SALARY PAYABLE</t>
+  </si>
+  <si>
+    <t>Gaji YMH Dibayar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ELECTRICITY AND WATER PAYABLE</t>
+  </si>
+  <si>
+    <t>Listrik, Air &amp; Telpon YMH Dibayar</t>
+  </si>
+  <si>
+    <t>INSURANCE PAYABLE</t>
+  </si>
+  <si>
+    <t>Asuransi YMH Dibayar</t>
+  </si>
+  <si>
+    <t>THR YMH Dibayar</t>
+  </si>
+  <si>
+    <t>Komisi yang Masih Harus Dibayar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCOME TAX PAYABLE </t>
+  </si>
+  <si>
+    <t>PPN KELUARAN</t>
+  </si>
+  <si>
+    <t>PPN Keluaran</t>
+  </si>
+  <si>
+    <t>ALLOWANCE BAD DEBT</t>
+  </si>
+  <si>
+    <t>Cadangan Bad Debt</t>
+  </si>
+  <si>
+    <t>ALLOWANCE TAX</t>
+  </si>
+  <si>
+    <t>Cadangan Pemeriksaan Pajak</t>
+  </si>
+  <si>
+    <t>POIN PAYABLE</t>
+  </si>
+  <si>
+    <t>Poin Yang Masih Harus Dibayar</t>
+  </si>
+  <si>
+    <t>RENT PAYABLE</t>
+  </si>
+  <si>
+    <t>Sewa Yang Masih Harus Dibayar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLOWANCE VACHILE </t>
+  </si>
+  <si>
+    <t>Cadangan Biaya Truk</t>
+  </si>
+  <si>
+    <t>INCOME TAX PAYABLE</t>
+  </si>
+  <si>
+    <t>PPh 23 YMH Dibayar</t>
+  </si>
+  <si>
+    <t>OTHER PAYABLE</t>
+  </si>
+  <si>
+    <t>Lain-lain YMH Dibayar</t>
+  </si>
+  <si>
+    <t>SALES DOWN PAYMENT</t>
+  </si>
+  <si>
+    <t>UANG MUKA PENJUALAN</t>
+  </si>
+  <si>
+    <t>Uang Muka Penjualan</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRUE </t>
   </si>
   <si>
-    <t>CUSTOMER /SUPPLIER /EMPLOYEE</t>
-  </si>
-  <si>
-    <t>PPh 25 Dibayar Dimuka</t>
-  </si>
-  <si>
-    <t>TAX EXPENSE</t>
-  </si>
-  <si>
-    <t>BEBAN PAJAK</t>
-  </si>
-  <si>
-    <t>TAX EXPANSE</t>
-  </si>
-  <si>
-    <t>PPh final ps 4 ayat 2</t>
-  </si>
-  <si>
-    <t>CUSTOMER /SUPPLIER/EMPLOYEE</t>
-  </si>
-  <si>
-    <t>OTHER CURRENT ASSET</t>
-  </si>
-  <si>
-    <t>ASET LANCAR LAINNYA</t>
-  </si>
-  <si>
-    <t>PREPAID INSURANCE</t>
-  </si>
-  <si>
-    <t>Asuransi Dibayar Dimuka</t>
-  </si>
-  <si>
-    <t>PREPAID RENT</t>
-  </si>
-  <si>
-    <t>Sewa Dibayar Dimuka</t>
-  </si>
-  <si>
-    <t>PURCHASE DOWN PAYMENT</t>
-  </si>
-  <si>
-    <t>Uang Muka Pembelian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPPLIER/EXPEDITION </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCOME TAX RECEIVABLE </t>
-  </si>
-  <si>
-    <t>PPN MASUKAN</t>
-  </si>
-  <si>
-    <t>VAT IN</t>
-  </si>
-  <si>
-    <t>PPN Masukan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPPLIER </t>
-  </si>
-  <si>
-    <t>PREPAID INTEREST</t>
-  </si>
-  <si>
-    <t>Bunga Dibayar Dimuka</t>
-  </si>
-  <si>
-    <t>PREPAID ADVERTISING</t>
-  </si>
-  <si>
-    <t>Promosi Dibayar Dimuka</t>
-  </si>
-  <si>
-    <t>OTHER PREPAID</t>
-  </si>
-  <si>
-    <t>Lain-lain Dibayar Dimuka</t>
-  </si>
-  <si>
-    <t>FIXED ASSET</t>
-  </si>
-  <si>
-    <t>ASET TETAP</t>
-  </si>
-  <si>
-    <t>LAND</t>
-  </si>
-  <si>
-    <t>Tanah</t>
-  </si>
-  <si>
-    <t>BUILDING</t>
-  </si>
-  <si>
-    <t>Bangunan</t>
-  </si>
-  <si>
-    <t>FIXED ASSET DEPRECIATION</t>
-  </si>
-  <si>
-    <t>DEPRESIASI ASET TETAP</t>
-  </si>
-  <si>
-    <t>ACCUMULATED DEPRECIATION OF BUILDING</t>
-  </si>
-  <si>
-    <t>Akumulasi Penyusutan Bangunan</t>
-  </si>
-  <si>
-    <t>CREDIT</t>
-  </si>
-  <si>
-    <t>FACTORY MACHINE AND EQUIPMENT</t>
-  </si>
-  <si>
-    <t>Mesin dan Peralatan Pabrik</t>
-  </si>
-  <si>
-    <t>ACCUMULATED DEPRECITION OF FACTORY MACHINE AND EQUIPMENT</t>
-  </si>
-  <si>
-    <t>Akumulasi Penyusutan Mesin dan Peralatan Pabrik</t>
-  </si>
-  <si>
-    <t>INSTALLATION</t>
-  </si>
-  <si>
-    <t>Instalasi</t>
-  </si>
-  <si>
-    <t>ACCUMULATED DEPRECITION OF INSTALLATION</t>
-  </si>
-  <si>
-    <t>Akumulasi Penyusutan Instalasi</t>
-  </si>
-  <si>
-    <t>FACTORY INVENTORY</t>
-  </si>
-  <si>
-    <t>Inventaris Pabrik</t>
-  </si>
-  <si>
-    <t>ACCUMULATED DEPRECITION OF FACTORY INVENTORY</t>
-  </si>
-  <si>
-    <t>Akumulasi Penyusutan Inventaris Pabrik</t>
-  </si>
-  <si>
-    <t>OFFICE INVENTORY</t>
-  </si>
-  <si>
-    <t>Inventaris Kantor</t>
-  </si>
-  <si>
-    <t>ACCUMULATED DEPRECITION OF OFFICE INVENTORY</t>
-  </si>
-  <si>
-    <t>Akumulasi Penyusutan Inventaris Kantor</t>
-  </si>
-  <si>
-    <t>SALES INVENTORY</t>
-  </si>
-  <si>
-    <t>Inventaris Penjualan</t>
-  </si>
-  <si>
-    <t>ACCUMULATED DEPRECITION OF SALES INVENTORY</t>
-  </si>
-  <si>
-    <t>Akumulasi Penyusutan Inventaris Penjualan</t>
-  </si>
-  <si>
-    <t>FACTORY VEHICLE</t>
-  </si>
-  <si>
-    <t>Kendaraan dan Alat Angkut Pabrik</t>
-  </si>
-  <si>
-    <t>ACCUMULATED DEPRECIATION OF FACTORY VEHICLE</t>
-  </si>
-  <si>
-    <t>Akumulasi Penyusutan Kendaraan Pabrik</t>
-  </si>
-  <si>
-    <t>OFFICE VEHICLE</t>
-  </si>
-  <si>
-    <t>Kendaraan Kantor</t>
-  </si>
-  <si>
-    <t>ACCUMULATED DEPRECIATION OF OFFICE VEHICLE</t>
-  </si>
-  <si>
-    <t>Akumulasi Penyusutan Kendaraan Kantor</t>
-  </si>
-  <si>
-    <t>SALES VEHICLE</t>
-  </si>
-  <si>
-    <t>Kendaraan Penjualan</t>
-  </si>
-  <si>
-    <t>ACCUMULATED DEPRECIATION OF SALES VEHICLE</t>
-  </si>
-  <si>
-    <t>Akumulasi Penyusutan Kendaraan Penjualan</t>
-  </si>
-  <si>
-    <t>INTANGIBLE FIX ASSETS</t>
-  </si>
-  <si>
-    <t>Aktiva Tak Berwujud</t>
-  </si>
-  <si>
-    <t>ACCUMULATED AMORTIZED OF INTANGBLE FIX ASSETS</t>
-  </si>
-  <si>
-    <t>Akumulasi Amortisasi Aktiva Tak Berwujud</t>
-  </si>
-  <si>
-    <t>NOTE PAYABLE</t>
-  </si>
-  <si>
-    <t>WESEL BAYAR</t>
-  </si>
-  <si>
-    <t>Wesel Bayar</t>
-  </si>
-  <si>
-    <t>SUPPLIER</t>
-  </si>
-  <si>
-    <t>ACCOUNT PAYABLE</t>
-  </si>
-  <si>
-    <t>HUTANG USAHA</t>
-  </si>
-  <si>
-    <t>Hutang Dagang</t>
-  </si>
-  <si>
-    <t>ACCOUNT PAYABLE EXPEDITION</t>
-  </si>
-  <si>
-    <t>HUTANG EKSPEDISI</t>
-  </si>
-  <si>
-    <t>Hutang Ekspedisi</t>
-  </si>
-  <si>
-    <t>EXPEDITION</t>
-  </si>
-  <si>
-    <t>BANK PAYABLE</t>
-  </si>
-  <si>
-    <t>HUTANG BANK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hutang Bank </t>
-  </si>
-  <si>
-    <t>ACCOUNT PAYABLE OF MANAGEMENT</t>
-  </si>
-  <si>
-    <t>HUTANG DIREKSI</t>
-  </si>
-  <si>
-    <t>Hutang Direksi</t>
-  </si>
-  <si>
-    <t>ACCOUNT PAYABLE OF FIXED ASSETS</t>
-  </si>
-  <si>
-    <t>HUTANG AKTIVA TETAP</t>
-  </si>
-  <si>
-    <t>Hutang Pembelian Aktiva</t>
-  </si>
-  <si>
-    <t>Hutang Pihak ke III</t>
-  </si>
-  <si>
-    <t>PROFIT PAYABLE</t>
-  </si>
-  <si>
-    <t>HUTANG PROFIT</t>
-  </si>
-  <si>
-    <t>Hutang Profit</t>
-  </si>
-  <si>
-    <t>Hutang Management Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTHER ACCOUNT PAYABLE </t>
-  </si>
-  <si>
-    <t>HUTANG LAINNYA</t>
-  </si>
-  <si>
-    <t>Hutang Lain-lain</t>
-  </si>
-  <si>
-    <t>WAGES AND SALARY PAYABLE</t>
-  </si>
-  <si>
-    <t>Gaji YMH Dibayar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELECTRICITY AND WATER PAYABLE</t>
-  </si>
-  <si>
-    <t>Listrik, Air &amp; Telpon YMH Dibayar</t>
-  </si>
-  <si>
-    <t>INSURANCE PAYABLE</t>
-  </si>
-  <si>
-    <t>Asuransi YMH Dibayar</t>
-  </si>
-  <si>
-    <t>THR YMH Dibayar</t>
-  </si>
-  <si>
-    <t>Komisi yang Masih Harus Dibayar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCOME TAX PAYABLE </t>
-  </si>
-  <si>
-    <t>PPN KELUARAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAT OUT TAX </t>
-  </si>
-  <si>
-    <t>PPN Keluaran</t>
-  </si>
-  <si>
     <t xml:space="preserve">CUSTOMER </t>
   </si>
   <si>
-    <t>ALLOWANCE BAD DEBT</t>
-  </si>
-  <si>
-    <t>Cadangan Bad Debt</t>
-  </si>
-  <si>
-    <t>ALLOWANCE TAX</t>
-  </si>
-  <si>
-    <t>Cadangan Pemeriksaan Pajak</t>
-  </si>
-  <si>
-    <t>POIN PAYABLE</t>
-  </si>
-  <si>
-    <t>Poin Yang Masih Harus Dibayar</t>
-  </si>
-  <si>
-    <t>RENT PAYABLE</t>
-  </si>
-  <si>
-    <t>Sewa Yang Masih Harus Dibayar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALLOWANCE VACHILE </t>
-  </si>
-  <si>
-    <t>Cadangan Biaya Truk</t>
-  </si>
-  <si>
-    <t>INCOME TAX PAYABLE</t>
-  </si>
-  <si>
-    <t>PPh 23 YMH Dibayar</t>
-  </si>
-  <si>
-    <t>EMPLOYEE/CUSTOMER/SUPPLIER</t>
-  </si>
-  <si>
-    <t>OTHER PAYABLE</t>
-  </si>
-  <si>
-    <t>Lain-lain YMH Dibayar</t>
-  </si>
-  <si>
-    <t>SALES DOWN PAYMENT</t>
-  </si>
-  <si>
-    <t>UANG MUKA PENJUALAN</t>
-  </si>
-  <si>
-    <t>Uang Muka Penjualan</t>
-  </si>
-  <si>
     <t>Hutang kepada pihak ketiga</t>
   </si>
   <si>
-    <t xml:space="preserve">EMPLOYEE </t>
-  </si>
-  <si>
     <t>OWNER EQUITY</t>
   </si>
   <si>
@@ -694,6 +658,12 @@
     <t>Potongan Penjualan</t>
   </si>
   <si>
+    <t xml:space="preserve">SALES RETURN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retur Penjualan </t>
+  </si>
+  <si>
     <t>OTHER INCOME</t>
   </si>
   <si>
@@ -725,6 +695,9 @@
   </si>
   <si>
     <t>Beban Pokok Penjualan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beban Selisih Persediaan </t>
   </si>
   <si>
     <t>FACTORY EXPENSE</t>
@@ -1207,7 +1180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1216,11 +1189,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left>
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="9"/>
       </right>
-      <top/>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
@@ -1233,7 +1210,9 @@
       <right style="thin">
         <color indexed="9"/>
       </right>
-      <top/>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
@@ -1246,7 +1225,9 @@
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
@@ -1259,7 +1240,9 @@
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1272,7 +1255,9 @@
       <right style="thin">
         <color indexed="9"/>
       </right>
-      <top/>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
@@ -1285,7 +1270,9 @@
       <right style="thin">
         <color indexed="9"/>
       </right>
-      <top/>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -1295,15 +1282,21 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right/>
-      <top/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
       <bottom style="thin">
         <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left>
+        <color indexed="8"/>
+      </left>
       <right style="thin">
         <color indexed="9"/>
       </right>
@@ -1394,7 +1387,9 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right/>
+      <right>
+        <color indexed="8"/>
+      </right>
       <top style="thin">
         <color indexed="9"/>
       </top>
@@ -1459,7 +1454,9 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right/>
+      <right>
+        <color indexed="8"/>
+      </right>
       <top style="thin">
         <color indexed="9"/>
       </top>
@@ -1467,7 +1464,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left>
+        <color indexed="8"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="9"/>
@@ -1514,10 +1513,71 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right>
         <color indexed="8"/>
       </right>
       <top/>
@@ -1543,7 +1603,78 @@
       <top style="thin">
         <color indexed="9"/>
       </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1556,7 +1687,54 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1565,7 +1743,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1701,58 +1879,76 @@
     <xf numFmtId="0" fontId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="3" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1767,16 +1963,37 @@
     <xf numFmtId="49" fontId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2858,7 +3075,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z167"/>
+  <dimension ref="A1:Z169"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3397,23 +3614,19 @@
       <c r="J12" s="44"/>
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
-      <c r="M12" t="b" s="45">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s" s="46">
-        <v>40</v>
-      </c>
+      <c r="M12" s="40"/>
+      <c r="N12" s="45"/>
       <c r="O12" s="40"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
       <c r="Z12" s="47"/>
     </row>
     <row r="13" ht="15.95" customHeight="1">
@@ -3421,10 +3634,10 @@
         <v>23</v>
       </c>
       <c r="B13" t="s" s="38">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s" s="39">
         <v>41</v>
-      </c>
-      <c r="C13" t="s" s="39">
-        <v>42</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="41"/>
@@ -3432,10 +3645,10 @@
         <v>11502</v>
       </c>
       <c r="G13" t="s" s="42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="17">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s" s="43">
         <v>18</v>
@@ -3443,66 +3656,66 @@
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
-      <c r="M13" t="b" s="45">
+      <c r="M13" t="b" s="48">
         <v>1</v>
       </c>
-      <c r="N13" t="s" s="46">
-        <v>40</v>
-      </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
+      <c r="N13" t="s" s="45">
+        <v>43</v>
+      </c>
+      <c r="O13" s="49"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
       <c r="Z13" s="47"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="11">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="8">
+      <c r="B14" t="s" s="50">
         <v>44</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" t="s" s="50">
         <v>45</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="49"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="15">
         <v>11599</v>
       </c>
-      <c r="G14" t="s" s="50">
+      <c r="G14" t="s" s="53">
         <v>44</v>
       </c>
       <c r="H14" t="s" s="17">
         <v>46</v>
       </c>
-      <c r="I14" t="s" s="51">
-        <v>18</v>
-      </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="53"/>
-      <c r="Z14" s="54"/>
+      <c r="I14" t="s" s="54">
+        <v>18</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="57"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="11">
@@ -3537,7 +3750,7 @@
       <c r="N15" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="O15" t="b" s="55">
+      <c r="O15" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P15" s="20"/>
@@ -3585,7 +3798,7 @@
       <c r="N16" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="O16" t="b" s="55">
+      <c r="O16" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P16" s="20"/>
@@ -3633,7 +3846,9 @@
       <c r="N17" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="O17" s="20"/>
+      <c r="O17" t="b" s="58">
+        <v>1</v>
+      </c>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
@@ -3679,7 +3894,7 @@
       <c r="N18" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="O18" t="b" s="55">
+      <c r="O18" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P18" s="20"/>
@@ -3727,7 +3942,9 @@
       <c r="N19" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="O19" s="20"/>
+      <c r="O19" t="b" s="58">
+        <v>1</v>
+      </c>
       <c r="P19" s="20"/>
       <c r="Q19" s="20"/>
       <c r="R19" s="20"/>
@@ -3744,10 +3961,10 @@
       <c r="A20" s="11">
         <v>37</v>
       </c>
-      <c r="B20" t="s" s="26">
+      <c r="B20" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="C20" t="s" s="26">
+      <c r="C20" t="s" s="12">
         <v>61</v>
       </c>
       <c r="D20" s="27"/>
@@ -3756,10 +3973,10 @@
         <v>11699</v>
       </c>
       <c r="G20" t="s" s="29">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s" s="17">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" t="s" s="30">
         <v>18</v>
@@ -3783,22 +4000,22 @@
       <c r="Z20" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="37">
+      <c r="A21" s="11">
         <v>39</v>
       </c>
-      <c r="B21" t="s" s="39">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s" s="39">
-        <v>64</v>
-      </c>
-      <c r="D21" s="40"/>
+      <c r="B21" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="D21" s="59"/>
       <c r="E21" s="41"/>
       <c r="F21" s="15">
         <v>11701</v>
       </c>
       <c r="G21" t="s" s="42">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s" s="17">
         <v>65</v>
@@ -3809,14 +4026,10 @@
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
-      <c r="M21" t="s" s="46">
-        <v>66</v>
-      </c>
-      <c r="N21" t="s" s="46">
-        <v>67</v>
-      </c>
-      <c r="O21" s="47"/>
-      <c r="P21" s="56"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="60"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
@@ -3829,25 +4042,25 @@
       <c r="Z21" s="21"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="37">
+      <c r="A22" s="11">
         <v>41</v>
       </c>
-      <c r="B22" t="s" s="39">
-        <v>63</v>
-      </c>
-      <c r="C22" t="s" s="39">
-        <v>64</v>
-      </c>
-      <c r="D22" s="40"/>
+      <c r="B22" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="D22" s="59"/>
       <c r="E22" s="41"/>
       <c r="F22" s="15">
         <v>11702</v>
       </c>
       <c r="G22" t="s" s="42">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s" s="17">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I22" t="s" s="43">
         <v>18</v>
@@ -3855,14 +4068,10 @@
       <c r="J22" s="44"/>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
-      <c r="M22" t="s" s="46">
-        <v>66</v>
-      </c>
-      <c r="N22" t="s" s="46">
-        <v>67</v>
-      </c>
-      <c r="O22" s="47"/>
-      <c r="P22" s="56"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="60"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
@@ -3875,25 +4084,25 @@
       <c r="Z22" s="21"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="37">
+      <c r="A23" s="11">
         <v>43</v>
       </c>
-      <c r="B23" t="s" s="39">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s" s="39">
-        <v>70</v>
-      </c>
-      <c r="D23" s="40"/>
+      <c r="B23" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="D23" s="59"/>
       <c r="E23" s="41"/>
       <c r="F23" s="15">
         <v>11703</v>
       </c>
       <c r="G23" t="s" s="42">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s" s="17">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I23" t="s" s="43">
         <v>18</v>
@@ -3901,14 +4110,10 @@
       <c r="J23" s="44"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
-      <c r="M23" t="s" s="46">
-        <v>66</v>
-      </c>
-      <c r="N23" t="s" s="46">
-        <v>73</v>
-      </c>
-      <c r="O23" s="47"/>
-      <c r="P23" s="56"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="60"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="20"/>
       <c r="S23" s="20"/>
@@ -3924,32 +4129,32 @@
       <c r="A24" s="11">
         <v>45</v>
       </c>
-      <c r="B24" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s" s="8">
-        <v>75</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="49"/>
+      <c r="B24" t="s" s="12">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s" s="12">
+        <v>61</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="15">
         <v>11704</v>
       </c>
-      <c r="G24" t="s" s="57">
-        <v>76</v>
+      <c r="G24" t="s" s="61">
+        <v>69</v>
       </c>
       <c r="H24" t="s" s="17">
-        <v>77</v>
-      </c>
-      <c r="I24" t="s" s="51">
-        <v>18</v>
-      </c>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="53"/>
+        <v>70</v>
+      </c>
+      <c r="I24" t="s" s="54">
+        <v>18</v>
+      </c>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="56"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
@@ -3967,10 +4172,10 @@
         <v>47</v>
       </c>
       <c r="B25" t="s" s="12">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s" s="12">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
@@ -3978,10 +4183,10 @@
         <v>11705</v>
       </c>
       <c r="G25" t="s" s="16">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s" s="17">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s" s="18">
         <v>18</v>
@@ -4009,21 +4214,21 @@
         <v>49</v>
       </c>
       <c r="B26" t="s" s="12">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s" s="26">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D26" s="27"/>
       <c r="E26" s="28"/>
       <c r="F26" s="15">
         <v>11706</v>
       </c>
-      <c r="G26" t="s" s="29">
-        <v>80</v>
+      <c r="G26" t="s" s="16">
+        <v>73</v>
       </c>
       <c r="H26" t="s" s="17">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="30">
         <v>18</v>
@@ -4035,9 +4240,9 @@
         <v>1</v>
       </c>
       <c r="N26" t="s" s="33">
-        <v>82</v>
-      </c>
-      <c r="O26" t="b" s="34">
+        <v>75</v>
+      </c>
+      <c r="O26" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P26" s="35"/>
@@ -4057,21 +4262,21 @@
         <v>51</v>
       </c>
       <c r="B27" t="s" s="26">
-        <v>83</v>
-      </c>
-      <c r="C27" t="s" s="58">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="C27" t="s" s="62">
+        <v>77</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="15">
+      <c r="F27" s="63">
         <v>11707</v>
       </c>
-      <c r="G27" t="s" s="59">
-        <v>85</v>
+      <c r="G27" t="s" s="64">
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="17">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="43">
         <v>18</v>
@@ -4079,76 +4284,74 @@
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
-      <c r="M27" t="s" s="46">
-        <v>66</v>
-      </c>
-      <c r="N27" t="s" s="46">
-        <v>87</v>
-      </c>
-      <c r="O27" s="48"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="65"/>
+      <c r="O27" t="b" s="34">
+        <v>1</v>
+      </c>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="46"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
       <c r="Z27" s="47"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="11">
         <v>53</v>
       </c>
-      <c r="B28" t="s" s="8">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s" s="8">
-        <v>75</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="49"/>
+      <c r="B28" t="s" s="50">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s" s="50">
+        <v>61</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
       <c r="F28" s="15">
         <v>11708</v>
       </c>
-      <c r="G28" t="s" s="57">
-        <v>88</v>
+      <c r="G28" t="s" s="61">
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="17">
-        <v>89</v>
-      </c>
-      <c r="I28" t="s" s="51">
-        <v>18</v>
-      </c>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="53"/>
-      <c r="Z28" s="54"/>
+        <v>80</v>
+      </c>
+      <c r="I28" t="s" s="54">
+        <v>18</v>
+      </c>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="57"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="11">
         <v>55</v>
       </c>
       <c r="B29" t="s" s="12">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s" s="12">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
@@ -4156,10 +4359,10 @@
         <v>11709</v>
       </c>
       <c r="G29" t="s" s="16">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="17">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="18">
         <v>18</v>
@@ -4187,10 +4390,10 @@
         <v>57</v>
       </c>
       <c r="B30" t="s" s="12">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s" s="12">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
@@ -4198,10 +4401,10 @@
         <v>11799</v>
       </c>
       <c r="G30" t="s" s="16">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="17">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s" s="18">
         <v>18</v>
@@ -4229,10 +4432,10 @@
         <v>59</v>
       </c>
       <c r="B31" t="s" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s" s="12">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
@@ -4240,10 +4443,10 @@
         <v>12101</v>
       </c>
       <c r="G31" t="s" s="16">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="17">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="18">
         <v>18</v>
@@ -4255,9 +4458,9 @@
         <v>1</v>
       </c>
       <c r="N31" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O31" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O31" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P31" s="20"/>
@@ -4277,10 +4480,10 @@
         <v>61</v>
       </c>
       <c r="B32" t="s" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s" s="12">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
@@ -4288,10 +4491,10 @@
         <v>12201</v>
       </c>
       <c r="G32" t="s" s="16">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="17">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s" s="18">
         <v>18</v>
@@ -4303,9 +4506,9 @@
         <v>1</v>
       </c>
       <c r="N32" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O32" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O32" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P32" s="20"/>
@@ -4325,10 +4528,10 @@
         <v>63</v>
       </c>
       <c r="B33" t="s" s="12">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s" s="12">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="14"/>
@@ -4336,13 +4539,13 @@
         <v>12202</v>
       </c>
       <c r="G33" t="s" s="16">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="17">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
@@ -4351,9 +4554,9 @@
         <v>1</v>
       </c>
       <c r="N33" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O33" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O33" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P33" s="20"/>
@@ -4373,10 +4576,10 @@
         <v>65</v>
       </c>
       <c r="B34" t="s" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s" s="12">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="14"/>
@@ -4384,10 +4587,10 @@
         <v>12301</v>
       </c>
       <c r="G34" t="s" s="16">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H34" t="s" s="17">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s" s="18">
         <v>18</v>
@@ -4399,9 +4602,9 @@
         <v>1</v>
       </c>
       <c r="N34" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O34" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O34" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P34" s="20"/>
@@ -4421,10 +4624,10 @@
         <v>67</v>
       </c>
       <c r="B35" t="s" s="12">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s" s="12">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="14"/>
@@ -4432,13 +4635,13 @@
         <v>12302</v>
       </c>
       <c r="G35" t="s" s="16">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H35" t="s" s="17">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I35" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
@@ -4447,9 +4650,9 @@
         <v>1</v>
       </c>
       <c r="N35" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O35" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O35" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P35" s="20"/>
@@ -4469,10 +4672,10 @@
         <v>69</v>
       </c>
       <c r="B36" t="s" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s" s="12">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="14"/>
@@ -4480,10 +4683,10 @@
         <v>12401</v>
       </c>
       <c r="G36" t="s" s="16">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="H36" t="s" s="17">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="I36" t="s" s="18">
         <v>18</v>
@@ -4495,9 +4698,9 @@
         <v>1</v>
       </c>
       <c r="N36" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O36" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O36" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P36" s="20"/>
@@ -4517,10 +4720,10 @@
         <v>71</v>
       </c>
       <c r="B37" t="s" s="12">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s" s="12">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
@@ -4528,13 +4731,13 @@
         <v>12402</v>
       </c>
       <c r="G37" t="s" s="16">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H37" t="s" s="17">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I37" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
@@ -4543,9 +4746,9 @@
         <v>1</v>
       </c>
       <c r="N37" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O37" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O37" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P37" s="20"/>
@@ -4565,10 +4768,10 @@
         <v>73</v>
       </c>
       <c r="B38" t="s" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s" s="12">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="14"/>
@@ -4576,10 +4779,10 @@
         <v>12501</v>
       </c>
       <c r="G38" t="s" s="16">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H38" t="s" s="17">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I38" t="s" s="18">
         <v>18</v>
@@ -4591,9 +4794,9 @@
         <v>1</v>
       </c>
       <c r="N38" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O38" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O38" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P38" s="20"/>
@@ -4613,10 +4816,10 @@
         <v>75</v>
       </c>
       <c r="B39" t="s" s="12">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s" s="12">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
@@ -4624,13 +4827,13 @@
         <v>12502</v>
       </c>
       <c r="G39" t="s" s="16">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H39" t="s" s="17">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I39" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
@@ -4639,9 +4842,9 @@
         <v>1</v>
       </c>
       <c r="N39" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O39" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O39" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P39" s="20"/>
@@ -4661,10 +4864,10 @@
         <v>77</v>
       </c>
       <c r="B40" t="s" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s" s="12">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="14"/>
@@ -4672,10 +4875,10 @@
         <v>12601</v>
       </c>
       <c r="G40" t="s" s="16">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H40" t="s" s="17">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I40" t="s" s="18">
         <v>18</v>
@@ -4687,9 +4890,9 @@
         <v>1</v>
       </c>
       <c r="N40" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O40" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O40" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P40" s="20"/>
@@ -4709,10 +4912,10 @@
         <v>79</v>
       </c>
       <c r="B41" t="s" s="12">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s" s="12">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
@@ -4720,13 +4923,13 @@
         <v>12602</v>
       </c>
       <c r="G41" t="s" s="16">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H41" t="s" s="17">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I41" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
@@ -4735,9 +4938,9 @@
         <v>1</v>
       </c>
       <c r="N41" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O41" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O41" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P41" s="20"/>
@@ -4757,10 +4960,10 @@
         <v>81</v>
       </c>
       <c r="B42" t="s" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s" s="12">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="14"/>
@@ -4768,10 +4971,10 @@
         <v>12701</v>
       </c>
       <c r="G42" t="s" s="16">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H42" t="s" s="17">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I42" t="s" s="18">
         <v>18</v>
@@ -4783,9 +4986,9 @@
         <v>1</v>
       </c>
       <c r="N42" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O42" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O42" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P42" s="20"/>
@@ -4805,10 +5008,10 @@
         <v>83</v>
       </c>
       <c r="B43" t="s" s="12">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s" s="12">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="14"/>
@@ -4816,13 +5019,13 @@
         <v>12702</v>
       </c>
       <c r="G43" t="s" s="16">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H43" t="s" s="17">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I43" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J43" s="19"/>
       <c r="K43" s="19"/>
@@ -4831,9 +5034,9 @@
         <v>1</v>
       </c>
       <c r="N43" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O43" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O43" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P43" s="20"/>
@@ -4853,10 +5056,10 @@
         <v>85</v>
       </c>
       <c r="B44" t="s" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s" s="12">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="14"/>
@@ -4864,10 +5067,10 @@
         <v>12801</v>
       </c>
       <c r="G44" t="s" s="16">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H44" t="s" s="17">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I44" t="s" s="18">
         <v>18</v>
@@ -4879,9 +5082,9 @@
         <v>1</v>
       </c>
       <c r="N44" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O44" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O44" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P44" s="20"/>
@@ -4901,10 +5104,10 @@
         <v>87</v>
       </c>
       <c r="B45" t="s" s="12">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s" s="12">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="14"/>
@@ -4912,13 +5115,13 @@
         <v>12802</v>
       </c>
       <c r="G45" t="s" s="16">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H45" t="s" s="17">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I45" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J45" s="19"/>
       <c r="K45" s="19"/>
@@ -4927,9 +5130,9 @@
         <v>1</v>
       </c>
       <c r="N45" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O45" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O45" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P45" s="20"/>
@@ -4949,10 +5152,10 @@
         <v>89</v>
       </c>
       <c r="B46" t="s" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s" s="12">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="14"/>
@@ -4960,10 +5163,10 @@
         <v>12901</v>
       </c>
       <c r="G46" t="s" s="16">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H46" t="s" s="17">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I46" t="s" s="18">
         <v>18</v>
@@ -4975,9 +5178,9 @@
         <v>1</v>
       </c>
       <c r="N46" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O46" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O46" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P46" s="20"/>
@@ -4997,10 +5200,10 @@
         <v>91</v>
       </c>
       <c r="B47" t="s" s="12">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s" s="12">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="14"/>
@@ -5008,13 +5211,13 @@
         <v>12902</v>
       </c>
       <c r="G47" t="s" s="16">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H47" t="s" s="17">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="I47" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
@@ -5023,9 +5226,9 @@
         <v>1</v>
       </c>
       <c r="N47" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O47" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O47" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P47" s="20"/>
@@ -5045,10 +5248,10 @@
         <v>93</v>
       </c>
       <c r="B48" t="s" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s" s="12">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="14"/>
@@ -5056,10 +5259,10 @@
         <v>13001</v>
       </c>
       <c r="G48" t="s" s="16">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H48" t="s" s="17">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I48" t="s" s="18">
         <v>18</v>
@@ -5071,9 +5274,9 @@
         <v>1</v>
       </c>
       <c r="N48" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O48" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O48" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P48" s="20"/>
@@ -5093,10 +5296,10 @@
         <v>95</v>
       </c>
       <c r="B49" t="s" s="12">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s" s="12">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="14"/>
@@ -5104,13 +5307,13 @@
         <v>13002</v>
       </c>
       <c r="G49" t="s" s="16">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H49" t="s" s="17">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I49" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
@@ -5119,9 +5322,9 @@
         <v>1</v>
       </c>
       <c r="N49" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O49" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O49" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P49" s="20"/>
@@ -5141,10 +5344,10 @@
         <v>97</v>
       </c>
       <c r="B50" t="s" s="12">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s" s="12">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="14"/>
@@ -5152,10 +5355,10 @@
         <v>13101</v>
       </c>
       <c r="G50" t="s" s="16">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H50" t="s" s="17">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="I50" t="s" s="18">
         <v>18</v>
@@ -5167,9 +5370,9 @@
         <v>1</v>
       </c>
       <c r="N50" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O50" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O50" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P50" s="20"/>
@@ -5189,10 +5392,10 @@
         <v>99</v>
       </c>
       <c r="B51" t="s" s="12">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s" s="12">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="14"/>
@@ -5200,13 +5403,13 @@
         <v>13102</v>
       </c>
       <c r="G51" t="s" s="16">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="H51" t="s" s="17">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I51" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J51" s="19"/>
       <c r="K51" s="19"/>
@@ -5215,9 +5418,9 @@
         <v>1</v>
       </c>
       <c r="N51" t="s" s="24">
-        <v>94</v>
-      </c>
-      <c r="O51" t="b" s="55">
+        <v>85</v>
+      </c>
+      <c r="O51" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P51" s="20"/>
@@ -5237,10 +5440,10 @@
         <v>101</v>
       </c>
       <c r="B52" t="s" s="12">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C52" t="s" s="12">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="14"/>
@@ -5248,13 +5451,13 @@
         <v>21101</v>
       </c>
       <c r="G52" t="s" s="16">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H52" t="s" s="17">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I52" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J52" s="19"/>
       <c r="K52" s="19"/>
@@ -5263,9 +5466,9 @@
         <v>1</v>
       </c>
       <c r="N52" t="s" s="24">
-        <v>144</v>
-      </c>
-      <c r="O52" t="b" s="55">
+        <v>75</v>
+      </c>
+      <c r="O52" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P52" s="20"/>
@@ -5285,10 +5488,10 @@
         <v>103</v>
       </c>
       <c r="B53" t="s" s="12">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C53" t="s" s="12">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="14"/>
@@ -5296,13 +5499,13 @@
         <v>21201</v>
       </c>
       <c r="G53" t="s" s="16">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H53" t="s" s="17">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="I53" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J53" s="19"/>
       <c r="K53" s="19"/>
@@ -5311,9 +5514,9 @@
         <v>1</v>
       </c>
       <c r="N53" t="s" s="24">
-        <v>144</v>
-      </c>
-      <c r="O53" t="b" s="55">
+        <v>75</v>
+      </c>
+      <c r="O53" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P53" s="20"/>
@@ -5332,11 +5535,11 @@
       <c r="A54" s="11">
         <v>105</v>
       </c>
-      <c r="B54" t="s" s="25">
-        <v>148</v>
+      <c r="B54" t="s" s="22">
+        <v>138</v>
       </c>
       <c r="C54" t="s" s="26">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D54" s="27"/>
       <c r="E54" s="28"/>
@@ -5344,13 +5547,13 @@
         <v>21301</v>
       </c>
       <c r="G54" t="s" s="29">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H54" t="s" s="17">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="I54" t="s" s="30">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J54" s="31"/>
       <c r="K54" s="31"/>
@@ -5359,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="N54" t="s" s="33">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="O54" t="b" s="34">
         <v>1</v>
@@ -5377,56 +5580,56 @@
       <c r="Z54" s="36"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="37">
+      <c r="A55" s="11">
         <v>107</v>
       </c>
-      <c r="B55" t="s" s="39">
-        <v>152</v>
-      </c>
-      <c r="C55" t="s" s="39">
-        <v>153</v>
+      <c r="B55" t="s" s="22">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s" s="62">
+        <v>143</v>
       </c>
       <c r="D55" s="40"/>
       <c r="E55" s="41"/>
       <c r="F55" s="15">
         <v>21302</v>
       </c>
-      <c r="G55" t="s" s="59">
-        <v>152</v>
+      <c r="G55" t="s" s="67">
+        <v>144</v>
       </c>
       <c r="H55" t="s" s="17">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I55" t="s" s="43">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J55" s="44"/>
       <c r="K55" s="44"/>
       <c r="L55" s="44"/>
       <c r="M55" s="40"/>
       <c r="N55" s="40"/>
-      <c r="O55" s="47"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="47"/>
-      <c r="Y55" s="47"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="46"/>
       <c r="Z55" s="47"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="37">
+      <c r="A56" s="11">
         <v>109</v>
       </c>
-      <c r="B56" t="s" s="38">
-        <v>155</v>
-      </c>
-      <c r="C56" t="s" s="39">
-        <v>156</v>
+      <c r="B56" t="s" s="22">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s" s="62">
+        <v>146</v>
       </c>
       <c r="D56" s="40"/>
       <c r="E56" s="41"/>
@@ -5434,93 +5637,89 @@
         <v>21401</v>
       </c>
       <c r="G56" t="s" s="42">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H56" t="s" s="17">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I56" t="s" s="43">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J56" s="44"/>
       <c r="K56" s="44"/>
       <c r="L56" s="44"/>
-      <c r="M56" t="b" s="45">
-        <v>1</v>
-      </c>
-      <c r="N56" t="s" s="46">
-        <v>40</v>
-      </c>
-      <c r="O56" s="47"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="47"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="47"/>
-      <c r="T56" s="47"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="47"/>
-      <c r="Y56" s="47"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46"/>
       <c r="Z56" s="47"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="37">
+      <c r="A57" s="11">
         <v>111</v>
       </c>
-      <c r="B57" t="s" s="39">
-        <v>158</v>
-      </c>
-      <c r="C57" t="s" s="39">
-        <v>159</v>
+      <c r="B57" t="s" s="22">
+        <v>138</v>
+      </c>
+      <c r="C57" t="s" s="62">
+        <v>149</v>
       </c>
       <c r="D57" s="40"/>
       <c r="E57" s="41"/>
       <c r="F57" s="15">
         <v>21402</v>
       </c>
-      <c r="G57" t="s" s="59">
-        <v>158</v>
+      <c r="G57" t="s" s="67">
+        <v>150</v>
       </c>
       <c r="H57" t="s" s="17">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="I57" t="s" s="43">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J57" s="44"/>
       <c r="K57" s="44"/>
       <c r="L57" s="44"/>
-      <c r="M57" t="b" s="45">
+      <c r="M57" t="b" s="48">
         <v>1</v>
       </c>
-      <c r="N57" t="s" s="46">
-        <v>144</v>
-      </c>
-      <c r="O57" t="b" s="60">
+      <c r="N57" t="s" s="45">
+        <v>75</v>
+      </c>
+      <c r="O57" t="b" s="68">
         <v>1</v>
       </c>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="47"/>
-      <c r="T57" s="47"/>
-      <c r="U57" s="47"/>
-      <c r="V57" s="47"/>
-      <c r="W57" s="47"/>
-      <c r="X57" s="47"/>
-      <c r="Y57" s="47"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46"/>
+      <c r="Y57" s="46"/>
       <c r="Z57" s="47"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="37">
+      <c r="A58" s="11">
         <v>113</v>
       </c>
-      <c r="B58" t="s" s="38">
-        <v>155</v>
-      </c>
-      <c r="C58" t="s" s="39">
-        <v>156</v>
+      <c r="B58" t="s" s="22">
+        <v>138</v>
+      </c>
+      <c r="C58" t="s" s="62">
+        <v>146</v>
       </c>
       <c r="D58" s="40"/>
       <c r="E58" s="41"/>
@@ -5528,87 +5727,83 @@
         <v>21404</v>
       </c>
       <c r="G58" t="s" s="42">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H58" t="s" s="17">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I58" t="s" s="43">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J58" s="44"/>
       <c r="K58" s="44"/>
       <c r="L58" s="44"/>
-      <c r="M58" t="b" s="45">
-        <v>1</v>
-      </c>
-      <c r="N58" t="s" s="46">
-        <v>40</v>
-      </c>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="47"/>
-      <c r="T58" s="47"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="47"/>
-      <c r="W58" s="47"/>
-      <c r="X58" s="47"/>
-      <c r="Y58" s="47"/>
+      <c r="M58" s="40"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="46"/>
+      <c r="X58" s="46"/>
+      <c r="Y58" s="46"/>
       <c r="Z58" s="47"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="37">
+      <c r="A59" s="11">
         <v>115</v>
       </c>
-      <c r="B59" t="s" s="39">
-        <v>162</v>
-      </c>
-      <c r="C59" t="s" s="39">
-        <v>163</v>
+      <c r="B59" t="s" s="22">
+        <v>138</v>
+      </c>
+      <c r="C59" t="s" s="62">
+        <v>153</v>
       </c>
       <c r="D59" s="40"/>
       <c r="E59" s="41"/>
       <c r="F59" s="15">
         <v>21405</v>
       </c>
-      <c r="G59" t="s" s="59">
-        <v>162</v>
+      <c r="G59" t="s" s="67">
+        <v>154</v>
       </c>
       <c r="H59" t="s" s="17">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I59" t="s" s="43">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J59" s="44"/>
       <c r="K59" s="44"/>
       <c r="L59" s="44"/>
       <c r="M59" s="40"/>
       <c r="N59" s="40"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="47"/>
-      <c r="W59" s="47"/>
-      <c r="X59" s="47"/>
-      <c r="Y59" s="47"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="46"/>
       <c r="Z59" s="47"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="37">
+      <c r="A60" s="11">
         <v>117</v>
       </c>
-      <c r="B60" t="s" s="38">
-        <v>155</v>
-      </c>
-      <c r="C60" t="s" s="39">
-        <v>156</v>
+      <c r="B60" t="s" s="22">
+        <v>138</v>
+      </c>
+      <c r="C60" t="s" s="62">
+        <v>146</v>
       </c>
       <c r="D60" s="40"/>
       <c r="E60" s="41"/>
@@ -5616,83 +5811,83 @@
         <v>21406</v>
       </c>
       <c r="G60" t="s" s="42">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H60" t="s" s="17">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I60" t="s" s="43">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J60" s="44"/>
       <c r="K60" s="44"/>
       <c r="L60" s="44"/>
       <c r="M60" s="40"/>
       <c r="N60" s="40"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="47"/>
-      <c r="V60" s="47"/>
-      <c r="W60" s="47"/>
-      <c r="X60" s="47"/>
-      <c r="Y60" s="47"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
+      <c r="Y60" s="46"/>
       <c r="Z60" s="47"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="11">
         <v>119</v>
       </c>
-      <c r="B61" t="s" s="61">
-        <v>166</v>
-      </c>
-      <c r="C61" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="49"/>
+      <c r="B61" t="s" s="22">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s" s="50">
+        <v>157</v>
+      </c>
+      <c r="D61" s="51"/>
+      <c r="E61" s="52"/>
       <c r="F61" s="15">
         <v>21499</v>
       </c>
-      <c r="G61" t="s" s="57">
-        <v>166</v>
+      <c r="G61" t="s" s="61">
+        <v>138</v>
       </c>
       <c r="H61" t="s" s="17">
-        <v>168</v>
-      </c>
-      <c r="I61" t="s" s="51">
-        <v>104</v>
-      </c>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="53"/>
-      <c r="V61" s="53"/>
-      <c r="W61" s="53"/>
-      <c r="X61" s="53"/>
-      <c r="Y61" s="53"/>
-      <c r="Z61" s="54"/>
+        <v>158</v>
+      </c>
+      <c r="I61" t="s" s="54">
+        <v>95</v>
+      </c>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="56"/>
+      <c r="R61" s="56"/>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
+      <c r="W61" s="56"/>
+      <c r="X61" s="56"/>
+      <c r="Y61" s="56"/>
+      <c r="Z61" s="57"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="11">
         <v>121</v>
       </c>
       <c r="B62" t="s" s="25">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s" s="26">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D62" s="27"/>
       <c r="E62" s="28"/>
@@ -5700,23 +5895,19 @@
         <v>21501</v>
       </c>
       <c r="G62" t="s" s="29">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H62" t="s" s="17">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I62" t="s" s="30">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J62" s="31"/>
       <c r="K62" s="31"/>
       <c r="L62" s="31"/>
-      <c r="M62" t="b" s="32">
-        <v>1</v>
-      </c>
-      <c r="N62" t="s" s="33">
-        <v>40</v>
-      </c>
+      <c r="M62" s="27"/>
+      <c r="N62" s="33"/>
       <c r="O62" s="35"/>
       <c r="P62" s="35"/>
       <c r="Q62" s="35"/>
@@ -5735,10 +5926,10 @@
         <v>123</v>
       </c>
       <c r="B63" t="s" s="39">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s" s="39">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D63" s="40"/>
       <c r="E63" s="41"/>
@@ -5746,30 +5937,30 @@
         <v>21502</v>
       </c>
       <c r="G63" t="s" s="42">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H63" t="s" s="17">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="I63" t="s" s="43">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J63" s="44"/>
       <c r="K63" s="44"/>
       <c r="L63" s="44"/>
       <c r="M63" s="40"/>
       <c r="N63" s="40"/>
-      <c r="O63" s="47"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="47"/>
-      <c r="R63" s="47"/>
-      <c r="S63" s="47"/>
-      <c r="T63" s="47"/>
-      <c r="U63" s="47"/>
-      <c r="V63" s="47"/>
-      <c r="W63" s="47"/>
-      <c r="X63" s="47"/>
-      <c r="Y63" s="47"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46"/>
+      <c r="Y63" s="46"/>
       <c r="Z63" s="47"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -5777,10 +5968,10 @@
         <v>125</v>
       </c>
       <c r="B64" t="s" s="39">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s" s="39">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="41"/>
@@ -5788,30 +5979,30 @@
         <v>21503</v>
       </c>
       <c r="G64" t="s" s="42">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="H64" t="s" s="17">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I64" t="s" s="43">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J64" s="44"/>
       <c r="K64" s="44"/>
       <c r="L64" s="44"/>
       <c r="M64" s="40"/>
       <c r="N64" s="40"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
-      <c r="R64" s="47"/>
-      <c r="S64" s="47"/>
-      <c r="T64" s="47"/>
-      <c r="U64" s="47"/>
-      <c r="V64" s="47"/>
-      <c r="W64" s="47"/>
-      <c r="X64" s="47"/>
-      <c r="Y64" s="47"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
+      <c r="Y64" s="46"/>
       <c r="Z64" s="47"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -5819,10 +6010,10 @@
         <v>127</v>
       </c>
       <c r="B65" t="s" s="39">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s" s="39">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D65" s="40"/>
       <c r="E65" s="41"/>
@@ -5830,34 +6021,30 @@
         <v>21504</v>
       </c>
       <c r="G65" t="s" s="42">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H65" t="s" s="17">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I65" t="s" s="43">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J65" s="44"/>
       <c r="K65" s="44"/>
       <c r="L65" s="44"/>
-      <c r="M65" t="b" s="45">
-        <v>1</v>
-      </c>
-      <c r="N65" t="s" s="46">
-        <v>40</v>
-      </c>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="47"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="47"/>
-      <c r="V65" s="47"/>
-      <c r="W65" s="47"/>
-      <c r="X65" s="47"/>
-      <c r="Y65" s="47"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
+      <c r="Y65" s="46"/>
       <c r="Z65" s="47"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -5865,10 +6052,10 @@
         <v>129</v>
       </c>
       <c r="B66" t="s" s="39">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s" s="39">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D66" s="40"/>
       <c r="E66" s="41"/>
@@ -5876,30 +6063,30 @@
         <v>21505</v>
       </c>
       <c r="G66" t="s" s="42">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H66" t="s" s="17">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I66" t="s" s="43">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J66" s="44"/>
       <c r="K66" s="44"/>
       <c r="L66" s="44"/>
       <c r="M66" s="40"/>
       <c r="N66" s="40"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="47"/>
-      <c r="R66" s="47"/>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
-      <c r="U66" s="47"/>
-      <c r="V66" s="47"/>
-      <c r="W66" s="47"/>
-      <c r="X66" s="47"/>
-      <c r="Y66" s="47"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="46"/>
       <c r="Z66" s="47"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -5907,98 +6094,96 @@
         <v>131</v>
       </c>
       <c r="B67" t="s" s="39">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C67" t="s" s="39">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D67" s="40"/>
       <c r="E67" s="41"/>
       <c r="F67" s="15">
         <v>21506</v>
       </c>
-      <c r="G67" t="s" s="59">
-        <v>179</v>
+      <c r="G67" t="s" s="67">
+        <v>167</v>
       </c>
       <c r="H67" t="s" s="17">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="I67" t="s" s="43">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J67" s="44"/>
       <c r="K67" s="44"/>
       <c r="L67" s="44"/>
-      <c r="M67" t="s" s="46">
-        <v>66</v>
-      </c>
-      <c r="N67" t="s" s="46">
-        <v>181</v>
-      </c>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
-      <c r="X67" s="47"/>
-      <c r="Y67" s="47"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="45"/>
+      <c r="O67" t="b" s="68">
+        <v>1</v>
+      </c>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="46"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="46"/>
       <c r="Z67" s="47"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11">
         <v>133</v>
       </c>
-      <c r="B68" t="s" s="8">
-        <v>166</v>
-      </c>
-      <c r="C68" t="s" s="8">
-        <v>167</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="49"/>
+      <c r="B68" t="s" s="50">
+        <v>138</v>
+      </c>
+      <c r="C68" t="s" s="50">
+        <v>157</v>
+      </c>
+      <c r="D68" s="51"/>
+      <c r="E68" s="52"/>
       <c r="F68" s="15">
         <v>21507</v>
       </c>
-      <c r="G68" t="s" s="57">
-        <v>182</v>
+      <c r="G68" t="s" s="61">
+        <v>170</v>
       </c>
       <c r="H68" t="s" s="17">
-        <v>183</v>
-      </c>
-      <c r="I68" t="s" s="51">
-        <v>104</v>
-      </c>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="53"/>
-      <c r="T68" s="53"/>
-      <c r="U68" s="53"/>
-      <c r="V68" s="53"/>
-      <c r="W68" s="53"/>
-      <c r="X68" s="53"/>
-      <c r="Y68" s="53"/>
-      <c r="Z68" s="54"/>
+        <v>171</v>
+      </c>
+      <c r="I68" t="s" s="54">
+        <v>95</v>
+      </c>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="56"/>
+      <c r="P68" s="56"/>
+      <c r="Q68" s="56"/>
+      <c r="R68" s="56"/>
+      <c r="S68" s="56"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
+      <c r="V68" s="56"/>
+      <c r="W68" s="56"/>
+      <c r="X68" s="56"/>
+      <c r="Y68" s="56"/>
+      <c r="Z68" s="57"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="11">
         <v>135</v>
       </c>
       <c r="B69" t="s" s="12">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s" s="12">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="14"/>
@@ -6006,13 +6191,13 @@
         <v>21508</v>
       </c>
       <c r="G69" t="s" s="16">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H69" t="s" s="17">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I69" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
@@ -6037,10 +6222,10 @@
         <v>137</v>
       </c>
       <c r="B70" t="s" s="12">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C70" t="s" s="12">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14"/>
@@ -6048,13 +6233,13 @@
         <v>21509</v>
       </c>
       <c r="G70" t="s" s="16">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="H70" t="s" s="17">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I70" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
@@ -6079,10 +6264,10 @@
         <v>139</v>
       </c>
       <c r="B71" t="s" s="12">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s" s="12">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="14"/>
@@ -6090,13 +6275,13 @@
         <v>2151</v>
       </c>
       <c r="G71" t="s" s="16">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H71" t="s" s="17">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I71" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
@@ -6121,10 +6306,10 @@
         <v>141</v>
       </c>
       <c r="B72" t="s" s="12">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s" s="12">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14"/>
@@ -6132,13 +6317,13 @@
         <v>21511</v>
       </c>
       <c r="G72" t="s" s="16">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H72" t="s" s="17">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I72" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
@@ -6163,10 +6348,10 @@
         <v>143</v>
       </c>
       <c r="B73" t="s" s="12">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C73" t="s" s="12">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="14"/>
@@ -6174,23 +6359,19 @@
         <v>21512</v>
       </c>
       <c r="G73" t="s" s="16">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="H73" t="s" s="17">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I73" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
       <c r="L73" s="19"/>
-      <c r="M73" t="s" s="24">
-        <v>66</v>
-      </c>
-      <c r="N73" t="s" s="24">
-        <v>194</v>
-      </c>
+      <c r="M73" s="24"/>
+      <c r="N73" s="24"/>
       <c r="O73" s="20"/>
       <c r="P73" s="20"/>
       <c r="Q73" s="20"/>
@@ -6209,10 +6390,10 @@
         <v>145</v>
       </c>
       <c r="B74" t="s" s="12">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s" s="12">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="14"/>
@@ -6220,13 +6401,13 @@
         <v>21599</v>
       </c>
       <c r="G74" t="s" s="16">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H74" t="s" s="17">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="I74" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
@@ -6251,10 +6432,10 @@
         <v>147</v>
       </c>
       <c r="B75" t="s" s="12">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s" s="12">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="14"/>
@@ -6262,25 +6443,25 @@
         <v>21601</v>
       </c>
       <c r="G75" t="s" s="16">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H75" t="s" s="17">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="I75" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
       <c r="L75" s="19"/>
       <c r="M75" t="s" s="24">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="N75" t="s" s="24">
-        <v>181</v>
-      </c>
-      <c r="O75" t="s" s="62">
-        <v>66</v>
+        <v>188</v>
+      </c>
+      <c r="O75" t="b" s="58">
+        <v>1</v>
       </c>
       <c r="P75" s="20"/>
       <c r="Q75" s="20"/>
@@ -6299,10 +6480,10 @@
         <v>149</v>
       </c>
       <c r="B76" t="s" s="12">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s" s="12">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="14"/>
@@ -6310,23 +6491,19 @@
         <v>22101</v>
       </c>
       <c r="G76" t="s" s="16">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H76" t="s" s="17">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="I76" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
-      <c r="M76" t="s" s="24">
-        <v>66</v>
-      </c>
-      <c r="N76" t="s" s="24">
-        <v>201</v>
-      </c>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
       <c r="O76" s="20"/>
       <c r="P76" s="20"/>
       <c r="Q76" s="20"/>
@@ -6345,10 +6522,10 @@
         <v>151</v>
       </c>
       <c r="B77" t="s" s="12">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s" s="12">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="14"/>
@@ -6356,13 +6533,13 @@
         <v>31100</v>
       </c>
       <c r="G77" t="s" s="16">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="H77" t="s" s="17">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="I77" t="s" s="18">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
@@ -6387,10 +6564,10 @@
         <v>153</v>
       </c>
       <c r="B78" t="s" s="12">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s" s="12">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="14"/>
@@ -6398,10 +6575,10 @@
         <v>31200</v>
       </c>
       <c r="G78" t="s" s="16">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="H78" t="s" s="17">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="I78" t="s" s="18">
         <v>18</v>
@@ -6429,24 +6606,24 @@
         <v>155</v>
       </c>
       <c r="B79" t="s" s="12">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C79" t="s" s="12">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="14"/>
-      <c r="F79" s="63">
+      <c r="F79" s="69">
         <v>32100</v>
       </c>
       <c r="G79" t="s" s="16">
-        <v>212</v>
-      </c>
-      <c r="H79" t="s" s="64">
-        <v>213</v>
-      </c>
-      <c r="I79" t="s" s="65">
-        <v>104</v>
+        <v>200</v>
+      </c>
+      <c r="H79" t="s" s="70">
+        <v>201</v>
+      </c>
+      <c r="I79" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
@@ -6471,24 +6648,24 @@
         <v>157</v>
       </c>
       <c r="B80" t="s" s="12">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s" s="12">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="63">
+      <c r="F80" s="69">
         <v>32200</v>
       </c>
       <c r="G80" t="s" s="16">
-        <v>214</v>
-      </c>
-      <c r="H80" t="s" s="64">
-        <v>215</v>
-      </c>
-      <c r="I80" t="s" s="65">
-        <v>104</v>
+        <v>202</v>
+      </c>
+      <c r="H80" t="s" s="70">
+        <v>203</v>
+      </c>
+      <c r="I80" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
@@ -6513,24 +6690,24 @@
         <v>159</v>
       </c>
       <c r="B81" t="s" s="12">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s" s="12">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="63">
+      <c r="F81" s="69">
         <v>32300</v>
       </c>
       <c r="G81" t="s" s="16">
-        <v>216</v>
-      </c>
-      <c r="H81" t="s" s="64">
-        <v>217</v>
-      </c>
-      <c r="I81" t="s" s="65">
-        <v>104</v>
+        <v>204</v>
+      </c>
+      <c r="H81" t="s" s="70">
+        <v>205</v>
+      </c>
+      <c r="I81" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J81" s="19"/>
       <c r="K81" s="19"/>
@@ -6555,10 +6732,10 @@
         <v>161</v>
       </c>
       <c r="B82" t="s" s="12">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C82" t="s" s="12">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="14"/>
@@ -6566,13 +6743,13 @@
         <v>41100</v>
       </c>
       <c r="G82" t="s" s="16">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H82" t="s" s="17">
-        <v>220</v>
-      </c>
-      <c r="I82" t="s" s="65">
-        <v>104</v>
+        <v>208</v>
+      </c>
+      <c r="I82" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J82" s="19"/>
       <c r="K82" s="19"/>
@@ -6597,10 +6774,10 @@
         <v>163</v>
       </c>
       <c r="B83" t="s" s="12">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C83" t="s" s="12">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="14"/>
@@ -6608,13 +6785,13 @@
         <v>41101</v>
       </c>
       <c r="G83" t="s" s="16">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="H83" t="s" s="17">
-        <v>224</v>
-      </c>
-      <c r="I83" t="s" s="65">
-        <v>104</v>
+        <v>212</v>
+      </c>
+      <c r="I83" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
@@ -6625,7 +6802,7 @@
       <c r="N83" t="s" s="24">
         <v>33</v>
       </c>
-      <c r="O83" t="b" s="55">
+      <c r="O83" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P83" s="20"/>
@@ -6645,10 +6822,10 @@
         <v>165</v>
       </c>
       <c r="B84" t="s" s="12">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C84" t="s" s="12">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="14"/>
@@ -6656,24 +6833,20 @@
         <v>41102</v>
       </c>
       <c r="G84" t="s" s="16">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H84" t="s" s="17">
-        <v>226</v>
-      </c>
-      <c r="I84" t="s" s="65">
+        <v>214</v>
+      </c>
+      <c r="I84" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
       <c r="L84" s="19"/>
-      <c r="M84" t="s" s="24">
-        <v>66</v>
-      </c>
-      <c r="N84" t="s" s="24">
-        <v>181</v>
-      </c>
-      <c r="O84" t="b" s="55">
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" t="b" s="58">
         <v>1</v>
       </c>
       <c r="P84" s="20"/>
@@ -6690,13 +6863,13 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s" s="12">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C85" t="s" s="12">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="14"/>
@@ -6704,20 +6877,26 @@
         <v>41103</v>
       </c>
       <c r="G85" t="s" s="16">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H85" t="s" s="17">
-        <v>230</v>
-      </c>
-      <c r="I85" t="s" s="65">
-        <v>104</v>
+        <v>216</v>
+      </c>
+      <c r="I85" t="s" s="71">
+        <v>18</v>
       </c>
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="20"/>
+      <c r="M85" t="b" s="23">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s" s="24">
+        <v>33</v>
+      </c>
+      <c r="O85" t="b" s="58">
+        <v>1</v>
+      </c>
       <c r="P85" s="20"/>
       <c r="Q85" s="20"/>
       <c r="R85" s="20"/>
@@ -6732,27 +6911,27 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s" s="12">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s" s="12">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="14"/>
       <c r="F86" s="15">
-        <v>41104</v>
+        <v>41103</v>
       </c>
       <c r="G86" t="s" s="16">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H86" t="s" s="17">
-        <v>232</v>
-      </c>
-      <c r="I86" t="s" s="65">
-        <v>104</v>
+        <v>220</v>
+      </c>
+      <c r="I86" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J86" s="19"/>
       <c r="K86" s="19"/>
@@ -6774,27 +6953,27 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B87" t="s" s="12">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s" s="12">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="14"/>
       <c r="F87" s="15">
-        <v>41105</v>
+        <v>41104</v>
       </c>
       <c r="G87" t="s" s="16">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H87" t="s" s="17">
-        <v>233</v>
-      </c>
-      <c r="I87" t="s" s="65">
-        <v>104</v>
+        <v>222</v>
+      </c>
+      <c r="I87" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
@@ -6816,27 +6995,27 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B88" t="s" s="12">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C88" t="s" s="12">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="14"/>
       <c r="F88" s="15">
-        <v>41200</v>
+        <v>41105</v>
       </c>
       <c r="G88" t="s" s="16">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="H88" t="s" s="17">
-        <v>237</v>
-      </c>
-      <c r="I88" t="s" s="65">
-        <v>18</v>
+        <v>223</v>
+      </c>
+      <c r="I88" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
@@ -6858,30 +7037,26 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B89" t="s" s="12">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s" s="12">
-        <v>239</v>
-      </c>
-      <c r="D89" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E89" t="s" s="66">
-        <v>241</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="14"/>
       <c r="F89" s="15">
-        <v>41301</v>
+        <v>41200</v>
       </c>
       <c r="G89" t="s" s="16">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H89" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="I89" t="s" s="65">
+        <v>227</v>
+      </c>
+      <c r="I89" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J89" s="19"/>
@@ -6889,7 +7064,9 @@
       <c r="L89" s="19"/>
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
-      <c r="O89" s="20"/>
+      <c r="O89" t="b" s="58">
+        <v>1</v>
+      </c>
       <c r="P89" s="20"/>
       <c r="Q89" s="20"/>
       <c r="R89" s="20"/>
@@ -6904,30 +7081,26 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B90" t="s" s="12">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s" s="12">
-        <v>239</v>
-      </c>
-      <c r="D90" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E90" t="s" s="66">
-        <v>241</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" s="14"/>
       <c r="F90" s="15">
-        <v>41302</v>
+        <v>41201</v>
       </c>
       <c r="G90" t="s" s="16">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="H90" t="s" s="17">
-        <v>244</v>
-      </c>
-      <c r="I90" t="s" s="65">
+        <v>228</v>
+      </c>
+      <c r="I90" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J90" s="19"/>
@@ -6935,7 +7108,9 @@
       <c r="L90" s="19"/>
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
-      <c r="O90" s="20"/>
+      <c r="O90" t="b" s="58">
+        <v>1</v>
+      </c>
       <c r="P90" s="20"/>
       <c r="Q90" s="20"/>
       <c r="R90" s="20"/>
@@ -6950,30 +7125,30 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="11">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C91" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D91" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E91" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E91" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F91" s="15">
-        <v>41303</v>
+        <v>41301</v>
       </c>
       <c r="G91" t="s" s="16">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="H91" t="s" s="17">
-        <v>245</v>
-      </c>
-      <c r="I91" t="s" s="65">
+        <v>234</v>
+      </c>
+      <c r="I91" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J91" s="19"/>
@@ -6996,30 +7171,30 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="11">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B92" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C92" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D92" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E92" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E92" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F92" s="15">
-        <v>41304</v>
+        <v>41302</v>
       </c>
       <c r="G92" t="s" s="16">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H92" t="s" s="17">
-        <v>246</v>
-      </c>
-      <c r="I92" t="s" s="65">
+        <v>235</v>
+      </c>
+      <c r="I92" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J92" s="19"/>
@@ -7042,30 +7217,30 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C93" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D93" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E93" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E93" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F93" s="15">
-        <v>41305</v>
+        <v>41303</v>
       </c>
       <c r="G93" t="s" s="16">
         <v>58</v>
       </c>
       <c r="H93" t="s" s="17">
-        <v>247</v>
-      </c>
-      <c r="I93" t="s" s="65">
+        <v>236</v>
+      </c>
+      <c r="I93" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J93" s="19"/>
@@ -7088,30 +7263,30 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B94" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C94" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D94" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E94" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E94" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F94" s="15">
-        <v>41306</v>
+        <v>41304</v>
       </c>
       <c r="G94" t="s" s="16">
         <v>58</v>
       </c>
       <c r="H94" t="s" s="17">
-        <v>248</v>
-      </c>
-      <c r="I94" t="s" s="65">
+        <v>237</v>
+      </c>
+      <c r="I94" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J94" s="19"/>
@@ -7134,30 +7309,30 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B95" t="s" s="12">
+        <v>229</v>
+      </c>
+      <c r="C95" t="s" s="12">
+        <v>230</v>
+      </c>
+      <c r="D95" t="s" s="24">
+        <v>231</v>
+      </c>
+      <c r="E95" t="s" s="72">
+        <v>232</v>
+      </c>
+      <c r="F95" s="15">
+        <v>41305</v>
+      </c>
+      <c r="G95" t="s" s="16">
+        <v>58</v>
+      </c>
+      <c r="H95" t="s" s="17">
         <v>238</v>
       </c>
-      <c r="C95" t="s" s="12">
-        <v>239</v>
-      </c>
-      <c r="D95" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E95" t="s" s="66">
-        <v>241</v>
-      </c>
-      <c r="F95" s="15">
-        <v>41307</v>
-      </c>
-      <c r="G95" t="s" s="16">
-        <v>249</v>
-      </c>
-      <c r="H95" t="s" s="17">
-        <v>250</v>
-      </c>
-      <c r="I95" t="s" s="65">
+      <c r="I95" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J95" s="19"/>
@@ -7180,30 +7355,30 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="11">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B96" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C96" t="s" s="12">
+        <v>230</v>
+      </c>
+      <c r="D96" t="s" s="24">
+        <v>231</v>
+      </c>
+      <c r="E96" t="s" s="72">
+        <v>232</v>
+      </c>
+      <c r="F96" s="15">
+        <v>41306</v>
+      </c>
+      <c r="G96" t="s" s="16">
+        <v>58</v>
+      </c>
+      <c r="H96" t="s" s="17">
         <v>239</v>
       </c>
-      <c r="D96" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E96" t="s" s="66">
-        <v>241</v>
-      </c>
-      <c r="F96" s="15">
-        <v>41308</v>
-      </c>
-      <c r="G96" t="s" s="16">
-        <v>251</v>
-      </c>
-      <c r="H96" t="s" s="17">
-        <v>252</v>
-      </c>
-      <c r="I96" t="s" s="65">
+      <c r="I96" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J96" s="19"/>
@@ -7226,30 +7401,30 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B97" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C97" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D97" t="s" s="24">
+        <v>231</v>
+      </c>
+      <c r="E97" t="s" s="72">
+        <v>232</v>
+      </c>
+      <c r="F97" s="15">
+        <v>41307</v>
+      </c>
+      <c r="G97" t="s" s="16">
         <v>240</v>
       </c>
-      <c r="E97" t="s" s="66">
+      <c r="H97" t="s" s="17">
         <v>241</v>
       </c>
-      <c r="F97" s="15">
-        <v>41309</v>
-      </c>
-      <c r="G97" t="s" s="16">
-        <v>253</v>
-      </c>
-      <c r="H97" t="s" s="17">
-        <v>254</v>
-      </c>
-      <c r="I97" t="s" s="65">
+      <c r="I97" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J97" s="19"/>
@@ -7272,30 +7447,30 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="11">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B98" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C98" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D98" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E98" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E98" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F98" s="15">
-        <v>41310</v>
+        <v>41308</v>
       </c>
       <c r="G98" t="s" s="16">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="H98" t="s" s="17">
-        <v>256</v>
-      </c>
-      <c r="I98" t="s" s="65">
+        <v>243</v>
+      </c>
+      <c r="I98" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J98" s="19"/>
@@ -7318,30 +7493,30 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B99" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C99" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D99" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E99" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E99" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F99" s="15">
-        <v>41311</v>
+        <v>41309</v>
       </c>
       <c r="G99" t="s" s="16">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H99" t="s" s="17">
-        <v>258</v>
-      </c>
-      <c r="I99" t="s" s="65">
+        <v>245</v>
+      </c>
+      <c r="I99" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J99" s="19"/>
@@ -7364,30 +7539,30 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B100" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C100" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D100" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E100" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E100" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F100" s="15">
-        <v>41312</v>
+        <v>41310</v>
       </c>
       <c r="G100" t="s" s="16">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H100" t="s" s="17">
-        <v>260</v>
-      </c>
-      <c r="I100" t="s" s="65">
+        <v>247</v>
+      </c>
+      <c r="I100" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J100" s="19"/>
@@ -7410,30 +7585,30 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B101" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C101" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D101" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E101" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E101" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F101" s="15">
-        <v>41313</v>
+        <v>41311</v>
       </c>
       <c r="G101" t="s" s="16">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="H101" t="s" s="17">
-        <v>262</v>
-      </c>
-      <c r="I101" t="s" s="65">
+        <v>249</v>
+      </c>
+      <c r="I101" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J101" s="19"/>
@@ -7456,30 +7631,30 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B102" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C102" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D102" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E102" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E102" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F102" s="15">
-        <v>41314</v>
+        <v>41312</v>
       </c>
       <c r="G102" t="s" s="16">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="H102" t="s" s="17">
-        <v>264</v>
-      </c>
-      <c r="I102" t="s" s="65">
+        <v>251</v>
+      </c>
+      <c r="I102" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J102" s="19"/>
@@ -7502,30 +7677,30 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B103" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C103" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D103" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E103" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E103" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F103" s="15">
-        <v>41315</v>
+        <v>41313</v>
       </c>
       <c r="G103" t="s" s="16">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="H103" t="s" s="17">
-        <v>266</v>
-      </c>
-      <c r="I103" t="s" s="65">
+        <v>253</v>
+      </c>
+      <c r="I103" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J103" s="19"/>
@@ -7548,30 +7723,30 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="11">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B104" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C104" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E104" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E104" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F104" s="15">
-        <v>41316</v>
+        <v>41314</v>
       </c>
       <c r="G104" t="s" s="16">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H104" t="s" s="17">
-        <v>268</v>
-      </c>
-      <c r="I104" t="s" s="65">
+        <v>255</v>
+      </c>
+      <c r="I104" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J104" s="19"/>
@@ -7594,30 +7769,30 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="11">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B105" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C105" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D105" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E105" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E105" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F105" s="15">
-        <v>41317</v>
+        <v>41315</v>
       </c>
       <c r="G105" t="s" s="16">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="H105" t="s" s="17">
-        <v>270</v>
-      </c>
-      <c r="I105" t="s" s="65">
+        <v>257</v>
+      </c>
+      <c r="I105" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J105" s="19"/>
@@ -7640,30 +7815,30 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B106" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C106" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D106" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E106" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E106" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F106" s="15">
-        <v>41318</v>
+        <v>41316</v>
       </c>
       <c r="G106" t="s" s="16">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="H106" t="s" s="17">
-        <v>272</v>
-      </c>
-      <c r="I106" t="s" s="65">
+        <v>259</v>
+      </c>
+      <c r="I106" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J106" s="19"/>
@@ -7686,30 +7861,30 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B107" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C107" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D107" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E107" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E107" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F107" s="15">
-        <v>41319</v>
+        <v>41317</v>
       </c>
       <c r="G107" t="s" s="16">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="H107" t="s" s="17">
-        <v>274</v>
-      </c>
-      <c r="I107" t="s" s="65">
+        <v>261</v>
+      </c>
+      <c r="I107" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J107" s="19"/>
@@ -7732,30 +7907,30 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="11">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B108" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C108" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D108" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E108" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E108" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F108" s="15">
-        <v>41320</v>
+        <v>41318</v>
       </c>
       <c r="G108" t="s" s="16">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="H108" t="s" s="17">
-        <v>276</v>
-      </c>
-      <c r="I108" t="s" s="65">
+        <v>263</v>
+      </c>
+      <c r="I108" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J108" s="19"/>
@@ -7778,30 +7953,30 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B109" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C109" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D109" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E109" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E109" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F109" s="15">
-        <v>41321</v>
+        <v>41319</v>
       </c>
       <c r="G109" t="s" s="16">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="H109" t="s" s="17">
-        <v>278</v>
-      </c>
-      <c r="I109" t="s" s="65">
+        <v>265</v>
+      </c>
+      <c r="I109" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J109" s="19"/>
@@ -7824,30 +7999,30 @@
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B110" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C110" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D110" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E110" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E110" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F110" s="15">
-        <v>41322</v>
+        <v>41320</v>
       </c>
       <c r="G110" t="s" s="16">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="H110" t="s" s="17">
-        <v>280</v>
-      </c>
-      <c r="I110" t="s" s="65">
+        <v>267</v>
+      </c>
+      <c r="I110" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J110" s="19"/>
@@ -7870,30 +8045,30 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B111" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D111" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E111" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E111" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F111" s="15">
-        <v>41323</v>
+        <v>41321</v>
       </c>
       <c r="G111" t="s" s="16">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H111" t="s" s="17">
-        <v>282</v>
-      </c>
-      <c r="I111" t="s" s="65">
+        <v>269</v>
+      </c>
+      <c r="I111" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J111" s="19"/>
@@ -7916,30 +8091,30 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="11">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B112" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C112" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D112" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E112" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E112" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F112" s="15">
-        <v>41324</v>
+        <v>41322</v>
       </c>
       <c r="G112" t="s" s="16">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="H112" t="s" s="17">
-        <v>284</v>
-      </c>
-      <c r="I112" t="s" s="65">
+        <v>271</v>
+      </c>
+      <c r="I112" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J112" s="19"/>
@@ -7962,30 +8137,30 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B113" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C113" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D113" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E113" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E113" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F113" s="15">
-        <v>41325</v>
+        <v>41323</v>
       </c>
       <c r="G113" t="s" s="16">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="H113" t="s" s="17">
-        <v>286</v>
-      </c>
-      <c r="I113" t="s" s="65">
+        <v>273</v>
+      </c>
+      <c r="I113" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J113" s="19"/>
@@ -8008,30 +8183,30 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="11">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B114" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C114" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D114" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E114" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E114" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F114" s="15">
-        <v>41326</v>
+        <v>41324</v>
       </c>
       <c r="G114" t="s" s="16">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="H114" t="s" s="17">
-        <v>288</v>
-      </c>
-      <c r="I114" t="s" s="65">
+        <v>275</v>
+      </c>
+      <c r="I114" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J114" s="19"/>
@@ -8054,30 +8229,30 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B115" t="s" s="12">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C115" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D115" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E115" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E115" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F115" s="15">
-        <v>41327</v>
+        <v>41325</v>
       </c>
       <c r="G115" t="s" s="16">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="H115" t="s" s="17">
-        <v>290</v>
-      </c>
-      <c r="I115" t="s" s="65">
+        <v>277</v>
+      </c>
+      <c r="I115" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J115" s="19"/>
@@ -8100,30 +8275,30 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="11">
+        <v>225</v>
+      </c>
+      <c r="B116" t="s" s="12">
         <v>229</v>
       </c>
-      <c r="B116" t="s" s="12">
-        <v>238</v>
-      </c>
       <c r="C116" t="s" s="12">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D116" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E116" t="s" s="66">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="E116" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F116" s="15">
-        <v>41328</v>
+        <v>41326</v>
       </c>
       <c r="G116" t="s" s="16">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="H116" t="s" s="17">
-        <v>292</v>
-      </c>
-      <c r="I116" t="s" s="65">
+        <v>279</v>
+      </c>
+      <c r="I116" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J116" s="19"/>
@@ -8146,30 +8321,30 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="11">
+        <v>227</v>
+      </c>
+      <c r="B117" t="s" s="12">
+        <v>229</v>
+      </c>
+      <c r="C117" t="s" s="12">
+        <v>230</v>
+      </c>
+      <c r="D117" t="s" s="24">
         <v>231</v>
       </c>
-      <c r="B117" t="s" s="12">
-        <v>238</v>
-      </c>
-      <c r="C117" t="s" s="12">
-        <v>239</v>
-      </c>
-      <c r="D117" t="s" s="24">
-        <v>240</v>
-      </c>
-      <c r="E117" t="s" s="66">
-        <v>241</v>
+      <c r="E117" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F117" s="15">
-        <v>41399</v>
+        <v>41327</v>
       </c>
       <c r="G117" t="s" s="16">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="H117" t="s" s="17">
-        <v>294</v>
-      </c>
-      <c r="I117" t="s" s="65">
+        <v>281</v>
+      </c>
+      <c r="I117" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J117" s="19"/>
@@ -8192,30 +8367,30 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="11">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B118" t="s" s="12">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="C118" t="s" s="12">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="D118" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E118" t="s" s="66">
-        <v>298</v>
+        <v>231</v>
+      </c>
+      <c r="E118" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F118" s="15">
-        <v>51101</v>
+        <v>41328</v>
       </c>
       <c r="G118" t="s" s="16">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="H118" t="s" s="17">
-        <v>300</v>
-      </c>
-      <c r="I118" t="s" s="65">
+        <v>283</v>
+      </c>
+      <c r="I118" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J118" s="19"/>
@@ -8238,30 +8413,30 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B119" t="s" s="12">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="C119" t="s" s="12">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="D119" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E119" t="s" s="66">
-        <v>298</v>
+        <v>231</v>
+      </c>
+      <c r="E119" t="s" s="72">
+        <v>232</v>
       </c>
       <c r="F119" s="15">
-        <v>51102</v>
+        <v>41399</v>
       </c>
       <c r="G119" t="s" s="16">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="H119" t="s" s="17">
-        <v>302</v>
-      </c>
-      <c r="I119" t="s" s="65">
+        <v>285</v>
+      </c>
+      <c r="I119" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J119" s="19"/>
@@ -8284,30 +8459,30 @@
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B120" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C120" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D120" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E120" t="s" s="66">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E120" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F120" s="15">
-        <v>51103</v>
+        <v>51101</v>
       </c>
       <c r="G120" t="s" s="16">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H120" t="s" s="17">
-        <v>304</v>
-      </c>
-      <c r="I120" t="s" s="65">
+        <v>291</v>
+      </c>
+      <c r="I120" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J120" s="19"/>
@@ -8330,30 +8505,30 @@
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="11">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B121" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C121" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D121" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E121" t="s" s="66">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E121" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F121" s="15">
-        <v>51104</v>
+        <v>51102</v>
       </c>
       <c r="G121" t="s" s="16">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="H121" t="s" s="17">
-        <v>256</v>
-      </c>
-      <c r="I121" t="s" s="65">
+        <v>293</v>
+      </c>
+      <c r="I121" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J121" s="19"/>
@@ -8376,30 +8551,30 @@
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B122" t="s" s="12">
+        <v>286</v>
+      </c>
+      <c r="C122" t="s" s="12">
+        <v>287</v>
+      </c>
+      <c r="D122" t="s" s="24">
+        <v>288</v>
+      </c>
+      <c r="E122" t="s" s="72">
+        <v>289</v>
+      </c>
+      <c r="F122" s="15">
+        <v>51103</v>
+      </c>
+      <c r="G122" t="s" s="16">
+        <v>294</v>
+      </c>
+      <c r="H122" t="s" s="17">
         <v>295</v>
       </c>
-      <c r="C122" t="s" s="12">
-        <v>296</v>
-      </c>
-      <c r="D122" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E122" t="s" s="66">
-        <v>298</v>
-      </c>
-      <c r="F122" s="15">
-        <v>51105</v>
-      </c>
-      <c r="G122" t="s" s="16">
-        <v>306</v>
-      </c>
-      <c r="H122" t="s" s="17">
-        <v>258</v>
-      </c>
-      <c r="I122" t="s" s="65">
+      <c r="I122" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J122" s="19"/>
@@ -8422,30 +8597,30 @@
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B123" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C123" t="s" s="12">
+        <v>287</v>
+      </c>
+      <c r="D123" t="s" s="24">
+        <v>288</v>
+      </c>
+      <c r="E123" t="s" s="72">
+        <v>289</v>
+      </c>
+      <c r="F123" s="15">
+        <v>51104</v>
+      </c>
+      <c r="G123" t="s" s="16">
         <v>296</v>
       </c>
-      <c r="D123" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E123" t="s" s="66">
-        <v>298</v>
-      </c>
-      <c r="F123" s="15">
-        <v>51106</v>
-      </c>
-      <c r="G123" t="s" s="16">
-        <v>307</v>
-      </c>
       <c r="H123" t="s" s="17">
-        <v>308</v>
-      </c>
-      <c r="I123" t="s" s="65">
+        <v>247</v>
+      </c>
+      <c r="I123" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J123" s="19"/>
@@ -8468,30 +8643,30 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B124" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C124" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D124" t="s" s="24">
+        <v>288</v>
+      </c>
+      <c r="E124" t="s" s="72">
+        <v>289</v>
+      </c>
+      <c r="F124" s="15">
+        <v>51105</v>
+      </c>
+      <c r="G124" t="s" s="16">
         <v>297</v>
       </c>
-      <c r="E124" t="s" s="66">
-        <v>298</v>
-      </c>
-      <c r="F124" s="15">
-        <v>51107</v>
-      </c>
-      <c r="G124" t="s" s="16">
-        <v>309</v>
-      </c>
       <c r="H124" t="s" s="17">
-        <v>310</v>
-      </c>
-      <c r="I124" t="s" s="65">
+        <v>249</v>
+      </c>
+      <c r="I124" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J124" s="19"/>
@@ -8514,30 +8689,30 @@
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B125" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C125" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D125" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E125" t="s" s="66">
+        <v>288</v>
+      </c>
+      <c r="E125" t="s" s="72">
+        <v>289</v>
+      </c>
+      <c r="F125" s="15">
+        <v>51106</v>
+      </c>
+      <c r="G125" t="s" s="16">
         <v>298</v>
       </c>
-      <c r="F125" s="15">
-        <v>51108</v>
-      </c>
-      <c r="G125" t="s" s="16">
-        <v>309</v>
-      </c>
       <c r="H125" t="s" s="17">
-        <v>311</v>
-      </c>
-      <c r="I125" t="s" s="65">
+        <v>299</v>
+      </c>
+      <c r="I125" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J125" s="19"/>
@@ -8560,30 +8735,30 @@
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="11">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B126" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C126" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D126" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E126" t="s" s="66">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E126" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F126" s="15">
-        <v>51109</v>
+        <v>51107</v>
       </c>
       <c r="G126" t="s" s="16">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="H126" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="I126" t="s" s="65">
+        <v>301</v>
+      </c>
+      <c r="I126" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J126" s="19"/>
@@ -8606,30 +8781,30 @@
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="11">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B127" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C127" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D127" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E127" t="s" s="66">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E127" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F127" s="15">
-        <v>51110</v>
+        <v>51108</v>
       </c>
       <c r="G127" t="s" s="16">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="H127" t="s" s="17">
-        <v>315</v>
-      </c>
-      <c r="I127" t="s" s="65">
+        <v>302</v>
+      </c>
+      <c r="I127" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J127" s="19"/>
@@ -8652,30 +8827,30 @@
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B128" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C128" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D128" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E128" t="s" s="66">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E128" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F128" s="15">
-        <v>51111</v>
+        <v>51109</v>
       </c>
       <c r="G128" t="s" s="16">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="H128" t="s" s="17">
-        <v>317</v>
-      </c>
-      <c r="I128" t="s" s="65">
+        <v>304</v>
+      </c>
+      <c r="I128" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J128" s="19"/>
@@ -8698,30 +8873,30 @@
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B129" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C129" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D129" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E129" t="s" s="66">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E129" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F129" s="15">
-        <v>51112</v>
+        <v>51110</v>
       </c>
       <c r="G129" t="s" s="16">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="H129" t="s" s="17">
-        <v>319</v>
-      </c>
-      <c r="I129" t="s" s="65">
+        <v>306</v>
+      </c>
+      <c r="I129" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J129" s="19"/>
@@ -8744,30 +8919,30 @@
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="11">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B130" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C130" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D130" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E130" t="s" s="66">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E130" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F130" s="15">
-        <v>51113</v>
+        <v>51111</v>
       </c>
       <c r="G130" t="s" s="16">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="H130" t="s" s="17">
-        <v>321</v>
-      </c>
-      <c r="I130" t="s" s="65">
+        <v>308</v>
+      </c>
+      <c r="I130" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J130" s="19"/>
@@ -8790,30 +8965,30 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="11">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B131" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C131" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D131" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E131" t="s" s="66">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E131" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F131" s="15">
-        <v>51114</v>
+        <v>51112</v>
       </c>
       <c r="G131" t="s" s="16">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H131" t="s" s="17">
-        <v>286</v>
-      </c>
-      <c r="I131" t="s" s="65">
+        <v>310</v>
+      </c>
+      <c r="I131" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J131" s="19"/>
@@ -8836,30 +9011,30 @@
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="11">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B132" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C132" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D132" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E132" t="s" s="66">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E132" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F132" s="15">
-        <v>51115</v>
+        <v>51113</v>
       </c>
       <c r="G132" t="s" s="16">
+        <v>311</v>
+      </c>
+      <c r="H132" t="s" s="17">
         <v>312</v>
       </c>
-      <c r="H132" t="s" s="17">
-        <v>323</v>
-      </c>
-      <c r="I132" t="s" s="65">
+      <c r="I132" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J132" s="19"/>
@@ -8882,30 +9057,30 @@
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="11">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B133" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C133" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D133" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E133" t="s" s="66">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E133" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F133" s="15">
-        <v>51116</v>
+        <v>51114</v>
       </c>
       <c r="G133" t="s" s="16">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H133" t="s" s="17">
-        <v>324</v>
-      </c>
-      <c r="I133" t="s" s="65">
+        <v>277</v>
+      </c>
+      <c r="I133" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J133" s="19"/>
@@ -8928,30 +9103,30 @@
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="11">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B134" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C134" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D134" t="s" s="24">
-        <v>297</v>
-      </c>
-      <c r="E134" t="s" s="66">
-        <v>298</v>
+        <v>288</v>
+      </c>
+      <c r="E134" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F134" s="15">
-        <v>51199</v>
+        <v>51115</v>
       </c>
       <c r="G134" t="s" s="16">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H134" t="s" s="17">
-        <v>325</v>
-      </c>
-      <c r="I134" t="s" s="65">
+        <v>314</v>
+      </c>
+      <c r="I134" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J134" s="19"/>
@@ -8974,30 +9149,30 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B135" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C135" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D135" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E135" t="s" s="66">
-        <v>222</v>
+        <v>288</v>
+      </c>
+      <c r="E135" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F135" s="15">
-        <v>51201</v>
+        <v>51116</v>
       </c>
       <c r="G135" t="s" s="16">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="H135" t="s" s="17">
-        <v>327</v>
-      </c>
-      <c r="I135" t="s" s="65">
+        <v>315</v>
+      </c>
+      <c r="I135" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J135" s="19"/>
@@ -9020,30 +9195,30 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="11">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B136" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C136" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D136" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E136" t="s" s="66">
-        <v>222</v>
+        <v>288</v>
+      </c>
+      <c r="E136" t="s" s="72">
+        <v>289</v>
       </c>
       <c r="F136" s="15">
-        <v>51202</v>
+        <v>51199</v>
       </c>
       <c r="G136" t="s" s="16">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="H136" t="s" s="17">
-        <v>302</v>
-      </c>
-      <c r="I136" t="s" s="65">
+        <v>316</v>
+      </c>
+      <c r="I136" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J136" s="19"/>
@@ -9066,30 +9241,30 @@
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="11">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B137" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C137" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D137" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E137" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E137" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F137" s="15">
-        <v>51203</v>
+        <v>51201</v>
       </c>
       <c r="G137" t="s" s="16">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="H137" t="s" s="17">
-        <v>304</v>
-      </c>
-      <c r="I137" t="s" s="65">
+        <v>318</v>
+      </c>
+      <c r="I137" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J137" s="19"/>
@@ -9112,30 +9287,30 @@
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="11">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B138" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C138" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D138" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E138" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E138" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F138" s="15">
-        <v>51204</v>
+        <v>51202</v>
       </c>
       <c r="G138" t="s" s="16">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H138" t="s" s="17">
-        <v>331</v>
-      </c>
-      <c r="I138" t="s" s="65">
+        <v>293</v>
+      </c>
+      <c r="I138" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J138" s="19"/>
@@ -9158,30 +9333,30 @@
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="11">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B139" t="s" s="12">
+        <v>286</v>
+      </c>
+      <c r="C139" t="s" s="12">
+        <v>287</v>
+      </c>
+      <c r="D139" t="s" s="24">
+        <v>211</v>
+      </c>
+      <c r="E139" t="s" s="72">
+        <v>210</v>
+      </c>
+      <c r="F139" s="15">
+        <v>51203</v>
+      </c>
+      <c r="G139" t="s" s="16">
+        <v>320</v>
+      </c>
+      <c r="H139" t="s" s="17">
         <v>295</v>
       </c>
-      <c r="C139" t="s" s="12">
-        <v>296</v>
-      </c>
-      <c r="D139" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E139" t="s" s="66">
-        <v>222</v>
-      </c>
-      <c r="F139" s="15">
-        <v>51205</v>
-      </c>
-      <c r="G139" t="s" s="16">
-        <v>332</v>
-      </c>
-      <c r="H139" t="s" s="17">
-        <v>333</v>
-      </c>
-      <c r="I139" t="s" s="65">
+      <c r="I139" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J139" s="19"/>
@@ -9204,30 +9379,30 @@
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="11">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B140" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C140" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D140" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E140" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E140" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F140" s="15">
-        <v>51206</v>
+        <v>51204</v>
       </c>
       <c r="G140" t="s" s="16">
-        <v>251</v>
+        <v>321</v>
       </c>
       <c r="H140" t="s" s="17">
-        <v>334</v>
-      </c>
-      <c r="I140" t="s" s="65">
+        <v>322</v>
+      </c>
+      <c r="I140" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J140" s="19"/>
@@ -9250,30 +9425,30 @@
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="11">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B141" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C141" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D141" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E141" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E141" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F141" s="15">
-        <v>51207</v>
+        <v>51205</v>
       </c>
       <c r="G141" t="s" s="16">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H141" t="s" s="17">
-        <v>335</v>
-      </c>
-      <c r="I141" t="s" s="65">
+        <v>324</v>
+      </c>
+      <c r="I141" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J141" s="19"/>
@@ -9296,30 +9471,30 @@
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="11">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B142" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C142" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D142" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E142" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E142" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F142" s="15">
-        <v>51208</v>
+        <v>51206</v>
       </c>
       <c r="G142" t="s" s="16">
-        <v>336</v>
+        <v>242</v>
       </c>
       <c r="H142" t="s" s="17">
-        <v>337</v>
-      </c>
-      <c r="I142" t="s" s="65">
+        <v>325</v>
+      </c>
+      <c r="I142" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J142" s="19"/>
@@ -9342,30 +9517,30 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="11">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B143" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C143" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D143" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E143" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E143" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F143" s="15">
-        <v>51209</v>
+        <v>51207</v>
       </c>
       <c r="G143" t="s" s="16">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="H143" t="s" s="17">
-        <v>339</v>
-      </c>
-      <c r="I143" t="s" s="65">
+        <v>326</v>
+      </c>
+      <c r="I143" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J143" s="19"/>
@@ -9388,30 +9563,30 @@
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="11">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B144" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C144" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D144" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E144" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E144" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F144" s="15">
-        <v>51210</v>
+        <v>51208</v>
       </c>
       <c r="G144" t="s" s="16">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="H144" t="s" s="17">
-        <v>341</v>
-      </c>
-      <c r="I144" t="s" s="65">
+        <v>328</v>
+      </c>
+      <c r="I144" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J144" s="19"/>
@@ -9434,30 +9609,30 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="11">
+        <v>283</v>
+      </c>
+      <c r="B145" t="s" s="12">
+        <v>286</v>
+      </c>
+      <c r="C145" t="s" s="12">
         <v>287</v>
       </c>
-      <c r="B145" t="s" s="12">
-        <v>295</v>
-      </c>
-      <c r="C145" t="s" s="12">
-        <v>296</v>
-      </c>
       <c r="D145" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E145" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E145" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F145" s="15">
-        <v>51211</v>
+        <v>51209</v>
       </c>
       <c r="G145" t="s" s="16">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="H145" t="s" s="17">
-        <v>343</v>
-      </c>
-      <c r="I145" t="s" s="65">
+        <v>330</v>
+      </c>
+      <c r="I145" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J145" s="19"/>
@@ -9480,30 +9655,30 @@
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="11">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B146" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C146" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D146" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E146" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E146" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F146" s="15">
-        <v>51212</v>
+        <v>51210</v>
       </c>
       <c r="G146" t="s" s="16">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="H146" t="s" s="17">
-        <v>345</v>
-      </c>
-      <c r="I146" t="s" s="65">
+        <v>332</v>
+      </c>
+      <c r="I146" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J146" s="19"/>
@@ -9526,30 +9701,30 @@
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="11">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B147" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C147" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D147" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E147" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E147" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F147" s="15">
-        <v>51213</v>
+        <v>51211</v>
       </c>
       <c r="G147" t="s" s="16">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="H147" t="s" s="17">
-        <v>346</v>
-      </c>
-      <c r="I147" t="s" s="65">
+        <v>334</v>
+      </c>
+      <c r="I147" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J147" s="19"/>
@@ -9572,30 +9747,30 @@
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="11">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B148" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C148" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D148" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E148" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E148" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F148" s="15">
-        <v>51214</v>
+        <v>51212</v>
       </c>
       <c r="G148" t="s" s="16">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="H148" t="s" s="17">
-        <v>348</v>
-      </c>
-      <c r="I148" t="s" s="65">
+        <v>336</v>
+      </c>
+      <c r="I148" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J148" s="19"/>
@@ -9618,30 +9793,30 @@
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="11">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B149" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C149" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D149" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E149" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E149" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F149" s="15">
-        <v>51215</v>
+        <v>51213</v>
       </c>
       <c r="G149" t="s" s="16">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="H149" t="s" s="17">
-        <v>349</v>
-      </c>
-      <c r="I149" t="s" s="65">
+        <v>337</v>
+      </c>
+      <c r="I149" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J149" s="19"/>
@@ -9664,30 +9839,30 @@
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="11">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B150" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C150" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D150" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E150" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E150" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F150" s="15">
-        <v>51216</v>
+        <v>51214</v>
       </c>
       <c r="G150" t="s" s="16">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="H150" t="s" s="17">
-        <v>351</v>
-      </c>
-      <c r="I150" t="s" s="65">
+        <v>339</v>
+      </c>
+      <c r="I150" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J150" s="19"/>
@@ -9710,30 +9885,30 @@
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="11">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B151" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C151" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D151" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E151" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E151" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F151" s="15">
-        <v>51217</v>
+        <v>51215</v>
       </c>
       <c r="G151" t="s" s="16">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="H151" t="s" s="17">
-        <v>353</v>
-      </c>
-      <c r="I151" t="s" s="65">
+        <v>340</v>
+      </c>
+      <c r="I151" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J151" s="19"/>
@@ -9756,30 +9931,30 @@
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="11">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B152" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C152" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D152" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E152" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E152" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F152" s="15">
-        <v>51218</v>
+        <v>51216</v>
       </c>
       <c r="G152" t="s" s="16">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="H152" t="s" s="17">
-        <v>355</v>
-      </c>
-      <c r="I152" t="s" s="65">
+        <v>342</v>
+      </c>
+      <c r="I152" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J152" s="19"/>
@@ -9802,30 +9977,30 @@
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="11">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B153" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C153" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D153" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E153" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E153" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F153" s="15">
-        <v>51219</v>
+        <v>51217</v>
       </c>
       <c r="G153" t="s" s="16">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c r="H153" t="s" s="17">
-        <v>356</v>
-      </c>
-      <c r="I153" t="s" s="65">
+        <v>344</v>
+      </c>
+      <c r="I153" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J153" s="19"/>
@@ -9848,30 +10023,30 @@
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="11">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B154" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C154" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D154" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E154" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E154" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F154" s="15">
-        <v>51220</v>
+        <v>51218</v>
       </c>
       <c r="G154" t="s" s="16">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="H154" t="s" s="17">
-        <v>357</v>
-      </c>
-      <c r="I154" t="s" s="65">
+        <v>346</v>
+      </c>
+      <c r="I154" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J154" s="19"/>
@@ -9894,30 +10069,30 @@
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="11">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B155" t="s" s="12">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C155" t="s" s="12">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D155" t="s" s="24">
-        <v>223</v>
-      </c>
-      <c r="E155" t="s" s="66">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="E155" t="s" s="72">
+        <v>210</v>
       </c>
       <c r="F155" s="15">
-        <v>51299</v>
+        <v>51219</v>
       </c>
       <c r="G155" t="s" s="16">
-        <v>358</v>
+        <v>170</v>
       </c>
       <c r="H155" t="s" s="17">
-        <v>359</v>
-      </c>
-      <c r="I155" t="s" s="65">
+        <v>347</v>
+      </c>
+      <c r="I155" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J155" s="19"/>
@@ -9940,27 +10115,31 @@
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="11">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B156" t="s" s="12">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="C156" t="s" s="12">
-        <v>360</v>
-      </c>
-      <c r="D156" s="13"/>
-      <c r="E156" s="14"/>
+        <v>287</v>
+      </c>
+      <c r="D156" t="s" s="24">
+        <v>211</v>
+      </c>
+      <c r="E156" t="s" s="72">
+        <v>210</v>
+      </c>
       <c r="F156" s="15">
-        <v>61101</v>
+        <v>51220</v>
       </c>
       <c r="G156" t="s" s="16">
-        <v>361</v>
+        <v>67</v>
       </c>
       <c r="H156" t="s" s="17">
-        <v>362</v>
-      </c>
-      <c r="I156" t="s" s="65">
-        <v>104</v>
+        <v>348</v>
+      </c>
+      <c r="I156" t="s" s="71">
+        <v>18</v>
       </c>
       <c r="J156" s="19"/>
       <c r="K156" s="19"/>
@@ -9982,27 +10161,31 @@
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="11">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B157" t="s" s="12">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="C157" t="s" s="12">
-        <v>360</v>
-      </c>
-      <c r="D157" s="13"/>
-      <c r="E157" s="14"/>
+        <v>287</v>
+      </c>
+      <c r="D157" t="s" s="24">
+        <v>211</v>
+      </c>
+      <c r="E157" t="s" s="72">
+        <v>210</v>
+      </c>
       <c r="F157" s="15">
-        <v>61102</v>
+        <v>51299</v>
       </c>
       <c r="G157" t="s" s="16">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="H157" t="s" s="17">
-        <v>363</v>
-      </c>
-      <c r="I157" t="s" s="65">
-        <v>104</v>
+        <v>350</v>
+      </c>
+      <c r="I157" t="s" s="71">
+        <v>18</v>
       </c>
       <c r="J157" s="19"/>
       <c r="K157" s="19"/>
@@ -10024,27 +10207,27 @@
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="11">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B158" t="s" s="12">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C158" t="s" s="12">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D158" s="13"/>
       <c r="E158" s="14"/>
       <c r="F158" s="15">
-        <v>61103</v>
+        <v>61101</v>
       </c>
       <c r="G158" t="s" s="16">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="H158" t="s" s="17">
-        <v>364</v>
-      </c>
-      <c r="I158" t="s" s="65">
-        <v>104</v>
+        <v>353</v>
+      </c>
+      <c r="I158" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J158" s="19"/>
       <c r="K158" s="19"/>
@@ -10066,27 +10249,27 @@
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="11">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B159" t="s" s="12">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C159" t="s" s="12">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="14"/>
       <c r="F159" s="15">
-        <v>61104</v>
+        <v>61102</v>
       </c>
       <c r="G159" t="s" s="16">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="H159" t="s" s="17">
-        <v>366</v>
-      </c>
-      <c r="I159" t="s" s="65">
-        <v>104</v>
+        <v>354</v>
+      </c>
+      <c r="I159" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J159" s="19"/>
       <c r="K159" s="19"/>
@@ -10108,27 +10291,27 @@
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="11">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B160" t="s" s="12">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C160" t="s" s="12">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D160" s="13"/>
       <c r="E160" s="14"/>
       <c r="F160" s="15">
-        <v>61199</v>
+        <v>61103</v>
       </c>
       <c r="G160" t="s" s="16">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="H160" t="s" s="17">
-        <v>368</v>
-      </c>
-      <c r="I160" t="s" s="65">
-        <v>104</v>
+        <v>355</v>
+      </c>
+      <c r="I160" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J160" s="19"/>
       <c r="K160" s="19"/>
@@ -10150,27 +10333,27 @@
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="11">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B161" t="s" s="12">
-        <v>369</v>
+        <v>217</v>
       </c>
       <c r="C161" t="s" s="12">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="D161" s="13"/>
       <c r="E161" s="14"/>
       <c r="F161" s="15">
-        <v>71101</v>
+        <v>61104</v>
       </c>
       <c r="G161" t="s" s="16">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="H161" t="s" s="17">
-        <v>372</v>
-      </c>
-      <c r="I161" t="s" s="65">
-        <v>18</v>
+        <v>357</v>
+      </c>
+      <c r="I161" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J161" s="19"/>
       <c r="K161" s="19"/>
@@ -10192,27 +10375,27 @@
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="11">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B162" t="s" s="12">
-        <v>369</v>
+        <v>217</v>
       </c>
       <c r="C162" t="s" s="12">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="D162" s="13"/>
       <c r="E162" s="14"/>
       <c r="F162" s="15">
-        <v>71102</v>
+        <v>61199</v>
       </c>
       <c r="G162" t="s" s="16">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="H162" t="s" s="17">
-        <v>373</v>
-      </c>
-      <c r="I162" t="s" s="65">
-        <v>18</v>
+        <v>359</v>
+      </c>
+      <c r="I162" t="s" s="71">
+        <v>95</v>
       </c>
       <c r="J162" s="19"/>
       <c r="K162" s="19"/>
@@ -10234,26 +10417,26 @@
     </row>
     <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="11">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B163" t="s" s="12">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C163" t="s" s="12">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D163" s="13"/>
       <c r="E163" s="14"/>
       <c r="F163" s="15">
-        <v>71103</v>
+        <v>71101</v>
       </c>
       <c r="G163" t="s" s="16">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H163" t="s" s="17">
-        <v>374</v>
-      </c>
-      <c r="I163" t="s" s="65">
+        <v>363</v>
+      </c>
+      <c r="I163" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J163" s="19"/>
@@ -10276,26 +10459,26 @@
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="11">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B164" t="s" s="12">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C164" t="s" s="12">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D164" s="13"/>
       <c r="E164" s="14"/>
       <c r="F164" s="15">
-        <v>71199</v>
+        <v>71102</v>
       </c>
       <c r="G164" t="s" s="16">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="H164" t="s" s="17">
-        <v>376</v>
-      </c>
-      <c r="I164" t="s" s="65">
+        <v>364</v>
+      </c>
+      <c r="I164" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J164" s="19"/>
@@ -10318,26 +10501,26 @@
     </row>
     <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="11">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B165" t="s" s="12">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C165" t="s" s="12">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D165" s="13"/>
       <c r="E165" s="14"/>
       <c r="F165" s="15">
-        <v>81101</v>
+        <v>71103</v>
       </c>
       <c r="G165" t="s" s="16">
-        <v>71</v>
+        <v>362</v>
       </c>
       <c r="H165" t="s" s="17">
-        <v>377</v>
-      </c>
-      <c r="I165" t="s" s="65">
+        <v>365</v>
+      </c>
+      <c r="I165" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J165" s="19"/>
@@ -10360,26 +10543,26 @@
     </row>
     <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="11">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B166" t="s" s="12">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C166" t="s" s="12">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="D166" s="13"/>
       <c r="E166" s="14"/>
       <c r="F166" s="15">
-        <v>81102</v>
+        <v>71199</v>
       </c>
       <c r="G166" t="s" s="16">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="H166" t="s" s="17">
-        <v>379</v>
-      </c>
-      <c r="I166" t="s" s="65">
+        <v>367</v>
+      </c>
+      <c r="I166" t="s" s="71">
         <v>18</v>
       </c>
       <c r="J166" s="19"/>
@@ -10401,46 +10584,130 @@
       <c r="Z166" s="21"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="67">
+      <c r="A167" s="11">
+        <v>327</v>
+      </c>
+      <c r="B167" t="s" s="12">
+        <v>360</v>
+      </c>
+      <c r="C167" t="s" s="12">
+        <v>361</v>
+      </c>
+      <c r="D167" s="13"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="15">
+        <v>81101</v>
+      </c>
+      <c r="G167" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="H167" t="s" s="17">
+        <v>368</v>
+      </c>
+      <c r="I167" t="s" s="71">
+        <v>18</v>
+      </c>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="13"/>
+      <c r="N167" s="13"/>
+      <c r="O167" s="20"/>
+      <c r="P167" s="20"/>
+      <c r="Q167" s="20"/>
+      <c r="R167" s="20"/>
+      <c r="S167" s="20"/>
+      <c r="T167" s="20"/>
+      <c r="U167" s="20"/>
+      <c r="V167" s="20"/>
+      <c r="W167" s="20"/>
+      <c r="X167" s="20"/>
+      <c r="Y167" s="20"/>
+      <c r="Z167" s="21"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="11">
+        <v>329</v>
+      </c>
+      <c r="B168" t="s" s="12">
+        <v>360</v>
+      </c>
+      <c r="C168" t="s" s="12">
+        <v>361</v>
+      </c>
+      <c r="D168" s="13"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="15">
+        <v>81102</v>
+      </c>
+      <c r="G168" t="s" s="16">
+        <v>369</v>
+      </c>
+      <c r="H168" t="s" s="17">
+        <v>370</v>
+      </c>
+      <c r="I168" t="s" s="71">
+        <v>18</v>
+      </c>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="13"/>
+      <c r="N168" s="13"/>
+      <c r="O168" s="20"/>
+      <c r="P168" s="20"/>
+      <c r="Q168" s="20"/>
+      <c r="R168" s="20"/>
+      <c r="S168" s="20"/>
+      <c r="T168" s="20"/>
+      <c r="U168" s="20"/>
+      <c r="V168" s="20"/>
+      <c r="W168" s="20"/>
+      <c r="X168" s="20"/>
+      <c r="Y168" s="20"/>
+      <c r="Z168" s="21"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="73">
         <v>331</v>
       </c>
-      <c r="B167" t="s" s="26">
-        <v>369</v>
-      </c>
-      <c r="C167" t="s" s="26">
-        <v>370</v>
-      </c>
-      <c r="D167" s="27"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="68">
+      <c r="B169" t="s" s="74">
+        <v>360</v>
+      </c>
+      <c r="C169" t="s" s="74">
+        <v>361</v>
+      </c>
+      <c r="D169" s="75"/>
+      <c r="E169" s="76"/>
+      <c r="F169" s="77">
         <v>81103</v>
       </c>
-      <c r="G167" t="s" s="29">
-        <v>380</v>
-      </c>
-      <c r="H167" t="s" s="69">
-        <v>381</v>
-      </c>
-      <c r="I167" t="s" s="70">
-        <v>18</v>
-      </c>
-      <c r="J167" s="31"/>
-      <c r="K167" s="31"/>
-      <c r="L167" s="31"/>
-      <c r="M167" s="27"/>
-      <c r="N167" s="27"/>
-      <c r="O167" s="35"/>
-      <c r="P167" s="35"/>
-      <c r="Q167" s="35"/>
-      <c r="R167" s="35"/>
-      <c r="S167" s="35"/>
-      <c r="T167" s="35"/>
-      <c r="U167" s="35"/>
-      <c r="V167" s="35"/>
-      <c r="W167" s="35"/>
-      <c r="X167" s="35"/>
-      <c r="Y167" s="35"/>
-      <c r="Z167" s="36"/>
+      <c r="G169" t="s" s="78">
+        <v>371</v>
+      </c>
+      <c r="H169" t="s" s="79">
+        <v>372</v>
+      </c>
+      <c r="I169" t="s" s="80">
+        <v>18</v>
+      </c>
+      <c r="J169" s="81"/>
+      <c r="K169" s="81"/>
+      <c r="L169" s="81"/>
+      <c r="M169" s="75"/>
+      <c r="N169" s="75"/>
+      <c r="O169" s="82"/>
+      <c r="P169" s="82"/>
+      <c r="Q169" s="82"/>
+      <c r="R169" s="82"/>
+      <c r="S169" s="82"/>
+      <c r="T169" s="82"/>
+      <c r="U169" s="82"/>
+      <c r="V169" s="82"/>
+      <c r="W169" s="82"/>
+      <c r="X169" s="82"/>
+      <c r="Y169" s="82"/>
+      <c r="Z169" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -6726,7 +6726,7 @@
       <c r="D88" s="8"/>
       <c r="E88" s="10"/>
       <c r="F88" s="11">
-        <v>41105</v>
+        <v>41106</v>
       </c>
       <c r="G88" t="s" s="12">
         <v>217</v>

--- a/storage/template/chart_of_accounts_manufacture.xlsx
+++ b/storage/template/chart_of_accounts_manufacture.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\white\code\point\storage\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47041449-A201-4874-9913-5403C3A44DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="6495" yWindow="6480" windowWidth="17250" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MANUFACTURE" sheetId="1" r:id="rId4"/>
+    <sheet name="MANUFACTURE" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="372">
   <si>
     <t>NO</t>
   </si>
@@ -241,9 +250,6 @@
     <t>SUPPLIER</t>
   </si>
   <si>
-    <t xml:space="preserve">INCOME TAX RECEIVABLE </t>
-  </si>
-  <si>
     <t>PPN MASUKAN</t>
   </si>
   <si>
@@ -514,9 +520,6 @@
     <t>Komisi yang Masih Harus Dibayar</t>
   </si>
   <si>
-    <t xml:space="preserve">INCOME TAX PAYABLE </t>
-  </si>
-  <si>
     <t>PPN KELUARAN</t>
   </si>
   <si>
@@ -1130,28 +1133,18 @@
   </si>
   <si>
     <t>Alokasi Dana Annuation</t>
+  </si>
+  <si>
+    <t>INCOME TAX RECEIVABLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -1166,7 +1159,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1515,206 +1508,154 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1723,24 +1664,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1942,7 +1944,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1961,7 +1963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1991,7 +1993,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2017,7 +2019,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2043,7 +2045,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2069,7 +2071,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2095,7 +2097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2121,7 +2123,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2147,7 +2149,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2173,7 +2175,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2199,7 +2201,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2212,9 +2214,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2231,7 +2239,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2250,7 +2258,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2276,7 +2284,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2302,7 +2310,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2328,7 +2336,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2354,7 +2362,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2380,7 +2388,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2406,7 +2414,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2432,7 +2440,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2458,7 +2466,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2484,7 +2492,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2497,9 +2505,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2513,7 +2527,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2532,7 +2546,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2562,7 +2576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2588,7 +2602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2614,7 +2628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2640,7 +2654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2666,7 +2680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2692,7 +2706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2718,7 +2732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2744,7 +2758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2770,7 +2784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2783,86 +2797,97 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z169"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85156" style="1" customWidth="1"/>
-    <col min="2" max="3" width="34.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.35156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.6719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6719" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.3516" style="1" customWidth="1"/>
-    <col min="16" max="26" width="7.85156" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.375" style="1" customWidth="1"/>
+    <col min="16" max="26" width="7.875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="12.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="6">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="7">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="7">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="7">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="7">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="8"/>
@@ -2877,14 +2902,14 @@
       <c r="Y1" s="8"/>
       <c r="Z1" s="8"/>
     </row>
-    <row r="2" ht="15.95" customHeight="1">
+    <row r="2" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="8"/>
@@ -2892,13 +2917,13 @@
       <c r="F2" s="11">
         <v>11101</v>
       </c>
-      <c r="G2" t="s" s="12">
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s" s="13">
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s" s="14">
+      <c r="I2" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="15"/>
@@ -2919,14 +2944,14 @@
       <c r="Y2" s="16"/>
       <c r="Z2" s="16"/>
     </row>
-    <row r="3" ht="15.95" customHeight="1">
+    <row r="3" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="8"/>
@@ -2934,13 +2959,13 @@
       <c r="F3" s="11">
         <v>11199</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s" s="13">
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s" s="14">
+      <c r="I3" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="15"/>
@@ -2961,14 +2986,14 @@
       <c r="Y3" s="16"/>
       <c r="Z3" s="16"/>
     </row>
-    <row r="4" ht="15.95" customHeight="1">
+    <row r="4" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="7">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="8"/>
@@ -2976,13 +3001,13 @@
       <c r="F4" s="11">
         <v>11201</v>
       </c>
-      <c r="G4" t="s" s="12">
+      <c r="G4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s" s="13">
+      <c r="H4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="14">
+      <c r="I4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="15"/>
@@ -3003,14 +3028,14 @@
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
     </row>
-    <row r="5" ht="15.95" customHeight="1">
+    <row r="5" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="8"/>
@@ -3018,13 +3043,13 @@
       <c r="F5" s="11">
         <v>11202</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s" s="13">
+      <c r="H5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I5" t="s" s="14">
+      <c r="I5" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J5" s="15"/>
@@ -3045,14 +3070,14 @@
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
     </row>
-    <row r="6" ht="15.95" customHeight="1">
+    <row r="6" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="7">
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="8"/>
@@ -3060,13 +3085,13 @@
       <c r="F6" s="11">
         <v>11203</v>
       </c>
-      <c r="G6" t="s" s="12">
+      <c r="G6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s" s="13">
+      <c r="H6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I6" t="s" s="14">
+      <c r="I6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="15"/>
@@ -3087,14 +3112,14 @@
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
     </row>
-    <row r="7" ht="15.95" customHeight="1">
+    <row r="7" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>11</v>
       </c>
-      <c r="B7" t="s" s="7">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="7">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="8"/>
@@ -3102,13 +3127,13 @@
       <c r="F7" s="11">
         <v>11204</v>
       </c>
-      <c r="G7" t="s" s="12">
+      <c r="G7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s" s="13">
+      <c r="H7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s" s="14">
+      <c r="I7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J7" s="15"/>
@@ -3129,14 +3154,14 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" ht="15.95" customHeight="1">
+    <row r="8" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>13</v>
       </c>
-      <c r="B8" t="s" s="7">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s" s="7">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="8"/>
@@ -3144,13 +3169,13 @@
       <c r="F8" s="11">
         <v>11205</v>
       </c>
-      <c r="G8" t="s" s="12">
+      <c r="G8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H8" t="s" s="13">
+      <c r="H8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s" s="14">
+      <c r="I8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="15"/>
@@ -3171,14 +3196,14 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" ht="15.95" customHeight="1">
+    <row r="9" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>15</v>
       </c>
-      <c r="B9" t="s" s="7">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s" s="7">
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="8"/>
@@ -3186,13 +3211,13 @@
       <c r="F9" s="11">
         <v>11206</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H9" t="s" s="13">
+      <c r="H9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s" s="14">
+      <c r="I9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="15"/>
@@ -3213,14 +3238,14 @@
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" ht="15.95" customHeight="1">
+    <row r="10" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="17">
+      <c r="B10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C10" t="s" s="7">
+      <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="8"/>
@@ -3228,22 +3253,22 @@
       <c r="F10" s="11">
         <v>11301</v>
       </c>
-      <c r="G10" t="s" s="12">
+      <c r="G10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H10" t="s" s="13">
+      <c r="H10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I10" t="s" s="14">
+      <c r="I10" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
-      <c r="M10" t="b" s="18">
+      <c r="M10" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N10" t="s" s="2">
+      <c r="N10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="O10" s="16"/>
@@ -3259,14 +3284,14 @@
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
     </row>
-    <row r="11" ht="15.95" customHeight="1">
+    <row r="11" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>19</v>
       </c>
-      <c r="B11" t="s" s="19">
+      <c r="B11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s" s="20">
+      <c r="C11" s="20" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="21"/>
@@ -3274,25 +3299,25 @@
       <c r="F11" s="11">
         <v>11401</v>
       </c>
-      <c r="G11" t="s" s="23">
+      <c r="G11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H11" t="s" s="13">
+      <c r="H11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I11" t="s" s="24">
+      <c r="I11" s="24" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
-      <c r="M11" t="b" s="26">
+      <c r="M11" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="N11" t="s" s="27">
+      <c r="N11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="O11" t="b" s="28">
+      <c r="O11" s="28" t="b">
         <v>1</v>
       </c>
       <c r="P11" s="29"/>
@@ -3307,14 +3332,14 @@
       <c r="Y11" s="29"/>
       <c r="Z11" s="29"/>
     </row>
-    <row r="12" ht="15.95" customHeight="1">
+    <row r="12" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="31">
+      <c r="B12" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s" s="32">
+      <c r="C12" s="32" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="33"/>
@@ -3322,13 +3347,13 @@
       <c r="F12" s="11">
         <v>11501</v>
       </c>
-      <c r="G12" t="s" s="35">
+      <c r="G12" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H12" t="s" s="13">
+      <c r="H12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I12" t="s" s="36">
+      <c r="I12" s="36" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="37"/>
@@ -3349,14 +3374,14 @@
       <c r="Y12" s="39"/>
       <c r="Z12" s="40"/>
     </row>
-    <row r="13" ht="15.95" customHeight="1">
+    <row r="13" spans="1:26" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="31">
+      <c r="B13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C13" t="s" s="32">
+      <c r="C13" s="32" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="33"/>
@@ -3364,22 +3389,22 @@
       <c r="F13" s="11">
         <v>11502</v>
       </c>
-      <c r="G13" t="s" s="35">
+      <c r="G13" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H13" t="s" s="13">
+      <c r="H13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I13" t="s" s="36">
+      <c r="I13" s="36" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
-      <c r="M13" t="b" s="41">
+      <c r="M13" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="N13" t="s" s="38">
+      <c r="N13" s="38" t="s">
         <v>43</v>
       </c>
       <c r="O13" s="42"/>
@@ -3395,14 +3420,14 @@
       <c r="Y13" s="39"/>
       <c r="Z13" s="40"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>25</v>
       </c>
-      <c r="B14" t="s" s="43">
+      <c r="B14" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s" s="43">
+      <c r="C14" s="43" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="44"/>
@@ -3410,13 +3435,13 @@
       <c r="F14" s="11">
         <v>11599</v>
       </c>
-      <c r="G14" t="s" s="46">
+      <c r="G14" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H14" t="s" s="13">
+      <c r="H14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I14" t="s" s="47">
+      <c r="I14" s="47" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="48"/>
@@ -3437,14 +3462,14 @@
       <c r="Y14" s="49"/>
       <c r="Z14" s="49"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>27</v>
       </c>
-      <c r="B15" t="s" s="7">
+      <c r="B15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s" s="7">
+      <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="8"/>
@@ -3452,25 +3477,25 @@
       <c r="F15" s="11">
         <v>11601</v>
       </c>
-      <c r="G15" t="s" s="12">
+      <c r="G15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H15" t="s" s="13">
+      <c r="H15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I15" t="s" s="14">
+      <c r="I15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" t="b" s="18">
+      <c r="M15" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="N15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O15" t="b" s="9">
+      <c r="O15" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P15" s="16"/>
@@ -3485,14 +3510,14 @@
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>29</v>
       </c>
-      <c r="B16" t="s" s="7">
+      <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s" s="7">
+      <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="8"/>
@@ -3500,25 +3525,25 @@
       <c r="F16" s="11">
         <v>11602</v>
       </c>
-      <c r="G16" t="s" s="12">
+      <c r="G16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H16" t="s" s="13">
+      <c r="H16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I16" t="s" s="14">
+      <c r="I16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
-      <c r="M16" t="b" s="18">
+      <c r="M16" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="N16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O16" t="b" s="9">
+      <c r="O16" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P16" s="16"/>
@@ -3533,14 +3558,14 @@
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>31</v>
       </c>
-      <c r="B17" t="s" s="7">
+      <c r="B17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s" s="7">
+      <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="8"/>
@@ -3548,25 +3573,25 @@
       <c r="F17" s="11">
         <v>11603</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H17" t="s" s="13">
+      <c r="H17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I17" t="s" s="14">
+      <c r="I17" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
-      <c r="M17" t="b" s="18">
+      <c r="M17" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="N17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O17" t="b" s="9">
+      <c r="O17" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P17" s="16"/>
@@ -3581,14 +3606,14 @@
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>33</v>
       </c>
-      <c r="B18" t="s" s="7">
+      <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s" s="7">
+      <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="8"/>
@@ -3596,25 +3621,25 @@
       <c r="F18" s="11">
         <v>11604</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H18" t="s" s="13">
+      <c r="H18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I18" t="s" s="14">
+      <c r="I18" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
-      <c r="M18" t="b" s="18">
+      <c r="M18" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="N18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O18" t="b" s="9">
+      <c r="O18" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P18" s="16"/>
@@ -3629,14 +3654,14 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>35</v>
       </c>
-      <c r="B19" t="s" s="7">
+      <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s" s="7">
+      <c r="C19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="8"/>
@@ -3644,25 +3669,25 @@
       <c r="F19" s="11">
         <v>11605</v>
       </c>
-      <c r="G19" t="s" s="12">
+      <c r="G19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H19" t="s" s="13">
+      <c r="H19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I19" t="s" s="14">
+      <c r="I19" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
-      <c r="M19" t="b" s="18">
+      <c r="M19" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="N19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O19" t="b" s="9">
+      <c r="O19" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P19" s="16"/>
@@ -3677,14 +3702,14 @@
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>37</v>
       </c>
-      <c r="B20" t="s" s="7">
+      <c r="B20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s" s="7">
+      <c r="C20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="21"/>
@@ -3692,13 +3717,13 @@
       <c r="F20" s="11">
         <v>11699</v>
       </c>
-      <c r="G20" t="s" s="23">
+      <c r="G20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H20" t="s" s="13">
+      <c r="H20" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I20" t="s" s="24">
+      <c r="I20" s="24" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="25"/>
@@ -3719,14 +3744,14 @@
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>39</v>
       </c>
-      <c r="B21" t="s" s="7">
+      <c r="B21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s" s="7">
+      <c r="C21" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D21" s="50"/>
@@ -3734,13 +3759,13 @@
       <c r="F21" s="11">
         <v>11701</v>
       </c>
-      <c r="G21" t="s" s="35">
+      <c r="G21" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H21" t="s" s="13">
+      <c r="H21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I21" t="s" s="36">
+      <c r="I21" s="36" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="37"/>
@@ -3761,14 +3786,14 @@
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>41</v>
       </c>
-      <c r="B22" t="s" s="7">
+      <c r="B22" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C22" t="s" s="7">
+      <c r="C22" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="50"/>
@@ -3776,13 +3801,13 @@
       <c r="F22" s="11">
         <v>11702</v>
       </c>
-      <c r="G22" t="s" s="35">
+      <c r="G22" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H22" t="s" s="13">
+      <c r="H22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I22" t="s" s="36">
+      <c r="I22" s="36" t="s">
         <v>18</v>
       </c>
       <c r="J22" s="37"/>
@@ -3803,14 +3828,14 @@
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>43</v>
       </c>
-      <c r="B23" t="s" s="7">
+      <c r="B23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C23" t="s" s="7">
+      <c r="C23" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="50"/>
@@ -3818,13 +3843,13 @@
       <c r="F23" s="11">
         <v>11703</v>
       </c>
-      <c r="G23" t="s" s="35">
+      <c r="G23" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H23" t="s" s="13">
+      <c r="H23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I23" t="s" s="36">
+      <c r="I23" s="36" t="s">
         <v>18</v>
       </c>
       <c r="J23" s="37"/>
@@ -3845,14 +3870,14 @@
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45</v>
       </c>
-      <c r="B24" t="s" s="7">
+      <c r="B24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s" s="7">
+      <c r="C24" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="44"/>
@@ -3860,13 +3885,13 @@
       <c r="F24" s="11">
         <v>11704</v>
       </c>
-      <c r="G24" t="s" s="52">
+      <c r="G24" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="H24" t="s" s="13">
+      <c r="H24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I24" t="s" s="47">
+      <c r="I24" s="47" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="48"/>
@@ -3887,14 +3912,14 @@
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>47</v>
       </c>
-      <c r="B25" t="s" s="7">
+      <c r="B25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C25" t="s" s="7">
+      <c r="C25" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D25" s="8"/>
@@ -3902,13 +3927,13 @@
       <c r="F25" s="11">
         <v>11705</v>
       </c>
-      <c r="G25" t="s" s="12">
+      <c r="G25" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H25" t="s" s="13">
+      <c r="H25" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I25" t="s" s="14">
+      <c r="I25" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J25" s="15"/>
@@ -3929,14 +3954,14 @@
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>49</v>
       </c>
-      <c r="B26" t="s" s="7">
+      <c r="B26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s" s="20">
+      <c r="C26" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="21"/>
@@ -3944,25 +3969,25 @@
       <c r="F26" s="11">
         <v>11706</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H26" t="s" s="13">
+      <c r="H26" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I26" t="s" s="24">
+      <c r="I26" s="24" t="s">
         <v>18</v>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
-      <c r="M26" t="b" s="26">
+      <c r="M26" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="N26" t="s" s="27">
+      <c r="N26" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="O26" t="b" s="9">
+      <c r="O26" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P26" s="29"/>
@@ -3977,28 +4002,28 @@
       <c r="Y26" s="29"/>
       <c r="Z26" s="29"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>51</v>
       </c>
-      <c r="B27" t="s" s="20">
+      <c r="B27" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" s="53" t="s">
         <v>76</v>
-      </c>
-      <c r="C27" t="s" s="53">
-        <v>77</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="34"/>
       <c r="F27" s="54">
         <v>11707</v>
       </c>
-      <c r="G27" t="s" s="55">
-        <v>76</v>
-      </c>
-      <c r="H27" t="s" s="13">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="36">
+      <c r="G27" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="36" t="s">
         <v>18</v>
       </c>
       <c r="J27" s="37"/>
@@ -4006,7 +4031,7 @@
       <c r="L27" s="37"/>
       <c r="M27" s="38"/>
       <c r="N27" s="56"/>
-      <c r="O27" t="b" s="28">
+      <c r="O27" s="28" t="b">
         <v>1</v>
       </c>
       <c r="P27" s="57"/>
@@ -4021,14 +4046,14 @@
       <c r="Y27" s="39"/>
       <c r="Z27" s="40"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>53</v>
       </c>
-      <c r="B28" t="s" s="43">
+      <c r="B28" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C28" t="s" s="43">
+      <c r="C28" s="43" t="s">
         <v>61</v>
       </c>
       <c r="D28" s="44"/>
@@ -4036,13 +4061,13 @@
       <c r="F28" s="11">
         <v>11708</v>
       </c>
-      <c r="G28" t="s" s="52">
+      <c r="G28" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H28" t="s" s="13">
-        <v>80</v>
-      </c>
-      <c r="I28" t="s" s="47">
+      <c r="I28" s="47" t="s">
         <v>18</v>
       </c>
       <c r="J28" s="48"/>
@@ -4063,14 +4088,14 @@
       <c r="Y28" s="49"/>
       <c r="Z28" s="49"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>55</v>
       </c>
-      <c r="B29" t="s" s="7">
+      <c r="B29" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C29" t="s" s="7">
+      <c r="C29" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="8"/>
@@ -4078,13 +4103,13 @@
       <c r="F29" s="11">
         <v>11709</v>
       </c>
-      <c r="G29" t="s" s="12">
+      <c r="G29" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H29" t="s" s="13">
-        <v>82</v>
-      </c>
-      <c r="I29" t="s" s="14">
+      <c r="I29" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J29" s="15"/>
@@ -4105,14 +4130,14 @@
       <c r="Y29" s="16"/>
       <c r="Z29" s="16"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>57</v>
       </c>
-      <c r="B30" t="s" s="7">
+      <c r="B30" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C30" t="s" s="7">
+      <c r="C30" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="8"/>
@@ -4120,13 +4145,13 @@
       <c r="F30" s="11">
         <v>11799</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G30" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H30" t="s" s="13">
-        <v>84</v>
-      </c>
-      <c r="I30" t="s" s="14">
+      <c r="I30" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J30" s="15"/>
@@ -4147,40 +4172,40 @@
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>59</v>
       </c>
-      <c r="B31" t="s" s="7">
+      <c r="B31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C31" t="s" s="7">
-        <v>86</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11">
         <v>12101</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H31" t="s" s="13">
-        <v>88</v>
-      </c>
-      <c r="I31" t="s" s="14">
+      <c r="I31" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" t="b" s="18">
+      <c r="M31" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O31" t="b" s="9">
+      <c r="N31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P31" s="16"/>
@@ -4195,40 +4220,40 @@
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>61</v>
       </c>
-      <c r="B32" t="s" s="7">
+      <c r="B32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C32" t="s" s="7">
-        <v>86</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="10"/>
       <c r="F32" s="11">
         <v>12201</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H32" t="s" s="13">
-        <v>90</v>
-      </c>
-      <c r="I32" t="s" s="14">
+      <c r="I32" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" t="b" s="18">
+      <c r="M32" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O32" t="b" s="9">
+      <c r="N32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O32" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P32" s="16"/>
@@ -4243,40 +4268,40 @@
       <c r="Y32" s="16"/>
       <c r="Z32" s="16"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>63</v>
       </c>
-      <c r="B33" t="s" s="7">
+      <c r="B33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C33" t="s" s="7">
-        <v>92</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="10"/>
       <c r="F33" s="11">
         <v>12202</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H33" t="s" s="13">
+      <c r="I33" s="14" t="s">
         <v>94</v>
-      </c>
-      <c r="I33" t="s" s="14">
-        <v>95</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" t="b" s="18">
+      <c r="M33" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O33" t="b" s="9">
+      <c r="N33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P33" s="16"/>
@@ -4291,40 +4316,40 @@
       <c r="Y33" s="16"/>
       <c r="Z33" s="16"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>65</v>
       </c>
-      <c r="B34" t="s" s="7">
+      <c r="B34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C34" t="s" s="7">
-        <v>86</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="10"/>
       <c r="F34" s="11">
         <v>12301</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H34" t="s" s="13">
-        <v>97</v>
-      </c>
-      <c r="I34" t="s" s="14">
+      <c r="I34" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-      <c r="M34" t="b" s="18">
+      <c r="M34" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O34" t="b" s="9">
+      <c r="N34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O34" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P34" s="16"/>
@@ -4339,40 +4364,40 @@
       <c r="Y34" s="16"/>
       <c r="Z34" s="16"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>67</v>
       </c>
-      <c r="B35" t="s" s="7">
+      <c r="B35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C35" t="s" s="7">
-        <v>92</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="10"/>
       <c r="F35" s="11">
         <v>12302</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H35" t="s" s="13">
-        <v>99</v>
-      </c>
-      <c r="I35" t="s" s="14">
-        <v>95</v>
+      <c r="I35" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" t="b" s="18">
+      <c r="M35" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O35" t="b" s="9">
+      <c r="N35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O35" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P35" s="16"/>
@@ -4387,40 +4412,40 @@
       <c r="Y35" s="16"/>
       <c r="Z35" s="16"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>69</v>
       </c>
-      <c r="B36" t="s" s="7">
+      <c r="B36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C36" t="s" s="7">
-        <v>86</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="10"/>
       <c r="F36" s="11">
         <v>12401</v>
       </c>
-      <c r="G36" t="s" s="12">
+      <c r="G36" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H36" t="s" s="13">
-        <v>101</v>
-      </c>
-      <c r="I36" t="s" s="14">
+      <c r="I36" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" t="b" s="18">
+      <c r="M36" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O36" t="b" s="9">
+      <c r="N36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O36" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P36" s="16"/>
@@ -4435,40 +4460,40 @@
       <c r="Y36" s="16"/>
       <c r="Z36" s="16"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>71</v>
       </c>
-      <c r="B37" t="s" s="7">
+      <c r="B37" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C37" t="s" s="7">
-        <v>92</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="10"/>
       <c r="F37" s="11">
         <v>12402</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H37" t="s" s="13">
-        <v>103</v>
-      </c>
-      <c r="I37" t="s" s="14">
-        <v>95</v>
+      <c r="I37" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-      <c r="M37" t="b" s="18">
+      <c r="M37" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O37" t="b" s="9">
+      <c r="N37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O37" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P37" s="16"/>
@@ -4483,40 +4508,40 @@
       <c r="Y37" s="16"/>
       <c r="Z37" s="16"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>73</v>
       </c>
-      <c r="B38" t="s" s="7">
+      <c r="B38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C38" t="s" s="7">
-        <v>86</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="11">
         <v>12501</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H38" t="s" s="13">
-        <v>105</v>
-      </c>
-      <c r="I38" t="s" s="14">
+      <c r="I38" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" t="b" s="18">
+      <c r="M38" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O38" t="b" s="9">
+      <c r="N38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O38" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P38" s="16"/>
@@ -4531,40 +4556,40 @@
       <c r="Y38" s="16"/>
       <c r="Z38" s="16"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>75</v>
       </c>
-      <c r="B39" t="s" s="7">
+      <c r="B39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" t="s" s="7">
-        <v>92</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="10"/>
       <c r="F39" s="11">
         <v>12502</v>
       </c>
-      <c r="G39" t="s" s="12">
+      <c r="G39" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H39" t="s" s="13">
-        <v>107</v>
-      </c>
-      <c r="I39" t="s" s="14">
-        <v>95</v>
+      <c r="I39" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="M39" t="b" s="18">
+      <c r="M39" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O39" t="b" s="9">
+      <c r="N39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O39" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P39" s="16"/>
@@ -4579,40 +4604,40 @@
       <c r="Y39" s="16"/>
       <c r="Z39" s="16"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>77</v>
       </c>
-      <c r="B40" t="s" s="7">
+      <c r="B40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C40" t="s" s="7">
-        <v>86</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
       <c r="F40" s="11">
         <v>12601</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H40" t="s" s="13">
-        <v>109</v>
-      </c>
-      <c r="I40" t="s" s="14">
+      <c r="I40" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" t="b" s="18">
+      <c r="M40" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O40" t="b" s="9">
+      <c r="N40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O40" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P40" s="16"/>
@@ -4627,40 +4652,40 @@
       <c r="Y40" s="16"/>
       <c r="Z40" s="16"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>79</v>
       </c>
-      <c r="B41" t="s" s="7">
+      <c r="B41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C41" t="s" s="7">
-        <v>92</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="10"/>
       <c r="F41" s="11">
         <v>12602</v>
       </c>
-      <c r="G41" t="s" s="12">
+      <c r="G41" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H41" t="s" s="13">
-        <v>111</v>
-      </c>
-      <c r="I41" t="s" s="14">
-        <v>95</v>
+      <c r="I41" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" t="b" s="18">
+      <c r="M41" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O41" t="b" s="9">
+      <c r="N41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O41" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P41" s="16"/>
@@ -4675,40 +4700,40 @@
       <c r="Y41" s="16"/>
       <c r="Z41" s="16"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>81</v>
       </c>
-      <c r="B42" t="s" s="7">
+      <c r="B42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C42" t="s" s="7">
-        <v>86</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="10"/>
       <c r="F42" s="11">
         <v>12701</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H42" t="s" s="13">
-        <v>113</v>
-      </c>
-      <c r="I42" t="s" s="14">
+      <c r="I42" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" t="b" s="18">
+      <c r="M42" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O42" t="b" s="9">
+      <c r="N42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O42" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P42" s="16"/>
@@ -4723,40 +4748,40 @@
       <c r="Y42" s="16"/>
       <c r="Z42" s="16"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>83</v>
       </c>
-      <c r="B43" t="s" s="7">
+      <c r="B43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C43" t="s" s="7">
-        <v>92</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11">
         <v>12702</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H43" t="s" s="13">
-        <v>115</v>
-      </c>
-      <c r="I43" t="s" s="14">
-        <v>95</v>
+      <c r="I43" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" t="b" s="18">
+      <c r="M43" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O43" t="b" s="9">
+      <c r="N43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O43" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P43" s="16"/>
@@ -4771,40 +4796,40 @@
       <c r="Y43" s="16"/>
       <c r="Z43" s="16"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>85</v>
       </c>
-      <c r="B44" t="s" s="7">
+      <c r="B44" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C44" t="s" s="7">
-        <v>86</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11">
         <v>12801</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H44" t="s" s="13">
-        <v>117</v>
-      </c>
-      <c r="I44" t="s" s="14">
+      <c r="I44" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J44" s="15"/>
       <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" t="b" s="18">
+      <c r="M44" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O44" t="b" s="9">
+      <c r="N44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O44" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P44" s="16"/>
@@ -4819,40 +4844,40 @@
       <c r="Y44" s="16"/>
       <c r="Z44" s="16"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>87</v>
       </c>
-      <c r="B45" t="s" s="7">
+      <c r="B45" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C45" t="s" s="7">
-        <v>92</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="10"/>
       <c r="F45" s="11">
         <v>12802</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="H45" t="s" s="13">
-        <v>119</v>
-      </c>
-      <c r="I45" t="s" s="14">
-        <v>95</v>
+      <c r="I45" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-      <c r="M45" t="b" s="18">
+      <c r="M45" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O45" t="b" s="9">
+      <c r="N45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O45" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P45" s="16"/>
@@ -4867,40 +4892,40 @@
       <c r="Y45" s="16"/>
       <c r="Z45" s="16"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>89</v>
       </c>
-      <c r="B46" t="s" s="7">
+      <c r="B46" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C46" t="s" s="7">
-        <v>86</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="10"/>
       <c r="F46" s="11">
         <v>12901</v>
       </c>
-      <c r="G46" t="s" s="12">
+      <c r="G46" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H46" t="s" s="13">
-        <v>121</v>
-      </c>
-      <c r="I46" t="s" s="14">
+      <c r="I46" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J46" s="15"/>
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
-      <c r="M46" t="b" s="18">
+      <c r="M46" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O46" t="b" s="9">
+      <c r="N46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O46" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P46" s="16"/>
@@ -4915,40 +4940,40 @@
       <c r="Y46" s="16"/>
       <c r="Z46" s="16"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>91</v>
       </c>
-      <c r="B47" t="s" s="7">
+      <c r="B47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C47" t="s" s="7">
-        <v>92</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="10"/>
       <c r="F47" s="11">
         <v>12902</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H47" t="s" s="13">
-        <v>123</v>
-      </c>
-      <c r="I47" t="s" s="14">
-        <v>95</v>
+      <c r="I47" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J47" s="15"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
-      <c r="M47" t="b" s="18">
+      <c r="M47" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N47" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O47" t="b" s="9">
+      <c r="N47" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O47" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P47" s="16"/>
@@ -4963,40 +4988,40 @@
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>93</v>
       </c>
-      <c r="B48" t="s" s="7">
+      <c r="B48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C48" t="s" s="7">
-        <v>86</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="10"/>
       <c r="F48" s="11">
         <v>13001</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H48" t="s" s="13">
-        <v>125</v>
-      </c>
-      <c r="I48" t="s" s="14">
+      <c r="I48" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J48" s="15"/>
       <c r="K48" s="15"/>
       <c r="L48" s="15"/>
-      <c r="M48" t="b" s="18">
+      <c r="M48" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O48" t="b" s="9">
+      <c r="N48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O48" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P48" s="16"/>
@@ -5011,40 +5036,40 @@
       <c r="Y48" s="16"/>
       <c r="Z48" s="16"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>95</v>
       </c>
-      <c r="B49" t="s" s="7">
+      <c r="B49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C49" t="s" s="7">
-        <v>92</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="10"/>
       <c r="F49" s="11">
         <v>13002</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H49" t="s" s="13">
-        <v>127</v>
-      </c>
-      <c r="I49" t="s" s="14">
-        <v>95</v>
+      <c r="I49" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
-      <c r="M49" t="b" s="18">
+      <c r="M49" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O49" t="b" s="9">
+      <c r="N49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O49" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P49" s="16"/>
@@ -5059,40 +5084,40 @@
       <c r="Y49" s="16"/>
       <c r="Z49" s="16"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>97</v>
       </c>
-      <c r="B50" t="s" s="7">
+      <c r="B50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="C50" t="s" s="7">
-        <v>86</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="10"/>
       <c r="F50" s="11">
         <v>13101</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H50" t="s" s="13">
-        <v>129</v>
-      </c>
-      <c r="I50" t="s" s="14">
+      <c r="I50" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J50" s="15"/>
       <c r="K50" s="15"/>
       <c r="L50" s="15"/>
-      <c r="M50" t="b" s="18">
+      <c r="M50" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O50" t="b" s="9">
+      <c r="N50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O50" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P50" s="16"/>
@@ -5107,40 +5132,40 @@
       <c r="Y50" s="16"/>
       <c r="Z50" s="16"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>99</v>
       </c>
-      <c r="B51" t="s" s="7">
+      <c r="B51" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C51" t="s" s="7">
-        <v>92</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="10"/>
       <c r="F51" s="11">
         <v>13102</v>
       </c>
-      <c r="G51" t="s" s="12">
+      <c r="G51" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H51" t="s" s="13">
-        <v>131</v>
-      </c>
-      <c r="I51" t="s" s="14">
-        <v>95</v>
+      <c r="I51" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J51" s="15"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
-      <c r="M51" t="b" s="18">
+      <c r="M51" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="O51" t="b" s="9">
+      <c r="N51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O51" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P51" s="16"/>
@@ -5155,40 +5180,40 @@
       <c r="Y51" s="16"/>
       <c r="Z51" s="16"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>101</v>
       </c>
-      <c r="B52" t="s" s="7">
+      <c r="B52" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="C52" t="s" s="7">
-        <v>133</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="10"/>
       <c r="F52" s="11">
         <v>21101</v>
       </c>
-      <c r="G52" t="s" s="12">
-        <v>132</v>
-      </c>
-      <c r="H52" t="s" s="13">
-        <v>134</v>
-      </c>
-      <c r="I52" t="s" s="14">
-        <v>95</v>
+      <c r="G52" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J52" s="15"/>
       <c r="K52" s="15"/>
       <c r="L52" s="15"/>
-      <c r="M52" t="b" s="18">
+      <c r="M52" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="N52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O52" t="b" s="9">
+      <c r="O52" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P52" s="16"/>
@@ -5203,40 +5228,40 @@
       <c r="Y52" s="16"/>
       <c r="Z52" s="16"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>103</v>
       </c>
-      <c r="B53" t="s" s="7">
+      <c r="B53" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="C53" t="s" s="7">
-        <v>136</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="10"/>
       <c r="F53" s="11">
         <v>21201</v>
       </c>
-      <c r="G53" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="H53" t="s" s="13">
-        <v>137</v>
-      </c>
-      <c r="I53" t="s" s="14">
-        <v>95</v>
+      <c r="G53" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J53" s="15"/>
       <c r="K53" s="15"/>
       <c r="L53" s="15"/>
-      <c r="M53" t="b" s="18">
+      <c r="M53" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="N53" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O53" t="b" s="9">
+      <c r="O53" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P53" s="16"/>
@@ -5251,40 +5276,40 @@
       <c r="Y53" s="16"/>
       <c r="Z53" s="16"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>105</v>
       </c>
-      <c r="B54" t="s" s="17">
+      <c r="B54" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="C54" t="s" s="20">
-        <v>139</v>
       </c>
       <c r="D54" s="21"/>
       <c r="E54" s="22"/>
       <c r="F54" s="11">
         <v>21301</v>
       </c>
-      <c r="G54" t="s" s="23">
+      <c r="G54" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H54" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H54" t="s" s="13">
-        <v>141</v>
-      </c>
-      <c r="I54" t="s" s="24">
-        <v>95</v>
+      <c r="I54" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
-      <c r="M54" t="b" s="26">
+      <c r="M54" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="N54" t="s" s="27">
-        <v>142</v>
-      </c>
-      <c r="O54" t="b" s="28">
+      <c r="N54" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="O54" s="28" t="b">
         <v>1</v>
       </c>
       <c r="P54" s="29"/>
@@ -5299,29 +5324,29 @@
       <c r="Y54" s="29"/>
       <c r="Z54" s="29"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>107</v>
       </c>
-      <c r="B55" t="s" s="17">
-        <v>138</v>
-      </c>
-      <c r="C55" t="s" s="53">
-        <v>143</v>
+      <c r="B55" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="34"/>
       <c r="F55" s="11">
         <v>21302</v>
       </c>
-      <c r="G55" t="s" s="58">
+      <c r="G55" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="H55" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="H55" t="s" s="13">
-        <v>145</v>
-      </c>
-      <c r="I55" t="s" s="36">
-        <v>95</v>
+      <c r="I55" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J55" s="37"/>
       <c r="K55" s="37"/>
@@ -5341,29 +5366,29 @@
       <c r="Y55" s="39"/>
       <c r="Z55" s="40"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>109</v>
       </c>
-      <c r="B56" t="s" s="17">
-        <v>138</v>
-      </c>
-      <c r="C56" t="s" s="53">
-        <v>146</v>
+      <c r="B56" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>145</v>
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="34"/>
       <c r="F56" s="11">
         <v>21401</v>
       </c>
-      <c r="G56" t="s" s="35">
+      <c r="G56" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H56" t="s" s="13">
-        <v>148</v>
-      </c>
-      <c r="I56" t="s" s="36">
-        <v>95</v>
+      <c r="I56" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J56" s="37"/>
       <c r="K56" s="37"/>
@@ -5383,40 +5408,40 @@
       <c r="Y56" s="39"/>
       <c r="Z56" s="40"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>111</v>
       </c>
-      <c r="B57" t="s" s="17">
-        <v>138</v>
-      </c>
-      <c r="C57" t="s" s="53">
-        <v>149</v>
+      <c r="B57" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="53" t="s">
+        <v>148</v>
       </c>
       <c r="D57" s="33"/>
       <c r="E57" s="34"/>
       <c r="F57" s="11">
         <v>21402</v>
       </c>
-      <c r="G57" t="s" s="58">
+      <c r="G57" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H57" t="s" s="13">
-        <v>151</v>
-      </c>
-      <c r="I57" t="s" s="36">
-        <v>95</v>
+      <c r="I57" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J57" s="37"/>
       <c r="K57" s="37"/>
       <c r="L57" s="37"/>
-      <c r="M57" t="b" s="41">
+      <c r="M57" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="N57" t="s" s="38">
+      <c r="N57" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="O57" t="b" s="59">
+      <c r="O57" s="59" t="b">
         <v>1</v>
       </c>
       <c r="P57" s="39"/>
@@ -5431,29 +5456,29 @@
       <c r="Y57" s="39"/>
       <c r="Z57" s="40"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>113</v>
       </c>
-      <c r="B58" t="s" s="17">
-        <v>138</v>
-      </c>
-      <c r="C58" t="s" s="53">
-        <v>146</v>
+      <c r="B58" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="53" t="s">
+        <v>145</v>
       </c>
       <c r="D58" s="33"/>
       <c r="E58" s="34"/>
       <c r="F58" s="11">
         <v>21404</v>
       </c>
-      <c r="G58" t="s" s="35">
-        <v>147</v>
-      </c>
-      <c r="H58" t="s" s="13">
-        <v>152</v>
-      </c>
-      <c r="I58" t="s" s="36">
-        <v>95</v>
+      <c r="G58" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I58" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J58" s="37"/>
       <c r="K58" s="37"/>
@@ -5473,29 +5498,29 @@
       <c r="Y58" s="39"/>
       <c r="Z58" s="40"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>115</v>
       </c>
-      <c r="B59" t="s" s="17">
-        <v>138</v>
-      </c>
-      <c r="C59" t="s" s="53">
-        <v>153</v>
+      <c r="B59" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="53" t="s">
+        <v>152</v>
       </c>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
       <c r="F59" s="11">
         <v>21405</v>
       </c>
-      <c r="G59" t="s" s="58">
+      <c r="G59" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="H59" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H59" t="s" s="13">
-        <v>155</v>
-      </c>
-      <c r="I59" t="s" s="36">
-        <v>95</v>
+      <c r="I59" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J59" s="37"/>
       <c r="K59" s="37"/>
@@ -5515,29 +5540,29 @@
       <c r="Y59" s="39"/>
       <c r="Z59" s="40"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>117</v>
       </c>
-      <c r="B60" t="s" s="17">
-        <v>138</v>
-      </c>
-      <c r="C60" t="s" s="53">
-        <v>146</v>
+      <c r="B60" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>145</v>
       </c>
       <c r="D60" s="33"/>
       <c r="E60" s="34"/>
       <c r="F60" s="11">
         <v>21406</v>
       </c>
-      <c r="G60" t="s" s="35">
-        <v>147</v>
-      </c>
-      <c r="H60" t="s" s="13">
-        <v>156</v>
-      </c>
-      <c r="I60" t="s" s="36">
-        <v>95</v>
+      <c r="G60" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I60" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J60" s="37"/>
       <c r="K60" s="37"/>
@@ -5557,29 +5582,29 @@
       <c r="Y60" s="39"/>
       <c r="Z60" s="40"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>119</v>
       </c>
-      <c r="B61" t="s" s="17">
-        <v>138</v>
-      </c>
-      <c r="C61" t="s" s="43">
-        <v>157</v>
+      <c r="B61" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>156</v>
       </c>
       <c r="D61" s="44"/>
       <c r="E61" s="45"/>
       <c r="F61" s="11">
         <v>21499</v>
       </c>
-      <c r="G61" t="s" s="52">
-        <v>138</v>
-      </c>
-      <c r="H61" t="s" s="13">
-        <v>158</v>
-      </c>
-      <c r="I61" t="s" s="47">
-        <v>95</v>
+      <c r="G61" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I61" s="47" t="s">
+        <v>94</v>
       </c>
       <c r="J61" s="48"/>
       <c r="K61" s="48"/>
@@ -5599,29 +5624,29 @@
       <c r="Y61" s="49"/>
       <c r="Z61" s="49"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>121</v>
       </c>
-      <c r="B62" t="s" s="19">
-        <v>138</v>
-      </c>
-      <c r="C62" t="s" s="20">
-        <v>157</v>
+      <c r="B62" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="22"/>
       <c r="F62" s="11">
         <v>21501</v>
       </c>
-      <c r="G62" t="s" s="23">
+      <c r="G62" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H62" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="H62" t="s" s="13">
-        <v>160</v>
-      </c>
-      <c r="I62" t="s" s="24">
-        <v>95</v>
+      <c r="I62" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
@@ -5641,29 +5666,29 @@
       <c r="Y62" s="29"/>
       <c r="Z62" s="29"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30">
         <v>123</v>
       </c>
-      <c r="B63" t="s" s="32">
-        <v>138</v>
-      </c>
-      <c r="C63" t="s" s="32">
-        <v>157</v>
+      <c r="B63" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D63" s="33"/>
       <c r="E63" s="34"/>
       <c r="F63" s="11">
         <v>21502</v>
       </c>
-      <c r="G63" t="s" s="35">
+      <c r="G63" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="H63" t="s" s="13">
-        <v>162</v>
-      </c>
-      <c r="I63" t="s" s="36">
-        <v>95</v>
+      <c r="I63" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J63" s="37"/>
       <c r="K63" s="37"/>
@@ -5683,29 +5708,29 @@
       <c r="Y63" s="39"/>
       <c r="Z63" s="40"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30">
         <v>125</v>
       </c>
-      <c r="B64" t="s" s="32">
-        <v>138</v>
-      </c>
-      <c r="C64" t="s" s="32">
-        <v>157</v>
+      <c r="B64" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="34"/>
       <c r="F64" s="11">
         <v>21503</v>
       </c>
-      <c r="G64" t="s" s="35">
+      <c r="G64" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="H64" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H64" t="s" s="13">
-        <v>164</v>
-      </c>
-      <c r="I64" t="s" s="36">
-        <v>95</v>
+      <c r="I64" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J64" s="37"/>
       <c r="K64" s="37"/>
@@ -5725,29 +5750,29 @@
       <c r="Y64" s="39"/>
       <c r="Z64" s="40"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30">
         <v>127</v>
       </c>
-      <c r="B65" t="s" s="32">
-        <v>138</v>
-      </c>
-      <c r="C65" t="s" s="32">
-        <v>157</v>
+      <c r="B65" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D65" s="33"/>
       <c r="E65" s="34"/>
       <c r="F65" s="11">
         <v>21504</v>
       </c>
-      <c r="G65" t="s" s="35">
-        <v>159</v>
-      </c>
-      <c r="H65" t="s" s="13">
-        <v>165</v>
-      </c>
-      <c r="I65" t="s" s="36">
-        <v>95</v>
+      <c r="G65" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I65" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J65" s="37"/>
       <c r="K65" s="37"/>
@@ -5767,29 +5792,29 @@
       <c r="Y65" s="39"/>
       <c r="Z65" s="40"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30">
         <v>129</v>
       </c>
-      <c r="B66" t="s" s="32">
-        <v>138</v>
-      </c>
-      <c r="C66" t="s" s="32">
-        <v>157</v>
+      <c r="B66" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="D66" s="33"/>
       <c r="E66" s="34"/>
       <c r="F66" s="11">
         <v>21505</v>
       </c>
-      <c r="G66" t="s" s="35">
-        <v>159</v>
-      </c>
-      <c r="H66" t="s" s="13">
-        <v>166</v>
-      </c>
-      <c r="I66" t="s" s="36">
-        <v>95</v>
+      <c r="G66" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I66" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J66" s="37"/>
       <c r="K66" s="37"/>
@@ -5809,36 +5834,36 @@
       <c r="Y66" s="39"/>
       <c r="Z66" s="40"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30">
         <v>131</v>
       </c>
-      <c r="B67" t="s" s="32">
-        <v>167</v>
-      </c>
-      <c r="C67" t="s" s="32">
-        <v>168</v>
+      <c r="B67" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>166</v>
       </c>
       <c r="D67" s="33"/>
       <c r="E67" s="34"/>
       <c r="F67" s="11">
         <v>21506</v>
       </c>
-      <c r="G67" t="s" s="58">
+      <c r="G67" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="H67" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="H67" t="s" s="13">
-        <v>169</v>
-      </c>
-      <c r="I67" t="s" s="36">
-        <v>95</v>
+      <c r="I67" s="36" t="s">
+        <v>94</v>
       </c>
       <c r="J67" s="37"/>
       <c r="K67" s="37"/>
       <c r="L67" s="37"/>
       <c r="M67" s="38"/>
       <c r="N67" s="38"/>
-      <c r="O67" t="b" s="59">
+      <c r="O67" s="59" t="b">
         <v>1</v>
       </c>
       <c r="P67" s="39"/>
@@ -5853,29 +5878,29 @@
       <c r="Y67" s="39"/>
       <c r="Z67" s="40"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>133</v>
       </c>
-      <c r="B68" t="s" s="43">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s" s="43">
-        <v>157</v>
+      <c r="B68" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>156</v>
       </c>
       <c r="D68" s="44"/>
       <c r="E68" s="45"/>
       <c r="F68" s="11">
         <v>21507</v>
       </c>
-      <c r="G68" t="s" s="52">
-        <v>170</v>
-      </c>
-      <c r="H68" t="s" s="13">
-        <v>171</v>
-      </c>
-      <c r="I68" t="s" s="47">
-        <v>95</v>
+      <c r="G68" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I68" s="47" t="s">
+        <v>94</v>
       </c>
       <c r="J68" s="48"/>
       <c r="K68" s="48"/>
@@ -5895,29 +5920,29 @@
       <c r="Y68" s="49"/>
       <c r="Z68" s="49"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>135</v>
       </c>
-      <c r="B69" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="C69" t="s" s="7">
-        <v>157</v>
+      <c r="B69" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="10"/>
       <c r="F69" s="11">
         <v>21508</v>
       </c>
-      <c r="G69" t="s" s="12">
-        <v>172</v>
-      </c>
-      <c r="H69" t="s" s="13">
-        <v>173</v>
-      </c>
-      <c r="I69" t="s" s="14">
-        <v>95</v>
+      <c r="G69" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
@@ -5937,29 +5962,29 @@
       <c r="Y69" s="16"/>
       <c r="Z69" s="16"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>137</v>
       </c>
-      <c r="B70" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="C70" t="s" s="7">
-        <v>157</v>
+      <c r="B70" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="10"/>
       <c r="F70" s="11">
         <v>21509</v>
       </c>
-      <c r="G70" t="s" s="12">
-        <v>174</v>
-      </c>
-      <c r="H70" t="s" s="13">
-        <v>175</v>
-      </c>
-      <c r="I70" t="s" s="14">
-        <v>95</v>
+      <c r="G70" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I70" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
@@ -5979,29 +6004,29 @@
       <c r="Y70" s="16"/>
       <c r="Z70" s="16"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>139</v>
       </c>
-      <c r="B71" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="C71" t="s" s="7">
-        <v>157</v>
+      <c r="B71" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="10"/>
       <c r="F71" s="11">
         <v>2151</v>
       </c>
-      <c r="G71" t="s" s="12">
-        <v>176</v>
-      </c>
-      <c r="H71" t="s" s="13">
-        <v>177</v>
-      </c>
-      <c r="I71" t="s" s="14">
-        <v>95</v>
+      <c r="G71" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I71" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
@@ -6021,29 +6046,29 @@
       <c r="Y71" s="16"/>
       <c r="Z71" s="16"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>141</v>
       </c>
-      <c r="B72" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="C72" t="s" s="7">
-        <v>157</v>
+      <c r="B72" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="10"/>
       <c r="F72" s="11">
         <v>21511</v>
       </c>
-      <c r="G72" t="s" s="12">
-        <v>178</v>
-      </c>
-      <c r="H72" t="s" s="13">
-        <v>179</v>
-      </c>
-      <c r="I72" t="s" s="14">
-        <v>95</v>
+      <c r="G72" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
@@ -6063,29 +6088,29 @@
       <c r="Y72" s="16"/>
       <c r="Z72" s="16"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>143</v>
       </c>
-      <c r="B73" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="C73" t="s" s="7">
-        <v>157</v>
+      <c r="B73" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="10"/>
       <c r="F73" s="11">
         <v>21512</v>
       </c>
-      <c r="G73" t="s" s="12">
-        <v>180</v>
-      </c>
-      <c r="H73" t="s" s="13">
-        <v>181</v>
-      </c>
-      <c r="I73" t="s" s="14">
-        <v>95</v>
+      <c r="G73" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I73" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
@@ -6105,29 +6130,29 @@
       <c r="Y73" s="16"/>
       <c r="Z73" s="16"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>145</v>
       </c>
-      <c r="B74" t="s" s="7">
-        <v>138</v>
-      </c>
-      <c r="C74" t="s" s="7">
-        <v>157</v>
+      <c r="B74" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="10"/>
       <c r="F74" s="11">
         <v>21599</v>
       </c>
-      <c r="G74" t="s" s="12">
-        <v>182</v>
-      </c>
-      <c r="H74" t="s" s="13">
-        <v>183</v>
-      </c>
-      <c r="I74" t="s" s="14">
-        <v>95</v>
+      <c r="G74" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I74" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
@@ -6147,40 +6172,40 @@
       <c r="Y74" s="16"/>
       <c r="Z74" s="16"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>147</v>
       </c>
-      <c r="B75" t="s" s="7">
-        <v>184</v>
-      </c>
-      <c r="C75" t="s" s="7">
-        <v>185</v>
+      <c r="B75" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="10"/>
       <c r="F75" s="11">
         <v>21601</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H75" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="H75" t="s" s="13">
-        <v>186</v>
-      </c>
-      <c r="I75" t="s" s="14">
-        <v>95</v>
+      <c r="I75" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
       <c r="L75" s="15"/>
-      <c r="M75" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O75" t="b" s="9">
+      <c r="M75" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O75" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P75" s="16"/>
@@ -6195,29 +6220,29 @@
       <c r="Y75" s="16"/>
       <c r="Z75" s="16"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>149</v>
       </c>
-      <c r="B76" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="C76" t="s" s="7">
+      <c r="B76" s="7" t="s">
         <v>146</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="10"/>
       <c r="F76" s="11">
         <v>22101</v>
       </c>
-      <c r="G76" t="s" s="12">
-        <v>147</v>
-      </c>
-      <c r="H76" t="s" s="13">
-        <v>189</v>
-      </c>
-      <c r="I76" t="s" s="14">
-        <v>95</v>
+      <c r="G76" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
@@ -6237,29 +6262,29 @@
       <c r="Y76" s="16"/>
       <c r="Z76" s="16"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>151</v>
       </c>
-      <c r="B77" t="s" s="7">
-        <v>190</v>
-      </c>
-      <c r="C77" t="s" s="7">
-        <v>191</v>
+      <c r="B77" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="10"/>
       <c r="F77" s="11">
         <v>31100</v>
       </c>
-      <c r="G77" t="s" s="12">
-        <v>192</v>
-      </c>
-      <c r="H77" t="s" s="13">
-        <v>193</v>
-      </c>
-      <c r="I77" t="s" s="14">
-        <v>95</v>
+      <c r="G77" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
@@ -6279,28 +6304,28 @@
       <c r="Y77" s="16"/>
       <c r="Z77" s="16"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>153</v>
       </c>
-      <c r="B78" t="s" s="7">
-        <v>194</v>
-      </c>
-      <c r="C78" t="s" s="7">
-        <v>195</v>
+      <c r="B78" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="10"/>
       <c r="F78" s="11">
         <v>31200</v>
       </c>
-      <c r="G78" t="s" s="12">
-        <v>196</v>
-      </c>
-      <c r="H78" t="s" s="13">
-        <v>197</v>
-      </c>
-      <c r="I78" t="s" s="14">
+      <c r="G78" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="I78" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J78" s="15"/>
@@ -6321,29 +6346,29 @@
       <c r="Y78" s="16"/>
       <c r="Z78" s="16"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>155</v>
       </c>
-      <c r="B79" t="s" s="7">
-        <v>198</v>
-      </c>
-      <c r="C79" t="s" s="7">
-        <v>199</v>
+      <c r="B79" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="10"/>
       <c r="F79" s="60">
         <v>32100</v>
       </c>
-      <c r="G79" t="s" s="12">
-        <v>200</v>
-      </c>
-      <c r="H79" t="s" s="61">
-        <v>201</v>
-      </c>
-      <c r="I79" t="s" s="62">
-        <v>95</v>
+      <c r="G79" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H79" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="I79" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
@@ -6363,29 +6388,29 @@
       <c r="Y79" s="16"/>
       <c r="Z79" s="16"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>157</v>
       </c>
-      <c r="B80" t="s" s="7">
-        <v>198</v>
-      </c>
-      <c r="C80" t="s" s="7">
-        <v>199</v>
+      <c r="B80" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="10"/>
       <c r="F80" s="60">
         <v>32200</v>
       </c>
-      <c r="G80" t="s" s="12">
-        <v>202</v>
-      </c>
-      <c r="H80" t="s" s="61">
-        <v>203</v>
-      </c>
-      <c r="I80" t="s" s="62">
-        <v>95</v>
+      <c r="G80" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H80" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="I80" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
@@ -6405,29 +6430,29 @@
       <c r="Y80" s="16"/>
       <c r="Z80" s="16"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>159</v>
       </c>
-      <c r="B81" t="s" s="7">
-        <v>198</v>
-      </c>
-      <c r="C81" t="s" s="7">
-        <v>199</v>
+      <c r="B81" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="10"/>
       <c r="F81" s="60">
         <v>32300</v>
       </c>
-      <c r="G81" t="s" s="12">
-        <v>204</v>
-      </c>
-      <c r="H81" t="s" s="61">
-        <v>205</v>
-      </c>
-      <c r="I81" t="s" s="62">
-        <v>95</v>
+      <c r="G81" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H81" s="61" t="s">
+        <v>203</v>
+      </c>
+      <c r="I81" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
@@ -6447,29 +6472,29 @@
       <c r="Y81" s="16"/>
       <c r="Z81" s="16"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>161</v>
       </c>
-      <c r="B82" t="s" s="7">
-        <v>206</v>
-      </c>
-      <c r="C82" t="s" s="7">
-        <v>207</v>
+      <c r="B82" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="10"/>
       <c r="F82" s="11">
         <v>41100</v>
       </c>
-      <c r="G82" t="s" s="12">
+      <c r="G82" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H82" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="H82" t="s" s="13">
-        <v>208</v>
-      </c>
-      <c r="I82" t="s" s="62">
-        <v>95</v>
+      <c r="I82" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
@@ -6489,40 +6514,40 @@
       <c r="Y82" s="16"/>
       <c r="Z82" s="16"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>163</v>
       </c>
-      <c r="B83" t="s" s="7">
-        <v>209</v>
-      </c>
-      <c r="C83" t="s" s="7">
-        <v>210</v>
+      <c r="B83" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="10"/>
       <c r="F83" s="11">
         <v>41101</v>
       </c>
-      <c r="G83" t="s" s="12">
-        <v>211</v>
-      </c>
-      <c r="H83" t="s" s="13">
-        <v>212</v>
-      </c>
-      <c r="I83" t="s" s="62">
-        <v>95</v>
+      <c r="G83" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I83" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
       <c r="L83" s="15"/>
-      <c r="M83" t="b" s="18">
+      <c r="M83" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N83" t="s" s="2">
+      <c r="N83" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O83" t="b" s="9">
+      <c r="O83" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P83" s="16"/>
@@ -6537,28 +6562,28 @@
       <c r="Y83" s="16"/>
       <c r="Z83" s="16"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>165</v>
       </c>
-      <c r="B84" t="s" s="7">
-        <v>209</v>
-      </c>
-      <c r="C84" t="s" s="7">
-        <v>210</v>
+      <c r="B84" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="10"/>
       <c r="F84" s="11">
         <v>41102</v>
       </c>
-      <c r="G84" t="s" s="12">
-        <v>213</v>
-      </c>
-      <c r="H84" t="s" s="13">
-        <v>214</v>
-      </c>
-      <c r="I84" t="s" s="62">
+      <c r="G84" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I84" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J84" s="15"/>
@@ -6566,7 +6591,7 @@
       <c r="L84" s="15"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
-      <c r="O84" t="b" s="9">
+      <c r="O84" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P84" s="16"/>
@@ -6581,40 +6606,40 @@
       <c r="Y84" s="16"/>
       <c r="Z84" s="16"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>166</v>
       </c>
-      <c r="B85" t="s" s="7">
-        <v>209</v>
-      </c>
-      <c r="C85" t="s" s="7">
-        <v>210</v>
+      <c r="B85" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="10"/>
       <c r="F85" s="11">
         <v>41103</v>
       </c>
-      <c r="G85" t="s" s="12">
-        <v>215</v>
-      </c>
-      <c r="H85" t="s" s="13">
-        <v>216</v>
-      </c>
-      <c r="I85" t="s" s="62">
+      <c r="G85" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I85" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
       <c r="L85" s="15"/>
-      <c r="M85" t="b" s="18">
+      <c r="M85" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="N85" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O85" t="b" s="9">
+      <c r="O85" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P85" s="16"/>
@@ -6629,29 +6654,29 @@
       <c r="Y85" s="16"/>
       <c r="Z85" s="16"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>167</v>
       </c>
-      <c r="B86" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="C86" t="s" s="7">
-        <v>218</v>
+      <c r="B86" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="10"/>
       <c r="F86" s="11">
         <v>41104</v>
       </c>
-      <c r="G86" t="s" s="12">
-        <v>219</v>
-      </c>
-      <c r="H86" t="s" s="13">
-        <v>220</v>
-      </c>
-      <c r="I86" t="s" s="62">
-        <v>95</v>
+      <c r="G86" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I86" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
@@ -6671,29 +6696,29 @@
       <c r="Y86" s="16"/>
       <c r="Z86" s="16"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>169</v>
       </c>
-      <c r="B87" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="C87" t="s" s="7">
-        <v>218</v>
+      <c r="B87" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="10"/>
       <c r="F87" s="11">
         <v>41105</v>
       </c>
-      <c r="G87" t="s" s="12">
-        <v>221</v>
-      </c>
-      <c r="H87" t="s" s="13">
-        <v>222</v>
-      </c>
-      <c r="I87" t="s" s="62">
-        <v>95</v>
+      <c r="G87" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I87" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
@@ -6713,29 +6738,29 @@
       <c r="Y87" s="16"/>
       <c r="Z87" s="16"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>171</v>
       </c>
-      <c r="B88" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="C88" t="s" s="7">
-        <v>218</v>
+      <c r="B88" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="10"/>
       <c r="F88" s="11">
         <v>41106</v>
       </c>
-      <c r="G88" t="s" s="12">
-        <v>217</v>
-      </c>
-      <c r="H88" t="s" s="13">
-        <v>223</v>
-      </c>
-      <c r="I88" t="s" s="62">
-        <v>95</v>
+      <c r="G88" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I88" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
@@ -6755,28 +6780,28 @@
       <c r="Y88" s="16"/>
       <c r="Z88" s="16"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>173</v>
       </c>
-      <c r="B89" t="s" s="7">
-        <v>224</v>
-      </c>
-      <c r="C89" t="s" s="7">
-        <v>225</v>
+      <c r="B89" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="10"/>
       <c r="F89" s="11">
         <v>41200</v>
       </c>
-      <c r="G89" t="s" s="12">
-        <v>226</v>
-      </c>
-      <c r="H89" t="s" s="13">
-        <v>227</v>
-      </c>
-      <c r="I89" t="s" s="62">
+      <c r="G89" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I89" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J89" s="15"/>
@@ -6784,7 +6809,7 @@
       <c r="L89" s="15"/>
       <c r="M89" s="8"/>
       <c r="N89" s="8"/>
-      <c r="O89" t="b" s="9">
+      <c r="O89" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P89" s="16"/>
@@ -6799,28 +6824,28 @@
       <c r="Y89" s="16"/>
       <c r="Z89" s="16"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>174</v>
       </c>
-      <c r="B90" t="s" s="7">
-        <v>224</v>
-      </c>
-      <c r="C90" t="s" s="7">
-        <v>225</v>
+      <c r="B90" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="10"/>
       <c r="F90" s="11">
         <v>41201</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H90" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="H90" t="s" s="13">
-        <v>228</v>
-      </c>
-      <c r="I90" t="s" s="62">
+      <c r="I90" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J90" s="15"/>
@@ -6828,7 +6853,7 @@
       <c r="L90" s="15"/>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
-      <c r="O90" t="b" s="9">
+      <c r="O90" s="9" t="b">
         <v>1</v>
       </c>
       <c r="P90" s="16"/>
@@ -6843,32 +6868,32 @@
       <c r="Y90" s="16"/>
       <c r="Z90" s="16"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>175</v>
       </c>
-      <c r="B91" t="s" s="7">
+      <c r="B91" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C91" t="s" s="7">
+      <c r="E91" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D91" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E91" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F91" s="11">
         <v>41301</v>
       </c>
-      <c r="G91" t="s" s="12">
-        <v>233</v>
-      </c>
-      <c r="H91" t="s" s="13">
-        <v>234</v>
-      </c>
-      <c r="I91" t="s" s="62">
+      <c r="G91" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I91" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J91" s="15"/>
@@ -6889,32 +6914,32 @@
       <c r="Y91" s="16"/>
       <c r="Z91" s="16"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>177</v>
       </c>
-      <c r="B92" t="s" s="7">
+      <c r="B92" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C92" t="s" s="7">
+      <c r="E92" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D92" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E92" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F92" s="11">
         <v>41302</v>
       </c>
-      <c r="G92" t="s" s="12">
+      <c r="G92" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H92" t="s" s="13">
-        <v>235</v>
-      </c>
-      <c r="I92" t="s" s="62">
+      <c r="H92" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="I92" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J92" s="15"/>
@@ -6935,32 +6960,32 @@
       <c r="Y92" s="16"/>
       <c r="Z92" s="16"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>179</v>
       </c>
-      <c r="B93" t="s" s="7">
+      <c r="B93" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C93" t="s" s="7">
+      <c r="E93" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D93" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E93" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F93" s="11">
         <v>41303</v>
       </c>
-      <c r="G93" t="s" s="12">
+      <c r="G93" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H93" t="s" s="13">
-        <v>236</v>
-      </c>
-      <c r="I93" t="s" s="62">
+      <c r="H93" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I93" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J93" s="15"/>
@@ -6981,32 +7006,32 @@
       <c r="Y93" s="16"/>
       <c r="Z93" s="16"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>181</v>
       </c>
-      <c r="B94" t="s" s="7">
+      <c r="B94" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C94" t="s" s="7">
+      <c r="E94" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D94" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E94" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F94" s="11">
         <v>41304</v>
       </c>
-      <c r="G94" t="s" s="12">
+      <c r="G94" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H94" t="s" s="13">
-        <v>237</v>
-      </c>
-      <c r="I94" t="s" s="62">
+      <c r="H94" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="I94" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J94" s="15"/>
@@ -7027,32 +7052,32 @@
       <c r="Y94" s="16"/>
       <c r="Z94" s="16"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>183</v>
       </c>
-      <c r="B95" t="s" s="7">
+      <c r="B95" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C95" t="s" s="7">
+      <c r="E95" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D95" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E95" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F95" s="11">
         <v>41305</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H95" t="s" s="13">
-        <v>238</v>
-      </c>
-      <c r="I95" t="s" s="62">
+      <c r="H95" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="I95" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J95" s="15"/>
@@ -7073,32 +7098,32 @@
       <c r="Y95" s="16"/>
       <c r="Z95" s="16"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>185</v>
       </c>
-      <c r="B96" t="s" s="7">
+      <c r="B96" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C96" t="s" s="7">
+      <c r="E96" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D96" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E96" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F96" s="11">
         <v>41306</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H96" t="s" s="13">
-        <v>239</v>
-      </c>
-      <c r="I96" t="s" s="62">
+      <c r="H96" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="I96" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J96" s="15"/>
@@ -7119,32 +7144,32 @@
       <c r="Y96" s="16"/>
       <c r="Z96" s="16"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>187</v>
       </c>
-      <c r="B97" t="s" s="7">
+      <c r="B97" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C97" t="s" s="7">
+      <c r="E97" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D97" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E97" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F97" s="11">
         <v>41307</v>
       </c>
-      <c r="G97" t="s" s="12">
-        <v>240</v>
-      </c>
-      <c r="H97" t="s" s="13">
-        <v>241</v>
-      </c>
-      <c r="I97" t="s" s="62">
+      <c r="G97" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="I97" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J97" s="15"/>
@@ -7165,32 +7190,32 @@
       <c r="Y97" s="16"/>
       <c r="Z97" s="16"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>189</v>
       </c>
-      <c r="B98" t="s" s="7">
+      <c r="B98" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C98" t="s" s="7">
+      <c r="E98" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D98" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E98" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F98" s="11">
         <v>41308</v>
       </c>
-      <c r="G98" t="s" s="12">
-        <v>242</v>
-      </c>
-      <c r="H98" t="s" s="13">
-        <v>243</v>
-      </c>
-      <c r="I98" t="s" s="62">
+      <c r="G98" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="I98" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J98" s="15"/>
@@ -7211,32 +7236,32 @@
       <c r="Y98" s="16"/>
       <c r="Z98" s="16"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>191</v>
       </c>
-      <c r="B99" t="s" s="7">
+      <c r="B99" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C99" t="s" s="7">
+      <c r="E99" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D99" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E99" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F99" s="11">
         <v>41309</v>
       </c>
-      <c r="G99" t="s" s="12">
-        <v>244</v>
-      </c>
-      <c r="H99" t="s" s="13">
-        <v>245</v>
-      </c>
-      <c r="I99" t="s" s="62">
+      <c r="G99" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="I99" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J99" s="15"/>
@@ -7257,32 +7282,32 @@
       <c r="Y99" s="16"/>
       <c r="Z99" s="16"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="9">
         <v>193</v>
       </c>
-      <c r="B100" t="s" s="7">
+      <c r="B100" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C100" t="s" s="7">
+      <c r="E100" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D100" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E100" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F100" s="11">
         <v>41310</v>
       </c>
-      <c r="G100" t="s" s="12">
-        <v>246</v>
-      </c>
-      <c r="H100" t="s" s="13">
-        <v>247</v>
-      </c>
-      <c r="I100" t="s" s="62">
+      <c r="G100" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I100" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J100" s="15"/>
@@ -7303,32 +7328,32 @@
       <c r="Y100" s="16"/>
       <c r="Z100" s="16"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9">
         <v>195</v>
       </c>
-      <c r="B101" t="s" s="7">
+      <c r="B101" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C101" t="s" s="7">
+      <c r="E101" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D101" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E101" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F101" s="11">
         <v>41311</v>
       </c>
-      <c r="G101" t="s" s="12">
-        <v>248</v>
-      </c>
-      <c r="H101" t="s" s="13">
-        <v>249</v>
-      </c>
-      <c r="I101" t="s" s="62">
+      <c r="G101" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="I101" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J101" s="15"/>
@@ -7349,32 +7374,32 @@
       <c r="Y101" s="16"/>
       <c r="Z101" s="16"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9">
         <v>197</v>
       </c>
-      <c r="B102" t="s" s="7">
+      <c r="B102" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C102" t="s" s="7">
+      <c r="E102" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D102" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E102" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F102" s="11">
         <v>41312</v>
       </c>
-      <c r="G102" t="s" s="12">
-        <v>250</v>
-      </c>
-      <c r="H102" t="s" s="13">
-        <v>251</v>
-      </c>
-      <c r="I102" t="s" s="62">
+      <c r="G102" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I102" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J102" s="15"/>
@@ -7395,32 +7420,32 @@
       <c r="Y102" s="16"/>
       <c r="Z102" s="16"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9">
         <v>199</v>
       </c>
-      <c r="B103" t="s" s="7">
+      <c r="B103" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C103" t="s" s="7">
+      <c r="E103" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D103" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E103" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F103" s="11">
         <v>41313</v>
       </c>
-      <c r="G103" t="s" s="12">
-        <v>252</v>
-      </c>
-      <c r="H103" t="s" s="13">
-        <v>253</v>
-      </c>
-      <c r="I103" t="s" s="62">
+      <c r="G103" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="I103" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J103" s="15"/>
@@ -7441,32 +7466,32 @@
       <c r="Y103" s="16"/>
       <c r="Z103" s="16"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9">
         <v>201</v>
       </c>
-      <c r="B104" t="s" s="7">
+      <c r="B104" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C104" t="s" s="7">
+      <c r="E104" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D104" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E104" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F104" s="11">
         <v>41314</v>
       </c>
-      <c r="G104" t="s" s="12">
-        <v>254</v>
-      </c>
-      <c r="H104" t="s" s="13">
-        <v>255</v>
-      </c>
-      <c r="I104" t="s" s="62">
+      <c r="G104" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="I104" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J104" s="15"/>
@@ -7487,32 +7512,32 @@
       <c r="Y104" s="16"/>
       <c r="Z104" s="16"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>203</v>
       </c>
-      <c r="B105" t="s" s="7">
+      <c r="B105" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C105" t="s" s="7">
+      <c r="E105" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D105" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E105" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F105" s="11">
         <v>41315</v>
       </c>
-      <c r="G105" t="s" s="12">
-        <v>256</v>
-      </c>
-      <c r="H105" t="s" s="13">
-        <v>257</v>
-      </c>
-      <c r="I105" t="s" s="62">
+      <c r="G105" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="I105" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J105" s="15"/>
@@ -7533,32 +7558,32 @@
       <c r="Y105" s="16"/>
       <c r="Z105" s="16"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>205</v>
       </c>
-      <c r="B106" t="s" s="7">
+      <c r="B106" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C106" t="s" s="7">
+      <c r="E106" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D106" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E106" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F106" s="11">
         <v>41316</v>
       </c>
-      <c r="G106" t="s" s="12">
-        <v>258</v>
-      </c>
-      <c r="H106" t="s" s="13">
-        <v>259</v>
-      </c>
-      <c r="I106" t="s" s="62">
+      <c r="G106" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="I106" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J106" s="15"/>
@@ -7579,32 +7604,32 @@
       <c r="Y106" s="16"/>
       <c r="Z106" s="16"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>207</v>
       </c>
-      <c r="B107" t="s" s="7">
+      <c r="B107" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C107" t="s" s="7">
+      <c r="E107" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D107" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E107" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F107" s="11">
         <v>41317</v>
       </c>
-      <c r="G107" t="s" s="12">
-        <v>260</v>
-      </c>
-      <c r="H107" t="s" s="13">
-        <v>261</v>
-      </c>
-      <c r="I107" t="s" s="62">
+      <c r="G107" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="I107" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J107" s="15"/>
@@ -7625,32 +7650,32 @@
       <c r="Y107" s="16"/>
       <c r="Z107" s="16"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>209</v>
       </c>
-      <c r="B108" t="s" s="7">
+      <c r="B108" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C108" t="s" s="7">
+      <c r="E108" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D108" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E108" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F108" s="11">
         <v>41318</v>
       </c>
-      <c r="G108" t="s" s="12">
-        <v>262</v>
-      </c>
-      <c r="H108" t="s" s="13">
-        <v>263</v>
-      </c>
-      <c r="I108" t="s" s="62">
+      <c r="G108" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="I108" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J108" s="15"/>
@@ -7671,32 +7696,32 @@
       <c r="Y108" s="16"/>
       <c r="Z108" s="16"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>211</v>
       </c>
-      <c r="B109" t="s" s="7">
+      <c r="B109" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C109" t="s" s="7">
+      <c r="E109" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D109" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E109" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F109" s="11">
         <v>41319</v>
       </c>
-      <c r="G109" t="s" s="12">
-        <v>264</v>
-      </c>
-      <c r="H109" t="s" s="13">
-        <v>265</v>
-      </c>
-      <c r="I109" t="s" s="62">
+      <c r="G109" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="I109" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J109" s="15"/>
@@ -7717,32 +7742,32 @@
       <c r="Y109" s="16"/>
       <c r="Z109" s="16"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>213</v>
       </c>
-      <c r="B110" t="s" s="7">
+      <c r="B110" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C110" t="s" s="7">
+      <c r="E110" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D110" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E110" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F110" s="11">
         <v>41320</v>
       </c>
-      <c r="G110" t="s" s="12">
-        <v>266</v>
-      </c>
-      <c r="H110" t="s" s="13">
-        <v>267</v>
-      </c>
-      <c r="I110" t="s" s="62">
+      <c r="G110" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="I110" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J110" s="15"/>
@@ -7763,32 +7788,32 @@
       <c r="Y110" s="16"/>
       <c r="Z110" s="16"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>215</v>
       </c>
-      <c r="B111" t="s" s="7">
+      <c r="B111" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C111" t="s" s="7">
+      <c r="E111" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D111" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E111" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F111" s="11">
         <v>41321</v>
       </c>
-      <c r="G111" t="s" s="12">
-        <v>268</v>
-      </c>
-      <c r="H111" t="s" s="13">
-        <v>269</v>
-      </c>
-      <c r="I111" t="s" s="62">
+      <c r="G111" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="I111" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J111" s="15"/>
@@ -7809,32 +7834,32 @@
       <c r="Y111" s="16"/>
       <c r="Z111" s="16"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>217</v>
       </c>
-      <c r="B112" t="s" s="7">
+      <c r="B112" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C112" t="s" s="7">
+      <c r="E112" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D112" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E112" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F112" s="11">
         <v>41322</v>
       </c>
-      <c r="G112" t="s" s="12">
-        <v>270</v>
-      </c>
-      <c r="H112" t="s" s="13">
-        <v>271</v>
-      </c>
-      <c r="I112" t="s" s="62">
+      <c r="G112" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="I112" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J112" s="15"/>
@@ -7855,32 +7880,32 @@
       <c r="Y112" s="16"/>
       <c r="Z112" s="16"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>219</v>
       </c>
-      <c r="B113" t="s" s="7">
+      <c r="B113" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C113" t="s" s="7">
+      <c r="E113" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D113" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E113" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F113" s="11">
         <v>41323</v>
       </c>
-      <c r="G113" t="s" s="12">
-        <v>272</v>
-      </c>
-      <c r="H113" t="s" s="13">
-        <v>273</v>
-      </c>
-      <c r="I113" t="s" s="62">
+      <c r="G113" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="I113" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J113" s="15"/>
@@ -7901,32 +7926,32 @@
       <c r="Y113" s="16"/>
       <c r="Z113" s="16"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>221</v>
       </c>
-      <c r="B114" t="s" s="7">
+      <c r="B114" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C114" t="s" s="7">
+      <c r="E114" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D114" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E114" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F114" s="11">
         <v>41324</v>
       </c>
-      <c r="G114" t="s" s="12">
-        <v>274</v>
-      </c>
-      <c r="H114" t="s" s="13">
-        <v>275</v>
-      </c>
-      <c r="I114" t="s" s="62">
+      <c r="G114" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="I114" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J114" s="15"/>
@@ -7947,32 +7972,32 @@
       <c r="Y114" s="16"/>
       <c r="Z114" s="16"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
         <v>223</v>
       </c>
-      <c r="B115" t="s" s="7">
+      <c r="B115" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C115" t="s" s="7">
+      <c r="E115" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D115" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E115" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F115" s="11">
         <v>41325</v>
       </c>
-      <c r="G115" t="s" s="12">
-        <v>276</v>
-      </c>
-      <c r="H115" t="s" s="13">
-        <v>277</v>
-      </c>
-      <c r="I115" t="s" s="62">
+      <c r="G115" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="I115" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J115" s="15"/>
@@ -7993,32 +8018,32 @@
       <c r="Y115" s="16"/>
       <c r="Z115" s="16"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>225</v>
       </c>
-      <c r="B116" t="s" s="7">
+      <c r="B116" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C116" t="s" s="7">
+      <c r="E116" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D116" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E116" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F116" s="11">
         <v>41326</v>
       </c>
-      <c r="G116" t="s" s="12">
-        <v>278</v>
-      </c>
-      <c r="H116" t="s" s="13">
-        <v>279</v>
-      </c>
-      <c r="I116" t="s" s="62">
+      <c r="G116" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="I116" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J116" s="15"/>
@@ -8039,32 +8064,32 @@
       <c r="Y116" s="16"/>
       <c r="Z116" s="16"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>227</v>
       </c>
-      <c r="B117" t="s" s="7">
+      <c r="B117" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C117" t="s" s="7">
+      <c r="E117" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D117" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E117" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F117" s="11">
         <v>41327</v>
       </c>
-      <c r="G117" t="s" s="12">
-        <v>280</v>
-      </c>
-      <c r="H117" t="s" s="13">
-        <v>281</v>
-      </c>
-      <c r="I117" t="s" s="62">
+      <c r="G117" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="I117" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J117" s="15"/>
@@ -8085,32 +8110,32 @@
       <c r="Y117" s="16"/>
       <c r="Z117" s="16"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>229</v>
       </c>
-      <c r="B118" t="s" s="7">
+      <c r="B118" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C118" t="s" s="7">
+      <c r="E118" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D118" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E118" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F118" s="11">
         <v>41328</v>
       </c>
-      <c r="G118" t="s" s="12">
-        <v>282</v>
-      </c>
-      <c r="H118" t="s" s="13">
-        <v>283</v>
-      </c>
-      <c r="I118" t="s" s="62">
+      <c r="G118" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="I118" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J118" s="15"/>
@@ -8131,32 +8156,32 @@
       <c r="Y118" s="16"/>
       <c r="Z118" s="16"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>231</v>
       </c>
-      <c r="B119" t="s" s="7">
+      <c r="B119" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C119" t="s" s="7">
+      <c r="E119" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="D119" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="E119" t="s" s="3">
-        <v>232</v>
       </c>
       <c r="F119" s="11">
         <v>41399</v>
       </c>
-      <c r="G119" t="s" s="12">
-        <v>284</v>
-      </c>
-      <c r="H119" t="s" s="13">
-        <v>285</v>
-      </c>
-      <c r="I119" t="s" s="62">
+      <c r="G119" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="I119" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J119" s="15"/>
@@ -8177,32 +8202,32 @@
       <c r="Y119" s="16"/>
       <c r="Z119" s="16"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>233</v>
       </c>
-      <c r="B120" t="s" s="7">
+      <c r="B120" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C120" t="s" s="7">
+      <c r="E120" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D120" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E120" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F120" s="11">
         <v>51101</v>
       </c>
-      <c r="G120" t="s" s="12">
-        <v>290</v>
-      </c>
-      <c r="H120" t="s" s="13">
-        <v>291</v>
-      </c>
-      <c r="I120" t="s" s="62">
+      <c r="G120" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="I120" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J120" s="15"/>
@@ -8223,32 +8248,32 @@
       <c r="Y120" s="16"/>
       <c r="Z120" s="16"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>235</v>
       </c>
-      <c r="B121" t="s" s="7">
+      <c r="B121" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C121" t="s" s="7">
+      <c r="E121" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D121" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E121" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F121" s="11">
         <v>51102</v>
       </c>
-      <c r="G121" t="s" s="12">
-        <v>292</v>
-      </c>
-      <c r="H121" t="s" s="13">
-        <v>293</v>
-      </c>
-      <c r="I121" t="s" s="62">
+      <c r="G121" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="I121" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J121" s="15"/>
@@ -8269,32 +8294,32 @@
       <c r="Y121" s="16"/>
       <c r="Z121" s="16"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>237</v>
       </c>
-      <c r="B122" t="s" s="7">
+      <c r="B122" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C122" t="s" s="7">
+      <c r="E122" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D122" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E122" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F122" s="11">
         <v>51103</v>
       </c>
-      <c r="G122" t="s" s="12">
-        <v>294</v>
-      </c>
-      <c r="H122" t="s" s="13">
-        <v>295</v>
-      </c>
-      <c r="I122" t="s" s="62">
+      <c r="G122" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I122" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J122" s="15"/>
@@ -8315,32 +8340,32 @@
       <c r="Y122" s="16"/>
       <c r="Z122" s="16"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>239</v>
       </c>
-      <c r="B123" t="s" s="7">
+      <c r="B123" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C123" t="s" s="7">
+      <c r="E123" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D123" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E123" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F123" s="11">
         <v>51104</v>
       </c>
-      <c r="G123" t="s" s="12">
-        <v>296</v>
-      </c>
-      <c r="H123" t="s" s="13">
-        <v>247</v>
-      </c>
-      <c r="I123" t="s" s="62">
+      <c r="G123" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I123" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J123" s="15"/>
@@ -8361,32 +8386,32 @@
       <c r="Y123" s="16"/>
       <c r="Z123" s="16"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
         <v>241</v>
       </c>
-      <c r="B124" t="s" s="7">
+      <c r="B124" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C124" t="s" s="7">
+      <c r="E124" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D124" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E124" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F124" s="11">
         <v>51105</v>
       </c>
-      <c r="G124" t="s" s="12">
-        <v>297</v>
-      </c>
-      <c r="H124" t="s" s="13">
-        <v>249</v>
-      </c>
-      <c r="I124" t="s" s="62">
+      <c r="G124" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="I124" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J124" s="15"/>
@@ -8407,32 +8432,32 @@
       <c r="Y124" s="16"/>
       <c r="Z124" s="16"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>243</v>
       </c>
-      <c r="B125" t="s" s="7">
+      <c r="B125" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C125" t="s" s="7">
+      <c r="E125" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D125" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E125" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F125" s="11">
         <v>51106</v>
       </c>
-      <c r="G125" t="s" s="12">
-        <v>298</v>
-      </c>
-      <c r="H125" t="s" s="13">
-        <v>299</v>
-      </c>
-      <c r="I125" t="s" s="62">
+      <c r="G125" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="I125" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J125" s="15"/>
@@ -8453,32 +8478,32 @@
       <c r="Y125" s="16"/>
       <c r="Z125" s="16"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>245</v>
       </c>
-      <c r="B126" t="s" s="7">
+      <c r="B126" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C126" t="s" s="7">
+      <c r="E126" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D126" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E126" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F126" s="11">
         <v>51107</v>
       </c>
-      <c r="G126" t="s" s="12">
-        <v>300</v>
-      </c>
-      <c r="H126" t="s" s="13">
-        <v>301</v>
-      </c>
-      <c r="I126" t="s" s="62">
+      <c r="G126" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="I126" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J126" s="15"/>
@@ -8499,32 +8524,32 @@
       <c r="Y126" s="16"/>
       <c r="Z126" s="16"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>247</v>
       </c>
-      <c r="B127" t="s" s="7">
+      <c r="B127" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C127" t="s" s="7">
+      <c r="E127" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D127" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E127" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F127" s="11">
         <v>51108</v>
       </c>
-      <c r="G127" t="s" s="12">
+      <c r="G127" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="H127" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="H127" t="s" s="13">
-        <v>302</v>
-      </c>
-      <c r="I127" t="s" s="62">
+      <c r="I127" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J127" s="15"/>
@@ -8545,32 +8570,32 @@
       <c r="Y127" s="16"/>
       <c r="Z127" s="16"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>249</v>
       </c>
-      <c r="B128" t="s" s="7">
+      <c r="B128" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C128" t="s" s="7">
+      <c r="E128" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D128" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E128" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F128" s="11">
         <v>51109</v>
       </c>
-      <c r="G128" t="s" s="12">
-        <v>303</v>
-      </c>
-      <c r="H128" t="s" s="13">
-        <v>304</v>
-      </c>
-      <c r="I128" t="s" s="62">
+      <c r="G128" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="I128" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J128" s="15"/>
@@ -8591,32 +8616,32 @@
       <c r="Y128" s="16"/>
       <c r="Z128" s="16"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>251</v>
       </c>
-      <c r="B129" t="s" s="7">
+      <c r="B129" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C129" t="s" s="7">
+      <c r="E129" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D129" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E129" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F129" s="11">
         <v>51110</v>
       </c>
-      <c r="G129" t="s" s="12">
-        <v>305</v>
-      </c>
-      <c r="H129" t="s" s="13">
-        <v>306</v>
-      </c>
-      <c r="I129" t="s" s="62">
+      <c r="G129" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="I129" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J129" s="15"/>
@@ -8637,32 +8662,32 @@
       <c r="Y129" s="16"/>
       <c r="Z129" s="16"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>253</v>
       </c>
-      <c r="B130" t="s" s="7">
+      <c r="B130" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C130" t="s" s="7">
+      <c r="E130" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D130" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E130" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F130" s="11">
         <v>51111</v>
       </c>
-      <c r="G130" t="s" s="12">
-        <v>307</v>
-      </c>
-      <c r="H130" t="s" s="13">
-        <v>308</v>
-      </c>
-      <c r="I130" t="s" s="62">
+      <c r="G130" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="I130" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J130" s="15"/>
@@ -8683,32 +8708,32 @@
       <c r="Y130" s="16"/>
       <c r="Z130" s="16"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>255</v>
       </c>
-      <c r="B131" t="s" s="7">
+      <c r="B131" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C131" t="s" s="7">
+      <c r="E131" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D131" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E131" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F131" s="11">
         <v>51112</v>
       </c>
-      <c r="G131" t="s" s="12">
-        <v>309</v>
-      </c>
-      <c r="H131" t="s" s="13">
-        <v>310</v>
-      </c>
-      <c r="I131" t="s" s="62">
+      <c r="G131" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="I131" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J131" s="15"/>
@@ -8729,32 +8754,32 @@
       <c r="Y131" s="16"/>
       <c r="Z131" s="16"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>257</v>
       </c>
-      <c r="B132" t="s" s="7">
+      <c r="B132" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C132" t="s" s="7">
+      <c r="E132" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D132" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E132" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F132" s="11">
         <v>51113</v>
       </c>
-      <c r="G132" t="s" s="12">
-        <v>311</v>
-      </c>
-      <c r="H132" t="s" s="13">
-        <v>312</v>
-      </c>
-      <c r="I132" t="s" s="62">
+      <c r="G132" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="I132" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J132" s="15"/>
@@ -8775,32 +8800,32 @@
       <c r="Y132" s="16"/>
       <c r="Z132" s="16"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>259</v>
       </c>
-      <c r="B133" t="s" s="7">
+      <c r="B133" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C133" t="s" s="7">
+      <c r="E133" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D133" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E133" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F133" s="11">
         <v>51114</v>
       </c>
-      <c r="G133" t="s" s="12">
-        <v>313</v>
-      </c>
-      <c r="H133" t="s" s="13">
-        <v>277</v>
-      </c>
-      <c r="I133" t="s" s="62">
+      <c r="G133" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="I133" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J133" s="15"/>
@@ -8821,32 +8846,32 @@
       <c r="Y133" s="16"/>
       <c r="Z133" s="16"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>261</v>
       </c>
-      <c r="B134" t="s" s="7">
+      <c r="B134" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C134" t="s" s="7">
+      <c r="E134" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D134" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E134" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F134" s="11">
         <v>51115</v>
       </c>
-      <c r="G134" t="s" s="12">
-        <v>303</v>
-      </c>
-      <c r="H134" t="s" s="13">
-        <v>314</v>
-      </c>
-      <c r="I134" t="s" s="62">
+      <c r="G134" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="I134" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J134" s="15"/>
@@ -8867,32 +8892,32 @@
       <c r="Y134" s="16"/>
       <c r="Z134" s="16"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>263</v>
       </c>
-      <c r="B135" t="s" s="7">
+      <c r="B135" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C135" t="s" s="7">
+      <c r="E135" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D135" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E135" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F135" s="11">
         <v>51116</v>
       </c>
-      <c r="G135" t="s" s="12">
-        <v>300</v>
-      </c>
-      <c r="H135" t="s" s="13">
-        <v>315</v>
-      </c>
-      <c r="I135" t="s" s="62">
+      <c r="G135" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="I135" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J135" s="15"/>
@@ -8913,32 +8938,32 @@
       <c r="Y135" s="16"/>
       <c r="Z135" s="16"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
         <v>265</v>
       </c>
-      <c r="B136" t="s" s="7">
+      <c r="B136" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C136" t="s" s="7">
+      <c r="E136" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="D136" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="E136" t="s" s="3">
-        <v>289</v>
       </c>
       <c r="F136" s="11">
         <v>51199</v>
       </c>
-      <c r="G136" t="s" s="12">
-        <v>300</v>
-      </c>
-      <c r="H136" t="s" s="13">
-        <v>316</v>
-      </c>
-      <c r="I136" t="s" s="62">
+      <c r="G136" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="I136" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J136" s="15"/>
@@ -8959,32 +8984,32 @@
       <c r="Y136" s="16"/>
       <c r="Z136" s="16"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>267</v>
       </c>
-      <c r="B137" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C137" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E137" t="s" s="3">
-        <v>210</v>
+      <c r="B137" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F137" s="11">
         <v>51201</v>
       </c>
-      <c r="G137" t="s" s="12">
-        <v>317</v>
-      </c>
-      <c r="H137" t="s" s="13">
-        <v>318</v>
-      </c>
-      <c r="I137" t="s" s="62">
+      <c r="G137" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I137" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J137" s="15"/>
@@ -9005,32 +9030,32 @@
       <c r="Y137" s="16"/>
       <c r="Z137" s="16"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
         <v>269</v>
       </c>
-      <c r="B138" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C138" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D138" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E138" t="s" s="3">
-        <v>210</v>
+      <c r="B138" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F138" s="11">
         <v>51202</v>
       </c>
-      <c r="G138" t="s" s="12">
-        <v>319</v>
-      </c>
-      <c r="H138" t="s" s="13">
-        <v>293</v>
-      </c>
-      <c r="I138" t="s" s="62">
+      <c r="G138" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="I138" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J138" s="15"/>
@@ -9051,32 +9076,32 @@
       <c r="Y138" s="16"/>
       <c r="Z138" s="16"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
         <v>271</v>
       </c>
-      <c r="B139" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C139" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D139" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E139" t="s" s="3">
-        <v>210</v>
+      <c r="B139" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F139" s="11">
         <v>51203</v>
       </c>
-      <c r="G139" t="s" s="12">
-        <v>320</v>
-      </c>
-      <c r="H139" t="s" s="13">
-        <v>295</v>
-      </c>
-      <c r="I139" t="s" s="62">
+      <c r="G139" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="I139" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J139" s="15"/>
@@ -9097,32 +9122,32 @@
       <c r="Y139" s="16"/>
       <c r="Z139" s="16"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>273</v>
       </c>
-      <c r="B140" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C140" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D140" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E140" t="s" s="3">
-        <v>210</v>
+      <c r="B140" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F140" s="11">
         <v>51204</v>
       </c>
-      <c r="G140" t="s" s="12">
-        <v>321</v>
-      </c>
-      <c r="H140" t="s" s="13">
-        <v>322</v>
-      </c>
-      <c r="I140" t="s" s="62">
+      <c r="G140" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="I140" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J140" s="15"/>
@@ -9143,32 +9168,32 @@
       <c r="Y140" s="16"/>
       <c r="Z140" s="16"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>275</v>
       </c>
-      <c r="B141" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C141" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D141" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E141" t="s" s="3">
-        <v>210</v>
+      <c r="B141" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F141" s="11">
         <v>51205</v>
       </c>
-      <c r="G141" t="s" s="12">
-        <v>323</v>
-      </c>
-      <c r="H141" t="s" s="13">
-        <v>324</v>
-      </c>
-      <c r="I141" t="s" s="62">
+      <c r="G141" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="I141" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J141" s="15"/>
@@ -9189,32 +9214,32 @@
       <c r="Y141" s="16"/>
       <c r="Z141" s="16"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
         <v>277</v>
       </c>
-      <c r="B142" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C142" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D142" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E142" t="s" s="3">
-        <v>210</v>
+      <c r="B142" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F142" s="11">
         <v>51206</v>
       </c>
-      <c r="G142" t="s" s="12">
-        <v>242</v>
-      </c>
-      <c r="H142" t="s" s="13">
-        <v>325</v>
-      </c>
-      <c r="I142" t="s" s="62">
+      <c r="G142" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="I142" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J142" s="15"/>
@@ -9235,32 +9260,32 @@
       <c r="Y142" s="16"/>
       <c r="Z142" s="16"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>279</v>
       </c>
-      <c r="B143" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C143" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D143" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E143" t="s" s="3">
-        <v>210</v>
+      <c r="B143" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F143" s="11">
         <v>51207</v>
       </c>
-      <c r="G143" t="s" s="12">
-        <v>317</v>
-      </c>
-      <c r="H143" t="s" s="13">
-        <v>326</v>
-      </c>
-      <c r="I143" t="s" s="62">
+      <c r="G143" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I143" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J143" s="15"/>
@@ -9281,32 +9306,32 @@
       <c r="Y143" s="16"/>
       <c r="Z143" s="16"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
         <v>281</v>
       </c>
-      <c r="B144" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C144" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D144" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E144" t="s" s="3">
-        <v>210</v>
+      <c r="B144" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F144" s="11">
         <v>51208</v>
       </c>
-      <c r="G144" t="s" s="12">
-        <v>327</v>
-      </c>
-      <c r="H144" t="s" s="13">
-        <v>328</v>
-      </c>
-      <c r="I144" t="s" s="62">
+      <c r="G144" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I144" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J144" s="15"/>
@@ -9327,32 +9352,32 @@
       <c r="Y144" s="16"/>
       <c r="Z144" s="16"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>283</v>
       </c>
-      <c r="B145" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C145" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D145" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E145" t="s" s="3">
-        <v>210</v>
+      <c r="B145" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F145" s="11">
         <v>51209</v>
       </c>
-      <c r="G145" t="s" s="12">
-        <v>329</v>
-      </c>
-      <c r="H145" t="s" s="13">
-        <v>330</v>
-      </c>
-      <c r="I145" t="s" s="62">
+      <c r="G145" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="I145" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J145" s="15"/>
@@ -9373,32 +9398,32 @@
       <c r="Y145" s="16"/>
       <c r="Z145" s="16"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>285</v>
       </c>
-      <c r="B146" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C146" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D146" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E146" t="s" s="3">
-        <v>210</v>
+      <c r="B146" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F146" s="11">
         <v>51210</v>
       </c>
-      <c r="G146" t="s" s="12">
-        <v>331</v>
-      </c>
-      <c r="H146" t="s" s="13">
-        <v>332</v>
-      </c>
-      <c r="I146" t="s" s="62">
+      <c r="G146" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="I146" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J146" s="15"/>
@@ -9419,32 +9444,32 @@
       <c r="Y146" s="16"/>
       <c r="Z146" s="16"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>287</v>
       </c>
-      <c r="B147" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C147" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D147" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E147" t="s" s="3">
-        <v>210</v>
+      <c r="B147" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F147" s="11">
         <v>51211</v>
       </c>
-      <c r="G147" t="s" s="12">
-        <v>333</v>
-      </c>
-      <c r="H147" t="s" s="13">
-        <v>334</v>
-      </c>
-      <c r="I147" t="s" s="62">
+      <c r="G147" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="H147" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="I147" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J147" s="15"/>
@@ -9465,32 +9490,32 @@
       <c r="Y147" s="16"/>
       <c r="Z147" s="16"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>289</v>
       </c>
-      <c r="B148" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C148" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D148" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E148" t="s" s="3">
-        <v>210</v>
+      <c r="B148" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F148" s="11">
         <v>51212</v>
       </c>
-      <c r="G148" t="s" s="12">
-        <v>335</v>
-      </c>
-      <c r="H148" t="s" s="13">
-        <v>336</v>
-      </c>
-      <c r="I148" t="s" s="62">
+      <c r="G148" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="H148" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="I148" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J148" s="15"/>
@@ -9511,32 +9536,32 @@
       <c r="Y148" s="16"/>
       <c r="Z148" s="16"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>291</v>
       </c>
-      <c r="B149" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C149" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D149" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E149" t="s" s="3">
-        <v>210</v>
+      <c r="B149" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F149" s="11">
         <v>51213</v>
       </c>
-      <c r="G149" t="s" s="12">
-        <v>128</v>
-      </c>
-      <c r="H149" t="s" s="13">
-        <v>337</v>
-      </c>
-      <c r="I149" t="s" s="62">
+      <c r="G149" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H149" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="I149" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J149" s="15"/>
@@ -9557,32 +9582,32 @@
       <c r="Y149" s="16"/>
       <c r="Z149" s="16"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
         <v>293</v>
       </c>
-      <c r="B150" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C150" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D150" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E150" t="s" s="3">
-        <v>210</v>
+      <c r="B150" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F150" s="11">
         <v>51214</v>
       </c>
-      <c r="G150" t="s" s="12">
-        <v>338</v>
-      </c>
-      <c r="H150" t="s" s="13">
-        <v>339</v>
-      </c>
-      <c r="I150" t="s" s="62">
+      <c r="G150" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H150" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="I150" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J150" s="15"/>
@@ -9603,32 +9628,32 @@
       <c r="Y150" s="16"/>
       <c r="Z150" s="16"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>295</v>
       </c>
-      <c r="B151" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C151" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D151" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E151" t="s" s="3">
-        <v>210</v>
+      <c r="B151" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F151" s="11">
         <v>51215</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H151" t="s" s="13">
-        <v>340</v>
-      </c>
-      <c r="I151" t="s" s="62">
+      <c r="H151" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="I151" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J151" s="15"/>
@@ -9649,32 +9674,32 @@
       <c r="Y151" s="16"/>
       <c r="Z151" s="16"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9">
         <v>297</v>
       </c>
-      <c r="B152" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C152" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D152" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E152" t="s" s="3">
-        <v>210</v>
+      <c r="B152" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F152" s="11">
         <v>51216</v>
       </c>
-      <c r="G152" t="s" s="12">
-        <v>341</v>
-      </c>
-      <c r="H152" t="s" s="13">
-        <v>342</v>
-      </c>
-      <c r="I152" t="s" s="62">
+      <c r="G152" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="H152" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="I152" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J152" s="15"/>
@@ -9695,32 +9720,32 @@
       <c r="Y152" s="16"/>
       <c r="Z152" s="16"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>299</v>
       </c>
-      <c r="B153" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C153" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D153" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E153" t="s" s="3">
-        <v>210</v>
+      <c r="B153" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F153" s="11">
         <v>51217</v>
       </c>
-      <c r="G153" t="s" s="12">
-        <v>343</v>
-      </c>
-      <c r="H153" t="s" s="13">
-        <v>344</v>
-      </c>
-      <c r="I153" t="s" s="62">
+      <c r="G153" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="H153" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="I153" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J153" s="15"/>
@@ -9741,32 +9766,32 @@
       <c r="Y153" s="16"/>
       <c r="Z153" s="16"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
         <v>301</v>
       </c>
-      <c r="B154" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C154" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D154" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E154" t="s" s="3">
-        <v>210</v>
+      <c r="B154" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F154" s="11">
         <v>51218</v>
       </c>
-      <c r="G154" t="s" s="12">
-        <v>345</v>
-      </c>
-      <c r="H154" t="s" s="13">
-        <v>346</v>
-      </c>
-      <c r="I154" t="s" s="62">
+      <c r="G154" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="H154" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="I154" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J154" s="15"/>
@@ -9787,32 +9812,32 @@
       <c r="Y154" s="16"/>
       <c r="Z154" s="16"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="9">
         <v>303</v>
       </c>
-      <c r="B155" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C155" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D155" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E155" t="s" s="3">
-        <v>210</v>
+      <c r="B155" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F155" s="11">
         <v>51219</v>
       </c>
-      <c r="G155" t="s" s="12">
-        <v>170</v>
-      </c>
-      <c r="H155" t="s" s="13">
-        <v>347</v>
-      </c>
-      <c r="I155" t="s" s="62">
+      <c r="G155" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H155" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="I155" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J155" s="15"/>
@@ -9833,32 +9858,32 @@
       <c r="Y155" s="16"/>
       <c r="Z155" s="16"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
         <v>305</v>
       </c>
-      <c r="B156" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C156" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D156" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E156" t="s" s="3">
-        <v>210</v>
+      <c r="B156" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F156" s="11">
         <v>51220</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H156" t="s" s="13">
-        <v>348</v>
-      </c>
-      <c r="I156" t="s" s="62">
+      <c r="H156" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="I156" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J156" s="15"/>
@@ -9879,32 +9904,32 @@
       <c r="Y156" s="16"/>
       <c r="Z156" s="16"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>307</v>
       </c>
-      <c r="B157" t="s" s="7">
-        <v>286</v>
-      </c>
-      <c r="C157" t="s" s="7">
-        <v>287</v>
-      </c>
-      <c r="D157" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="E157" t="s" s="3">
-        <v>210</v>
+      <c r="B157" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F157" s="11">
         <v>51299</v>
       </c>
-      <c r="G157" t="s" s="12">
-        <v>349</v>
-      </c>
-      <c r="H157" t="s" s="13">
-        <v>350</v>
-      </c>
-      <c r="I157" t="s" s="62">
+      <c r="G157" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="I157" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J157" s="15"/>
@@ -9925,29 +9950,29 @@
       <c r="Y157" s="16"/>
       <c r="Z157" s="16"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>309</v>
       </c>
-      <c r="B158" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="C158" t="s" s="7">
-        <v>351</v>
+      <c r="B158" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="D158" s="8"/>
       <c r="E158" s="10"/>
       <c r="F158" s="11">
         <v>61101</v>
       </c>
-      <c r="G158" t="s" s="12">
-        <v>352</v>
-      </c>
-      <c r="H158" t="s" s="13">
-        <v>353</v>
-      </c>
-      <c r="I158" t="s" s="62">
-        <v>95</v>
+      <c r="G158" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="I158" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J158" s="15"/>
       <c r="K158" s="15"/>
@@ -9967,29 +9992,29 @@
       <c r="Y158" s="16"/>
       <c r="Z158" s="16"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>311</v>
       </c>
-      <c r="B159" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="C159" t="s" s="7">
-        <v>351</v>
+      <c r="B159" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="D159" s="8"/>
       <c r="E159" s="10"/>
       <c r="F159" s="11">
         <v>61102</v>
       </c>
-      <c r="G159" t="s" s="12">
+      <c r="G159" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="H159" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="H159" t="s" s="13">
-        <v>354</v>
-      </c>
-      <c r="I159" t="s" s="62">
-        <v>95</v>
+      <c r="I159" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J159" s="15"/>
       <c r="K159" s="15"/>
@@ -10009,29 +10034,29 @@
       <c r="Y159" s="16"/>
       <c r="Z159" s="16"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>313</v>
       </c>
-      <c r="B160" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="C160" t="s" s="7">
-        <v>351</v>
+      <c r="B160" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="D160" s="8"/>
       <c r="E160" s="10"/>
       <c r="F160" s="11">
         <v>61103</v>
       </c>
-      <c r="G160" t="s" s="12">
-        <v>352</v>
-      </c>
-      <c r="H160" t="s" s="13">
-        <v>355</v>
-      </c>
-      <c r="I160" t="s" s="62">
-        <v>95</v>
+      <c r="G160" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="I160" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J160" s="15"/>
       <c r="K160" s="15"/>
@@ -10051,29 +10076,29 @@
       <c r="Y160" s="16"/>
       <c r="Z160" s="16"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
         <v>315</v>
       </c>
-      <c r="B161" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="C161" t="s" s="7">
-        <v>351</v>
+      <c r="B161" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="D161" s="8"/>
       <c r="E161" s="10"/>
       <c r="F161" s="11">
         <v>61104</v>
       </c>
-      <c r="G161" t="s" s="12">
-        <v>356</v>
-      </c>
-      <c r="H161" t="s" s="13">
-        <v>357</v>
-      </c>
-      <c r="I161" t="s" s="62">
-        <v>95</v>
+      <c r="G161" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="I161" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J161" s="15"/>
       <c r="K161" s="15"/>
@@ -10093,29 +10118,29 @@
       <c r="Y161" s="16"/>
       <c r="Z161" s="16"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>317</v>
       </c>
-      <c r="B162" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="C162" t="s" s="7">
-        <v>351</v>
+      <c r="B162" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="D162" s="8"/>
       <c r="E162" s="10"/>
       <c r="F162" s="11">
         <v>61199</v>
       </c>
-      <c r="G162" t="s" s="12">
-        <v>358</v>
-      </c>
-      <c r="H162" t="s" s="13">
-        <v>359</v>
-      </c>
-      <c r="I162" t="s" s="62">
-        <v>95</v>
+      <c r="G162" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="H162" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="I162" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="J162" s="15"/>
       <c r="K162" s="15"/>
@@ -10135,28 +10160,28 @@
       <c r="Y162" s="16"/>
       <c r="Z162" s="16"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9">
         <v>319</v>
       </c>
-      <c r="B163" t="s" s="7">
-        <v>360</v>
-      </c>
-      <c r="C163" t="s" s="7">
-        <v>361</v>
+      <c r="B163" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="D163" s="8"/>
       <c r="E163" s="10"/>
       <c r="F163" s="11">
         <v>71101</v>
       </c>
-      <c r="G163" t="s" s="12">
-        <v>362</v>
-      </c>
-      <c r="H163" t="s" s="13">
-        <v>363</v>
-      </c>
-      <c r="I163" t="s" s="62">
+      <c r="G163" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H163" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="I163" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J163" s="15"/>
@@ -10177,28 +10202,28 @@
       <c r="Y163" s="16"/>
       <c r="Z163" s="16"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9">
         <v>321</v>
       </c>
-      <c r="B164" t="s" s="7">
-        <v>360</v>
-      </c>
-      <c r="C164" t="s" s="7">
-        <v>361</v>
+      <c r="B164" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="D164" s="8"/>
       <c r="E164" s="10"/>
       <c r="F164" s="11">
         <v>71102</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H164" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="H164" t="s" s="13">
-        <v>364</v>
-      </c>
-      <c r="I164" t="s" s="62">
+      <c r="I164" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J164" s="15"/>
@@ -10219,28 +10244,28 @@
       <c r="Y164" s="16"/>
       <c r="Z164" s="16"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9">
         <v>323</v>
       </c>
-      <c r="B165" t="s" s="7">
-        <v>360</v>
-      </c>
-      <c r="C165" t="s" s="7">
-        <v>361</v>
+      <c r="B165" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="D165" s="8"/>
       <c r="E165" s="10"/>
       <c r="F165" s="11">
         <v>71103</v>
       </c>
-      <c r="G165" t="s" s="12">
-        <v>362</v>
-      </c>
-      <c r="H165" t="s" s="13">
-        <v>365</v>
-      </c>
-      <c r="I165" t="s" s="62">
+      <c r="G165" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="H165" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="I165" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J165" s="15"/>
@@ -10261,28 +10286,28 @@
       <c r="Y165" s="16"/>
       <c r="Z165" s="16"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="9">
         <v>325</v>
       </c>
-      <c r="B166" t="s" s="7">
-        <v>360</v>
-      </c>
-      <c r="C166" t="s" s="7">
-        <v>361</v>
+      <c r="B166" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="D166" s="8"/>
       <c r="E166" s="10"/>
       <c r="F166" s="11">
         <v>71199</v>
       </c>
-      <c r="G166" t="s" s="12">
-        <v>366</v>
-      </c>
-      <c r="H166" t="s" s="13">
-        <v>367</v>
-      </c>
-      <c r="I166" t="s" s="62">
+      <c r="G166" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="I166" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J166" s="15"/>
@@ -10303,28 +10328,28 @@
       <c r="Y166" s="16"/>
       <c r="Z166" s="16"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>327</v>
       </c>
-      <c r="B167" t="s" s="7">
-        <v>360</v>
-      </c>
-      <c r="C167" t="s" s="7">
-        <v>361</v>
+      <c r="B167" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="D167" s="8"/>
       <c r="E167" s="10"/>
       <c r="F167" s="11">
         <v>81101</v>
       </c>
-      <c r="G167" t="s" s="12">
+      <c r="G167" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H167" t="s" s="13">
-        <v>368</v>
-      </c>
-      <c r="I167" t="s" s="62">
+      <c r="H167" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="I167" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J167" s="15"/>
@@ -10345,28 +10370,28 @@
       <c r="Y167" s="16"/>
       <c r="Z167" s="16"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>329</v>
       </c>
-      <c r="B168" t="s" s="7">
-        <v>360</v>
-      </c>
-      <c r="C168" t="s" s="7">
-        <v>361</v>
+      <c r="B168" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="D168" s="8"/>
       <c r="E168" s="10"/>
       <c r="F168" s="11">
         <v>81102</v>
       </c>
-      <c r="G168" t="s" s="12">
-        <v>369</v>
-      </c>
-      <c r="H168" t="s" s="13">
-        <v>370</v>
-      </c>
-      <c r="I168" t="s" s="62">
+      <c r="G168" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="I168" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J168" s="15"/>
@@ -10387,28 +10412,28 @@
       <c r="Y168" s="16"/>
       <c r="Z168" s="16"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>331</v>
       </c>
-      <c r="B169" t="s" s="7">
-        <v>360</v>
-      </c>
-      <c r="C169" t="s" s="7">
-        <v>361</v>
+      <c r="B169" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="D169" s="8"/>
       <c r="E169" s="10"/>
       <c r="F169" s="63">
         <v>81103</v>
       </c>
-      <c r="G169" t="s" s="12">
-        <v>371</v>
-      </c>
-      <c r="H169" t="s" s="64">
-        <v>372</v>
-      </c>
-      <c r="I169" t="s" s="62">
+      <c r="G169" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H169" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="I169" s="62" t="s">
         <v>18</v>
       </c>
       <c r="J169" s="15"/>
@@ -10431,7 +10456,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
